--- a/Command/Command.xlsx
+++ b/Command/Command.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Project\Python\TestTool\Command\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C2BF7-8EDF-459E-9B79-EA790B4160BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC174B-6B74-41D6-AA27-43811FD50FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
+    <workbookView xWindow="31350" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
   </bookViews>
   <sheets>
     <sheet name="IR RAW CMD" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="161">
   <si>
     <r>
       <rPr>
@@ -707,6 +707,26 @@
   </si>
   <si>
     <t>Cali. Interval 180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cali. Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version Query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1053,21 +1073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1125,6 +1130,240 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1132,7 +1371,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1300,9 +1539,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,7 +1551,73 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1966,13 +2268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2191A3BB-5475-EC49-9D9F-17B4E3E33BE8}">
-  <dimension ref="B1:W91"/>
+  <dimension ref="B1:W94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2001,78 +2303,78 @@
       </c>
     </row>
     <row r="2" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="61" t="s">
+      <c r="R2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="61" t="s">
+      <c r="T2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="61" t="s">
+      <c r="U2" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="61" t="s">
+      <c r="V2" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="62" t="s">
+      <c r="W2" s="60" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -2134,10 +2436,10 @@
       </c>
     </row>
     <row r="4" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2199,10 +2501,10 @@
       </c>
     </row>
     <row r="5" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -2263,10 +2565,10 @@
       </c>
     </row>
     <row r="6" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2328,10 +2630,10 @@
       </c>
     </row>
     <row r="7" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2393,10 +2695,10 @@
       </c>
     </row>
     <row r="8" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2458,10 +2760,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2523,10 +2825,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2588,10 +2890,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2653,10 +2955,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2718,10 +3020,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2783,10 +3085,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2848,10 +3150,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2870,15 +3172,15 @@
         <v>16</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="N15" s="3" t="str">
         <f t="shared" si="46"/>
-        <v>5B</v>
+        <v>57</v>
       </c>
       <c r="O15" s="12" t="str">
         <f t="shared" ref="O15:O16" si="57">"FF01"&amp;J15&amp;""&amp;K15&amp;L15&amp;M15&amp;N15</f>
-        <v>FF01015500045B</v>
+        <v>FF010155000057</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>9</v>
@@ -2901,22 +3203,22 @@
       </c>
       <c r="U15" s="15">
         <f t="shared" ref="U15:U16" si="62">HEX2DEC(M15)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V15" s="15">
         <f t="shared" ref="V15:V16" si="63">SUM(Q15:U15)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W15" s="30" t="str">
         <f t="shared" ref="W15:W16" si="64">REPT("0",2-LEN(RIGHT(DEC2HEX(V15), 2)))&amp;RIGHT(DEC2HEX(V15), 2)</f>
-        <v>5B</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2978,10 +3280,10 @@
       </c>
     </row>
     <row r="17" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -3043,10 +3345,10 @@
       </c>
     </row>
     <row r="18" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3108,10 +3410,10 @@
       </c>
     </row>
     <row r="19" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3173,10 +3475,10 @@
       </c>
     </row>
     <row r="20" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3238,10 +3540,10 @@
       </c>
     </row>
     <row r="21" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3303,10 +3605,10 @@
       </c>
     </row>
     <row r="22" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3368,10 +3670,10 @@
       </c>
     </row>
     <row r="23" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3433,10 +3735,10 @@
       </c>
     </row>
     <row r="24" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3498,10 +3800,10 @@
       </c>
     </row>
     <row r="25" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3563,10 +3865,10 @@
       </c>
     </row>
     <row r="26" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3628,10 +3930,10 @@
       </c>
     </row>
     <row r="27" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3693,10 +3995,10 @@
       </c>
     </row>
     <row r="28" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3758,10 +4060,10 @@
       </c>
     </row>
     <row r="29" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3823,10 +4125,10 @@
       </c>
     </row>
     <row r="30" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3848,7 +4150,7 @@
         <v>9</v>
       </c>
       <c r="N30" s="3" t="str">
-        <f t="shared" ref="N30:N31" si="92">W30</f>
+        <f t="shared" ref="N30:N33" si="92">W30</f>
         <v>B5</v>
       </c>
       <c r="O30" s="12" t="str">
@@ -3888,10 +4190,10 @@
       </c>
     </row>
     <row r="31" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3953,10 +4255,10 @@
       </c>
     </row>
     <row r="32" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -4018,10 +4320,10 @@
       </c>
     </row>
     <row r="33" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -4042,19 +4344,19 @@
       <c r="M33" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="24" t="s">
-        <v>16</v>
+      <c r="N33" s="3" t="str">
+        <f t="shared" si="92"/>
+        <v>A2</v>
       </c>
       <c r="O33" s="25" t="str">
         <f>"FF01"&amp;J33&amp;""&amp;K33&amp;L33&amp;M33&amp;N33</f>
-        <v>FF01A100000000</v>
+        <v>FF01A1000000A2</v>
       </c>
       <c r="P33" s="26" t="s">
         <v>9</v>
       </c>
       <c r="Q33" s="27">
-        <f>HEX2DEC(I33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="27">
         <f>HEX2DEC(J33)</f>
@@ -4074,18 +4376,18 @@
       </c>
       <c r="V33" s="27">
         <f>SUM(Q33:U33)</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W33" s="28" t="str">
         <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V33), 2)))&amp;RIGHT(DEC2HEX(V33), 2)</f>
-        <v>A1</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="34" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4147,10 +4449,10 @@
       </c>
     </row>
     <row r="35" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4212,10 +4514,10 @@
       </c>
     </row>
     <row r="36" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4277,10 +4579,10 @@
       </c>
     </row>
     <row r="37" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4342,10 +4644,10 @@
       </c>
     </row>
     <row r="38" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4407,10 +4709,10 @@
       </c>
     </row>
     <row r="39" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4472,10 +4774,10 @@
       </c>
     </row>
     <row r="40" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4537,10 +4839,10 @@
       </c>
     </row>
     <row r="41" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4602,10 +4904,10 @@
       </c>
     </row>
     <row r="42" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4667,10 +4969,10 @@
       </c>
     </row>
     <row r="43" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4732,10 +5034,10 @@
       </c>
     </row>
     <row r="44" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4797,10 +5099,10 @@
       </c>
     </row>
     <row r="45" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -4862,10 +5164,10 @@
       </c>
     </row>
     <row r="46" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -4927,10 +5229,10 @@
       </c>
     </row>
     <row r="47" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -4992,10 +5294,10 @@
       </c>
     </row>
     <row r="48" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5057,10 +5359,10 @@
       </c>
     </row>
     <row r="49" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="71"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -5122,10 +5424,10 @@
       </c>
     </row>
     <row r="50" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5187,10 +5489,10 @@
       </c>
     </row>
     <row r="51" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="32"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
       <c r="F51" s="32"/>
@@ -5252,10 +5554,10 @@
       </c>
     </row>
     <row r="52" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="22"/>
+      <c r="B52" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="70"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -5317,10 +5619,10 @@
       </c>
     </row>
     <row r="53" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -5382,10 +5684,10 @@
       </c>
     </row>
     <row r="54" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -5447,10 +5749,10 @@
       </c>
     </row>
     <row r="55" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -5512,10 +5814,10 @@
       </c>
     </row>
     <row r="56" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -5577,10 +5879,10 @@
       </c>
     </row>
     <row r="57" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -5642,10 +5944,10 @@
       </c>
     </row>
     <row r="58" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -5707,10 +6009,10 @@
       </c>
     </row>
     <row r="59" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -5772,10 +6074,10 @@
       </c>
     </row>
     <row r="60" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -5837,10 +6139,10 @@
       </c>
     </row>
     <row r="61" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -5902,10 +6204,10 @@
       </c>
     </row>
     <row r="62" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -5967,10 +6269,10 @@
       </c>
     </row>
     <row r="63" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -6032,10 +6334,10 @@
       </c>
     </row>
     <row r="64" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -6097,10 +6399,10 @@
       </c>
     </row>
     <row r="65" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -6162,10 +6464,10 @@
       </c>
     </row>
     <row r="66" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -6227,10 +6529,10 @@
       </c>
     </row>
     <row r="67" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -6292,10 +6594,10 @@
       </c>
     </row>
     <row r="68" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="32"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
@@ -6357,75 +6659,75 @@
       </c>
     </row>
     <row r="69" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="3" t="s">
+      <c r="C69" s="70"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="22">
         <v>30</v>
       </c>
-      <c r="L69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N69" s="3" t="str">
+      <c r="L69" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N69" s="22" t="str">
         <f t="shared" ref="N69:N84" si="222">W69</f>
         <v>D2</v>
       </c>
-      <c r="O69" s="12" t="str">
+      <c r="O69" s="25" t="str">
         <f t="shared" ref="O69:O84" si="223">"FF01"&amp;J69&amp;""&amp;K69&amp;L69&amp;M69&amp;N69</f>
         <v>FF01A1300000D2</v>
       </c>
-      <c r="P69" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q69" s="15">
+      <c r="P69" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="27">
         <f t="shared" ref="Q69:Q84" si="224">HEX2DEC(I69)</f>
         <v>1</v>
       </c>
-      <c r="R69" s="15">
+      <c r="R69" s="27">
         <f t="shared" ref="R69:R84" si="225">HEX2DEC(J69)</f>
         <v>161</v>
       </c>
-      <c r="S69" s="15">
+      <c r="S69" s="27">
         <f t="shared" ref="S69:S84" si="226">HEX2DEC(K69)</f>
         <v>48</v>
       </c>
-      <c r="T69" s="15">
+      <c r="T69" s="27">
         <f t="shared" ref="T69:T84" si="227">HEX2DEC(L69)</f>
         <v>0</v>
       </c>
-      <c r="U69" s="15">
+      <c r="U69" s="27">
         <f t="shared" ref="U69:U84" si="228">HEX2DEC(M69)</f>
         <v>0</v>
       </c>
-      <c r="V69" s="15">
+      <c r="V69" s="27">
         <f t="shared" ref="V69:V84" si="229">SUM(Q69:U69)</f>
         <v>210</v>
       </c>
-      <c r="W69" s="15" t="str">
+      <c r="W69" s="28" t="str">
         <f t="shared" ref="W69:W91" si="230">REPT("0",2-LEN(RIGHT(DEC2HEX(V69), 2)))&amp;RIGHT(DEC2HEX(V69), 2)</f>
         <v>D2</v>
       </c>
     </row>
     <row r="70" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -6481,16 +6783,16 @@
         <f t="shared" si="229"/>
         <v>210</v>
       </c>
-      <c r="W70" s="15" t="str">
+      <c r="W70" s="30" t="str">
         <f t="shared" si="230"/>
         <v>D2</v>
       </c>
     </row>
     <row r="71" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="71"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -6546,16 +6848,16 @@
         <f t="shared" si="229"/>
         <v>211</v>
       </c>
-      <c r="W71" s="15" t="str">
+      <c r="W71" s="30" t="str">
         <f t="shared" si="230"/>
         <v>D3</v>
       </c>
     </row>
     <row r="72" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="71"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -6611,16 +6913,16 @@
         <f t="shared" si="229"/>
         <v>211</v>
       </c>
-      <c r="W72" s="15" t="str">
+      <c r="W72" s="30" t="str">
         <f t="shared" si="230"/>
         <v>D3</v>
       </c>
     </row>
     <row r="73" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="71"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -6676,16 +6978,16 @@
         <f t="shared" si="229"/>
         <v>251</v>
       </c>
-      <c r="W73" s="15" t="str">
+      <c r="W73" s="30" t="str">
         <f t="shared" si="230"/>
         <v>FB</v>
       </c>
     </row>
     <row r="74" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="71"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -6741,16 +7043,16 @@
         <f t="shared" si="229"/>
         <v>212</v>
       </c>
-      <c r="W74" s="15" t="str">
+      <c r="W74" s="30" t="str">
         <f t="shared" si="230"/>
         <v>D4</v>
       </c>
     </row>
     <row r="75" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -6806,16 +7108,16 @@
         <f t="shared" si="229"/>
         <v>252</v>
       </c>
-      <c r="W75" s="15" t="str">
+      <c r="W75" s="30" t="str">
         <f t="shared" si="230"/>
         <v>FC</v>
       </c>
     </row>
     <row r="76" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -6871,16 +7173,16 @@
         <f t="shared" si="229"/>
         <v>213</v>
       </c>
-      <c r="W76" s="15" t="str">
+      <c r="W76" s="30" t="str">
         <f t="shared" si="230"/>
         <v>D5</v>
       </c>
     </row>
     <row r="77" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -6936,16 +7238,16 @@
         <f t="shared" si="229"/>
         <v>214</v>
       </c>
-      <c r="W77" s="15" t="str">
+      <c r="W77" s="30" t="str">
         <f t="shared" si="230"/>
         <v>D6</v>
       </c>
     </row>
     <row r="78" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -7001,16 +7303,16 @@
         <f t="shared" si="229"/>
         <v>214</v>
       </c>
-      <c r="W78" s="15" t="str">
+      <c r="W78" s="30" t="str">
         <f t="shared" si="230"/>
         <v>D6</v>
       </c>
     </row>
     <row r="79" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="71"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -7066,16 +7368,16 @@
         <f t="shared" si="229"/>
         <v>215</v>
       </c>
-      <c r="W79" s="15" t="str">
+      <c r="W79" s="30" t="str">
         <f t="shared" si="230"/>
         <v>D7</v>
       </c>
     </row>
     <row r="80" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="16"/>
+      <c r="C80" s="73"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
@@ -7131,16 +7433,16 @@
         <f t="shared" si="229"/>
         <v>216</v>
       </c>
-      <c r="W80" s="21" t="str">
+      <c r="W80" s="61" t="str">
         <f t="shared" si="230"/>
         <v>D8</v>
       </c>
     </row>
     <row r="81" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="16"/>
+      <c r="C81" s="73"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
@@ -7196,16 +7498,16 @@
         <f t="shared" si="229"/>
         <v>215</v>
       </c>
-      <c r="W81" s="21" t="str">
+      <c r="W81" s="61" t="str">
         <f t="shared" si="230"/>
         <v>D7</v>
       </c>
     </row>
     <row r="82" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="16"/>
+      <c r="C82" s="73"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
@@ -7261,16 +7563,16 @@
         <f t="shared" si="229"/>
         <v>216</v>
       </c>
-      <c r="W82" s="21" t="str">
+      <c r="W82" s="61" t="str">
         <f t="shared" si="230"/>
         <v>D8</v>
       </c>
     </row>
     <row r="83" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="16"/>
+      <c r="C83" s="73"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
@@ -7326,146 +7628,146 @@
         <f t="shared" si="229"/>
         <v>217</v>
       </c>
-      <c r="W83" s="21" t="str">
+      <c r="W83" s="61" t="str">
         <f t="shared" si="230"/>
         <v>D9</v>
       </c>
     </row>
-    <row r="84" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="16" t="s">
+    <row r="84" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" s="16" t="s">
+      <c r="C84" s="72"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="32">
         <v>36</v>
       </c>
-      <c r="L84" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M84" s="18" t="s">
+      <c r="L84" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="N84" s="16" t="str">
+      <c r="N84" s="32" t="str">
         <f t="shared" si="222"/>
         <v>DA</v>
       </c>
-      <c r="O84" s="19" t="str">
+      <c r="O84" s="35" t="str">
         <f t="shared" si="223"/>
         <v>FF01A0360003DA</v>
       </c>
-      <c r="P84" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q84" s="21">
+      <c r="P84" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q84" s="37">
         <f t="shared" si="224"/>
         <v>1</v>
       </c>
-      <c r="R84" s="21">
+      <c r="R84" s="37">
         <f t="shared" si="225"/>
         <v>160</v>
       </c>
-      <c r="S84" s="21">
+      <c r="S84" s="37">
         <f t="shared" si="226"/>
         <v>54</v>
       </c>
-      <c r="T84" s="21">
+      <c r="T84" s="37">
         <f t="shared" si="227"/>
         <v>0</v>
       </c>
-      <c r="U84" s="21">
+      <c r="U84" s="37">
         <f t="shared" si="228"/>
         <v>3</v>
       </c>
-      <c r="V84" s="21">
+      <c r="V84" s="37">
         <f t="shared" si="229"/>
         <v>218</v>
       </c>
-      <c r="W84" s="21" t="str">
+      <c r="W84" s="38" t="str">
         <f t="shared" si="230"/>
         <v>DA</v>
       </c>
     </row>
     <row r="85" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J85" s="16" t="s">
+      <c r="B85" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="74"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="62">
         <v>40</v>
       </c>
-      <c r="L85" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M85" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="N85" s="16" t="str">
+      <c r="L85" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="N85" s="62" t="str">
         <f t="shared" ref="N85" si="231">W85</f>
         <v>E2</v>
       </c>
-      <c r="O85" s="19" t="str">
+      <c r="O85" s="65" t="str">
         <f t="shared" ref="O85" si="232">"FF01"&amp;J85&amp;""&amp;K85&amp;L85&amp;M85&amp;N85</f>
         <v>FF01A1400000E2</v>
       </c>
-      <c r="P85" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q85" s="21">
+      <c r="P85" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q85" s="67">
         <f t="shared" ref="Q85" si="233">HEX2DEC(I85)</f>
         <v>1</v>
       </c>
-      <c r="R85" s="21">
+      <c r="R85" s="67">
         <f t="shared" ref="R85" si="234">HEX2DEC(J85)</f>
         <v>161</v>
       </c>
-      <c r="S85" s="21">
+      <c r="S85" s="67">
         <f t="shared" ref="S85" si="235">HEX2DEC(K85)</f>
         <v>64</v>
       </c>
-      <c r="T85" s="21">
+      <c r="T85" s="67">
         <f t="shared" ref="T85" si="236">HEX2DEC(L85)</f>
         <v>0</v>
       </c>
-      <c r="U85" s="21">
+      <c r="U85" s="67">
         <f t="shared" ref="U85" si="237">HEX2DEC(M85)</f>
         <v>0</v>
       </c>
-      <c r="V85" s="21">
+      <c r="V85" s="67">
         <f t="shared" ref="V85" si="238">SUM(Q85:U85)</f>
         <v>226</v>
       </c>
-      <c r="W85" s="21" t="str">
+      <c r="W85" s="68" t="str">
         <f t="shared" si="230"/>
         <v>E2</v>
       </c>
     </row>
     <row r="86" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="16"/>
+      <c r="C86" s="73"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
@@ -7521,16 +7823,16 @@
         <f t="shared" ref="V86" si="246">SUM(Q86:U86)</f>
         <v>226</v>
       </c>
-      <c r="W86" s="21" t="str">
+      <c r="W86" s="61" t="str">
         <f t="shared" si="230"/>
         <v>E2</v>
       </c>
     </row>
     <row r="87" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="16"/>
+      <c r="C87" s="73"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
@@ -7586,16 +7888,16 @@
         <f t="shared" ref="V87:V91" si="254">SUM(Q87:U87)</f>
         <v>227</v>
       </c>
-      <c r="W87" s="21" t="str">
+      <c r="W87" s="61" t="str">
         <f t="shared" si="230"/>
         <v>E3</v>
       </c>
     </row>
     <row r="88" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="16"/>
+      <c r="C88" s="73"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
@@ -7651,16 +7953,16 @@
         <f t="shared" si="254"/>
         <v>228</v>
       </c>
-      <c r="W88" s="21" t="str">
+      <c r="W88" s="61" t="str">
         <f t="shared" si="230"/>
         <v>E4</v>
       </c>
     </row>
     <row r="89" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="16"/>
+      <c r="C89" s="73"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
@@ -7716,16 +8018,16 @@
         <f t="shared" si="254"/>
         <v>229</v>
       </c>
-      <c r="W89" s="21" t="str">
+      <c r="W89" s="61" t="str">
         <f t="shared" si="230"/>
         <v>E5</v>
       </c>
     </row>
     <row r="90" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="16"/>
+      <c r="C90" s="73"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
@@ -7781,74 +8083,89 @@
         <f t="shared" si="254"/>
         <v>229</v>
       </c>
-      <c r="W90" s="21" t="str">
+      <c r="W90" s="61" t="str">
         <f t="shared" si="230"/>
         <v>E5</v>
       </c>
     </row>
-    <row r="91" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="16" t="s">
+    <row r="91" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" s="16" t="s">
+      <c r="C91" s="72"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="32">
         <v>43</v>
       </c>
-      <c r="L91" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="18" t="s">
+      <c r="L91" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="N91" s="16" t="str">
+      <c r="N91" s="32" t="str">
         <f t="shared" si="247"/>
         <v>98</v>
       </c>
-      <c r="O91" s="19" t="str">
+      <c r="O91" s="35" t="str">
         <f t="shared" si="248"/>
         <v>FF01A04300B498</v>
       </c>
-      <c r="P91" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q91" s="21">
+      <c r="P91" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q91" s="37">
         <f t="shared" si="249"/>
         <v>1</v>
       </c>
-      <c r="R91" s="21">
+      <c r="R91" s="37">
         <f t="shared" si="250"/>
         <v>160</v>
       </c>
-      <c r="S91" s="21">
+      <c r="S91" s="37">
         <f t="shared" si="251"/>
         <v>67</v>
       </c>
-      <c r="T91" s="21">
+      <c r="T91" s="37">
         <f t="shared" si="252"/>
         <v>0</v>
       </c>
-      <c r="U91" s="21">
+      <c r="U91" s="37">
         <f t="shared" si="253"/>
         <v>180</v>
       </c>
-      <c r="V91" s="21">
+      <c r="V91" s="37">
         <f t="shared" si="254"/>
         <v>408</v>
       </c>
-      <c r="W91" s="21" t="str">
+      <c r="W91" s="38" t="str">
         <f t="shared" si="230"/>
         <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="83" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -11798,7 +12115,7 @@
         <v>9</v>
       </c>
       <c r="Q61" s="15">
-        <f t="shared" ref="Q61:U69" si="19">HEX2DEC(I61)</f>
+        <f t="shared" ref="Q61:U62" si="19">HEX2DEC(I61)</f>
         <v>1</v>
       </c>
       <c r="R61" s="15">
@@ -12208,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="V67" s="15">
-        <f t="shared" ref="V67:V131" si="23">SUM(Q67:U67)</f>
+        <f t="shared" ref="V67:V102" si="23">SUM(Q67:U67)</f>
         <v>196</v>
       </c>
       <c r="W67" s="30" t="str">

--- a/Command/Command.xlsx
+++ b/Command/Command.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Project\Python\TestTool\Command\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCC174B-6B74-41D6-AA27-43811FD50FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B705E0-3839-472F-99FE-D873810B9940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
+    <workbookView xWindow="6510" yWindow="1050" windowWidth="21600" windowHeight="13275" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
   </bookViews>
   <sheets>
     <sheet name="IR RAW CMD" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="279">
   <si>
     <r>
       <rPr>
@@ -729,12 +729,383 @@
     <t>Version Query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVBS NTSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVBS PAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display Info Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display Info On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoder Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF01E1000000E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoom Position 10900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF01004F000050</t>
+  </si>
+  <si>
+    <t>FF01014FFFFF4F</t>
+  </si>
+  <si>
+    <t>Focus Position 10800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF01014F2A30AB</t>
+  </si>
+  <si>
+    <t>Rev.2024.02.05</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>FF01000F000010</t>
+  </si>
+  <si>
+    <t>FF01002900002A</t>
+  </si>
+  <si>
+    <t>FF010000000000</t>
+  </si>
+  <si>
+    <t>FF010025000026</t>
+  </si>
+  <si>
+    <t>FF01002500042A</t>
+  </si>
+  <si>
+    <t>FF01004FFFFF4E</t>
+  </si>
+  <si>
+    <t>FF01004F2A940E</t>
+  </si>
+  <si>
+    <t>FF010055000056</t>
+  </si>
+  <si>
+    <t>FF010027000028</t>
+  </si>
+  <si>
+    <t>FF01002700042C</t>
+  </si>
+  <si>
+    <t>FF01014F000051</t>
+  </si>
+  <si>
+    <t>FF010155000057</t>
+  </si>
+  <si>
+    <t>FF01002B00002C</t>
+  </si>
+  <si>
+    <t>FF01002B00012D</t>
+  </si>
+  <si>
+    <t>FF01A1100000B2</t>
+  </si>
+  <si>
+    <t>FF01A0110000B2</t>
+  </si>
+  <si>
+    <t>FF01A0120000B3</t>
+  </si>
+  <si>
+    <t>FF01A0120004B7</t>
+  </si>
+  <si>
+    <t>FF01A0130000B4</t>
+  </si>
+  <si>
+    <t>FF01A0130004B8</t>
+  </si>
+  <si>
+    <t>FF01A0140000B5</t>
+  </si>
+  <si>
+    <t>FF01A0140001B6</t>
+  </si>
+  <si>
+    <t>FF01A0140002B7</t>
+  </si>
+  <si>
+    <t>FF01A0150001B7</t>
+  </si>
+  <si>
+    <t>FF01A01500B46A</t>
+  </si>
+  <si>
+    <t>FF01A01600641B</t>
+  </si>
+  <si>
+    <t>FF01A016FFFFB5</t>
+  </si>
+  <si>
+    <t>FF01A0170000B8</t>
+  </si>
+  <si>
+    <t>FF01A0170001B9</t>
+  </si>
+  <si>
+    <t>FF01A1000000A2</t>
+  </si>
+  <si>
+    <t>FF01A0010000A2</t>
+  </si>
+  <si>
+    <t>FF01A0010001A3</t>
+  </si>
+  <si>
+    <t>FF01A0020000A3</t>
+  </si>
+  <si>
+    <t>FF01A0020001A4</t>
+  </si>
+  <si>
+    <t>FF01A0030000A4</t>
+  </si>
+  <si>
+    <t>FF01A0030001A5</t>
+  </si>
+  <si>
+    <t>FF01A0030002A6</t>
+  </si>
+  <si>
+    <t>FF01A0030003A7</t>
+  </si>
+  <si>
+    <t>FF01A0030004A8</t>
+  </si>
+  <si>
+    <t>FF01A0030005A9</t>
+  </si>
+  <si>
+    <t>FF01A0040000A5</t>
+  </si>
+  <si>
+    <t>FF01A0040001A6</t>
+  </si>
+  <si>
+    <t>FF01A0050000A6</t>
+  </si>
+  <si>
+    <t>FF01A0050001A7</t>
+  </si>
+  <si>
+    <t>FF01A0060000A7</t>
+  </si>
+  <si>
+    <t>FF01A0060001A8</t>
+  </si>
+  <si>
+    <t>FF01A0060002A9</t>
+  </si>
+  <si>
+    <t>FF01A0070004AC</t>
+  </si>
+  <si>
+    <t>FF01A1200000C2</t>
+  </si>
+  <si>
+    <t>FF01A0210000C2</t>
+  </si>
+  <si>
+    <t>FF01A0210001C3</t>
+  </si>
+  <si>
+    <t>FF01A0220000C3</t>
+  </si>
+  <si>
+    <t>FF01A0220001C4</t>
+  </si>
+  <si>
+    <t>FF01A0230001C5</t>
+  </si>
+  <si>
+    <t>FF01A0230000C4</t>
+  </si>
+  <si>
+    <t>FF01A0240001C6</t>
+  </si>
+  <si>
+    <t>FF01A0240000C5</t>
+  </si>
+  <si>
+    <t>FF01A0250000C6</t>
+  </si>
+  <si>
+    <t>FF01A0250001C7</t>
+  </si>
+  <si>
+    <t>FF01A0260000C7</t>
+  </si>
+  <si>
+    <t>FF01A0260001C8</t>
+  </si>
+  <si>
+    <t>FF01A0270000C8</t>
+  </si>
+  <si>
+    <t>FF01A027000AD2</t>
+  </si>
+  <si>
+    <t>FF01A0270014DC</t>
+  </si>
+  <si>
+    <t>FF01A027001EE6</t>
+  </si>
+  <si>
+    <t>FF01A1300000D2</t>
+  </si>
+  <si>
+    <t>FF01A0310000D2</t>
+  </si>
+  <si>
+    <t>FF01A0310001D3</t>
+  </si>
+  <si>
+    <t>FF01A0320000D3</t>
+  </si>
+  <si>
+    <t>FF01A0320028FB</t>
+  </si>
+  <si>
+    <t>FF01A0330000D4</t>
+  </si>
+  <si>
+    <t>FF01A0330028FC</t>
+  </si>
+  <si>
+    <t>FF01A0340000D5</t>
+  </si>
+  <si>
+    <t>FF01A0340001D6</t>
+  </si>
+  <si>
+    <t>FF01A0350000D6</t>
+  </si>
+  <si>
+    <t>FF01A0350001D7</t>
+  </si>
+  <si>
+    <t>FF01A0350002D8</t>
+  </si>
+  <si>
+    <t>FF01A0360000D7</t>
+  </si>
+  <si>
+    <t>FF01A0360001D8</t>
+  </si>
+  <si>
+    <t>FF01A0360002D9</t>
+  </si>
+  <si>
+    <t>FF01A0360003DA</t>
+  </si>
+  <si>
+    <t>FF01A1400000E2</t>
+  </si>
+  <si>
+    <t>FF01A0410000E2</t>
+  </si>
+  <si>
+    <t>FF01A0420000E3</t>
+  </si>
+  <si>
+    <t>FF01A0420001E4</t>
+  </si>
+  <si>
+    <t>FF01A0420002E5</t>
+  </si>
+  <si>
+    <t>FF01A0430001E5</t>
+  </si>
+  <si>
+    <t>FF01A04300B498</t>
+  </si>
+  <si>
+    <t>FF01A1500000F2</t>
+  </si>
+  <si>
+    <t>FF01A0510000F2</t>
+  </si>
+  <si>
+    <t>FF01A0520000F3</t>
+  </si>
+  <si>
+    <t>FF01A0520001F4</t>
+  </si>
+  <si>
+    <t>FF01A0530000F4</t>
+  </si>
+  <si>
+    <t>FF01A0530001F5</t>
+  </si>
+  <si>
+    <t>FF01E1100000F2</t>
+  </si>
+  <si>
+    <t>FF01E130000012</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -782,8 +1153,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,8 +1186,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1159,56 +1544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1272,17 +1607,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1341,6 +1665,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1350,7 +1713,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1360,7 +1725,50 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1371,7 +1779,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,13 +1962,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1569,13 +1971,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1590,10 +1992,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1602,22 +2019,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2268,13 +2692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2191A3BB-5475-EC49-9D9F-17B4E3E33BE8}">
-  <dimension ref="B1:W94"/>
+  <dimension ref="B1:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M98" sqref="M98"/>
+      <selection pane="bottomRight" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2282,12 +2706,12 @@
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.21875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="6"/>
     <col min="15" max="15" width="14.44140625" customWidth="1"/>
     <col min="16" max="16" width="3.109375" style="9" bestFit="1" customWidth="1"/>
@@ -2295,18 +2719,22 @@
     <col min="18" max="18" width="3.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="3.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="69" t="s">
+      <c r="Y1" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="57" t="s">
@@ -2369,12 +2797,15 @@
       <c r="W2" s="60" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
+      <c r="Y2" s="83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -2434,12 +2865,15 @@
         <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V3), 2)))&amp;RIGHT(DEC2HEX(V3), 2)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77" t="s">
+      <c r="Y3" s="83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2499,12 +2933,15 @@
         <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V4), 2)))&amp;RIGHT(DEC2HEX(V4), 2)</f>
         <v>2A</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="78" t="s">
+      <c r="Y4" s="83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -2563,12 +3000,15 @@
         <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V5), 2)))&amp;RIGHT(DEC2HEX(V5), 2)</f>
         <v>00</v>
       </c>
-    </row>
-    <row r="6" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="76" t="s">
+      <c r="Y5" s="83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2628,12 +3068,15 @@
         <f t="shared" ref="W6" si="11">REPT("0",2-LEN(RIGHT(DEC2HEX(V6), 2)))&amp;RIGHT(DEC2HEX(V6), 2)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="77" t="s">
+      <c r="Y6" s="83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2693,12 +3136,15 @@
         <f t="shared" ref="W7" si="19">REPT("0",2-LEN(RIGHT(DEC2HEX(V7), 2)))&amp;RIGHT(DEC2HEX(V7), 2)</f>
         <v>2A</v>
       </c>
-    </row>
-    <row r="8" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="77" t="s">
+      <c r="Y7" s="83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2758,12 +3204,15 @@
         <f t="shared" ref="W8" si="27">REPT("0",2-LEN(RIGHT(DEC2HEX(V8), 2)))&amp;RIGHT(DEC2HEX(V8), 2)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="77" t="s">
+      <c r="Y8" s="83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2785,7 +3234,7 @@
         <v>9</v>
       </c>
       <c r="N9" s="3" t="str">
-        <f t="shared" ref="N9" si="28">W9</f>
+        <f t="shared" ref="N9:N10" si="28">W9</f>
         <v>4E</v>
       </c>
       <c r="O9" s="12" t="str">
@@ -2823,12 +3272,15 @@
         <f t="shared" ref="W9" si="36">REPT("0",2-LEN(RIGHT(DEC2HEX(V9), 2)))&amp;RIGHT(DEC2HEX(V9), 2)</f>
         <v>4E</v>
       </c>
-    </row>
-    <row r="10" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="71"/>
+      <c r="Y9" s="83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="64"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2841,59 +3293,62 @@
         <v>16</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="N10" s="3" t="str">
-        <f t="shared" ref="N10" si="37">W10</f>
-        <v>56</v>
+        <f t="shared" si="28"/>
+        <v>0E</v>
       </c>
       <c r="O10" s="12" t="str">
-        <f t="shared" ref="O10" si="38">"FF01"&amp;J10&amp;""&amp;K10&amp;L10&amp;M10&amp;N10</f>
-        <v>FF010055000056</v>
+        <f>"FF01"&amp;J10&amp;""&amp;K10&amp;L10&amp;M10&amp;N10</f>
+        <v>FF01004F2A940E</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q10" s="15">
-        <f t="shared" ref="Q10" si="39">HEX2DEC(I10)</f>
+        <f t="shared" ref="Q10" si="37">HEX2DEC(I10)</f>
         <v>1</v>
       </c>
       <c r="R10" s="15">
-        <f t="shared" ref="R10" si="40">HEX2DEC(J10)</f>
+        <f t="shared" ref="R10" si="38">HEX2DEC(J10)</f>
         <v>0</v>
       </c>
       <c r="S10" s="15">
-        <f t="shared" ref="S10" si="41">HEX2DEC(K10)</f>
-        <v>85</v>
+        <f t="shared" ref="S10" si="39">HEX2DEC(K10)</f>
+        <v>79</v>
       </c>
       <c r="T10" s="15">
-        <f t="shared" ref="T10" si="42">HEX2DEC(L10)</f>
-        <v>0</v>
+        <f t="shared" ref="T10" si="40">HEX2DEC(L10)</f>
+        <v>42</v>
       </c>
       <c r="U10" s="15">
-        <f t="shared" ref="U10" si="43">HEX2DEC(M10)</f>
-        <v>0</v>
+        <f t="shared" ref="U10" si="41">HEX2DEC(M10)</f>
+        <v>148</v>
       </c>
       <c r="V10" s="15">
-        <f t="shared" ref="V10" si="44">SUM(Q10:U10)</f>
-        <v>86</v>
+        <f>SUM(Q10:U10)</f>
+        <v>270</v>
       </c>
       <c r="W10" s="30" t="str">
-        <f t="shared" ref="W10" si="45">REPT("0",2-LEN(RIGHT(DEC2HEX(V10), 2)))&amp;RIGHT(DEC2HEX(V10), 2)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77" t="s">
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V10), 2)))&amp;RIGHT(DEC2HEX(V10), 2)</f>
+        <v>0E</v>
+      </c>
+      <c r="Y10" s="83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2915,7 +3370,7 @@
         <v>16</v>
       </c>
       <c r="N11" s="3" t="str">
-        <f t="shared" ref="N11:N51" si="46">W11</f>
+        <f t="shared" ref="N11:N49" si="42">W11</f>
         <v>28</v>
       </c>
       <c r="O11" s="12" t="str">
@@ -2953,12 +3408,15 @@
         <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V11), 2)))&amp;RIGHT(DEC2HEX(V11), 2)</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="77" t="s">
+      <c r="Y11" s="83" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2980,50 +3438,53 @@
         <v>67</v>
       </c>
       <c r="N12" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>2C</v>
       </c>
       <c r="O12" s="12" t="str">
-        <f t="shared" ref="O12" si="47">"FF01"&amp;J12&amp;""&amp;K12&amp;L12&amp;M12&amp;N12</f>
+        <f t="shared" ref="O12" si="43">"FF01"&amp;J12&amp;""&amp;K12&amp;L12&amp;M12&amp;N12</f>
         <v>FF01002700042C</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q12" s="15">
-        <f t="shared" ref="Q12" si="48">HEX2DEC(I12)</f>
+        <f t="shared" ref="Q12" si="44">HEX2DEC(I12)</f>
         <v>1</v>
       </c>
       <c r="R12" s="15">
-        <f t="shared" ref="R12" si="49">HEX2DEC(J12)</f>
+        <f t="shared" ref="R12" si="45">HEX2DEC(J12)</f>
         <v>0</v>
       </c>
       <c r="S12" s="15">
-        <f t="shared" ref="S12" si="50">HEX2DEC(K12)</f>
+        <f t="shared" ref="S12" si="46">HEX2DEC(K12)</f>
         <v>39</v>
       </c>
       <c r="T12" s="15">
-        <f t="shared" ref="T12" si="51">HEX2DEC(L12)</f>
+        <f t="shared" ref="T12" si="47">HEX2DEC(L12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="15">
-        <f t="shared" ref="U12" si="52">HEX2DEC(M12)</f>
+        <f t="shared" ref="U12" si="48">HEX2DEC(M12)</f>
         <v>4</v>
       </c>
       <c r="V12" s="15">
-        <f t="shared" ref="V12" si="53">SUM(Q12:U12)</f>
+        <f t="shared" ref="V12" si="49">SUM(Q12:U12)</f>
         <v>44</v>
       </c>
       <c r="W12" s="30" t="str">
-        <f t="shared" ref="W12" si="54">REPT("0",2-LEN(RIGHT(DEC2HEX(V12), 2)))&amp;RIGHT(DEC2HEX(V12), 2)</f>
+        <f t="shared" ref="W12" si="50">REPT("0",2-LEN(RIGHT(DEC2HEX(V12), 2)))&amp;RIGHT(DEC2HEX(V12), 2)</f>
         <v>2C</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="77" t="s">
+      <c r="Y12" s="83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3045,7 +3506,7 @@
         <v>16</v>
       </c>
       <c r="N13" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>51</v>
       </c>
       <c r="O13" s="12" t="str">
@@ -3056,23 +3517,23 @@
         <v>9</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" ref="Q13:U14" si="55">HEX2DEC(I13)</f>
+        <f t="shared" ref="Q13:U14" si="51">HEX2DEC(I13)</f>
         <v>1</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>79</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="V13" s="15">
@@ -3083,12 +3544,15 @@
         <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V13), 2)))&amp;RIGHT(DEC2HEX(V13), 2)</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="77" t="s">
+      <c r="Y13" s="83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3110,7 +3574,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="3" t="str">
-        <f t="shared" ref="N14" si="56">W14</f>
+        <f t="shared" ref="N14" si="52">W14</f>
         <v>4F</v>
       </c>
       <c r="O14" s="12" t="str">
@@ -3121,23 +3585,23 @@
         <v>9</v>
       </c>
       <c r="Q14" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="R14" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>79</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>255</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>255</v>
       </c>
       <c r="V14" s="15">
@@ -3148,12 +3612,15 @@
         <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V14), 2)))&amp;RIGHT(DEC2HEX(V14), 2)</f>
         <v>4F</v>
       </c>
-    </row>
-    <row r="15" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="71"/>
+      <c r="Y14" s="83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="64"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3166,59 +3633,62 @@
         <v>24</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="N15" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>57</v>
+        <f t="shared" ref="N15" si="53">W15</f>
+        <v>AB</v>
       </c>
       <c r="O15" s="12" t="str">
-        <f t="shared" ref="O15:O16" si="57">"FF01"&amp;J15&amp;""&amp;K15&amp;L15&amp;M15&amp;N15</f>
-        <v>FF010155000057</v>
+        <f>"FF01"&amp;J15&amp;""&amp;K15&amp;L15&amp;M15&amp;N15</f>
+        <v>FF01014F2A30AB</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q15" s="15">
-        <f t="shared" ref="Q15:Q16" si="58">HEX2DEC(I15)</f>
+        <f t="shared" ref="Q15" si="54">HEX2DEC(I15)</f>
         <v>1</v>
       </c>
       <c r="R15" s="15">
-        <f t="shared" ref="R15:R16" si="59">HEX2DEC(J15)</f>
+        <f t="shared" ref="R15" si="55">HEX2DEC(J15)</f>
         <v>1</v>
       </c>
       <c r="S15" s="15">
-        <f t="shared" ref="S15:S16" si="60">HEX2DEC(K15)</f>
-        <v>85</v>
+        <f t="shared" ref="S15" si="56">HEX2DEC(K15)</f>
+        <v>79</v>
       </c>
       <c r="T15" s="15">
-        <f t="shared" ref="T15:T16" si="61">HEX2DEC(L15)</f>
-        <v>0</v>
+        <f t="shared" ref="T15" si="57">HEX2DEC(L15)</f>
+        <v>42</v>
       </c>
       <c r="U15" s="15">
-        <f t="shared" ref="U15:U16" si="62">HEX2DEC(M15)</f>
-        <v>0</v>
+        <f t="shared" ref="U15" si="58">HEX2DEC(M15)</f>
+        <v>48</v>
       </c>
       <c r="V15" s="15">
-        <f t="shared" ref="V15:V16" si="63">SUM(Q15:U15)</f>
-        <v>87</v>
+        <f>SUM(Q15:U15)</f>
+        <v>171</v>
       </c>
       <c r="W15" s="30" t="str">
-        <f t="shared" ref="W15:W16" si="64">REPT("0",2-LEN(RIGHT(DEC2HEX(V15), 2)))&amp;RIGHT(DEC2HEX(V15), 2)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="77" t="s">
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V15), 2)))&amp;RIGHT(DEC2HEX(V15), 2)</f>
+        <v>AB</v>
+      </c>
+      <c r="Y15" s="83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="71"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3240,50 +3710,53 @@
         <v>16</v>
       </c>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>2C</v>
       </c>
       <c r="O16" s="12" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="O16" si="59">"FF01"&amp;J16&amp;""&amp;K16&amp;L16&amp;M16&amp;N16</f>
         <v>FF01002B00002C</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="15">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="Q16" si="60">HEX2DEC(I16)</f>
         <v>1</v>
       </c>
       <c r="R16" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="R16" si="61">HEX2DEC(J16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="S16" si="62">HEX2DEC(K16)</f>
         <v>43</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="T16" si="63">HEX2DEC(L16)</f>
         <v>0</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="U16" si="64">HEX2DEC(M16)</f>
         <v>0</v>
       </c>
       <c r="V16" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="V16" si="65">SUM(Q16:U16)</f>
         <v>44</v>
       </c>
       <c r="W16" s="30" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="W16" si="66">REPT("0",2-LEN(RIGHT(DEC2HEX(V16), 2)))&amp;RIGHT(DEC2HEX(V16), 2)</f>
         <v>2C</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="78" t="s">
+      <c r="Y16" s="83" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -3305,115 +3778,121 @@
         <v>24</v>
       </c>
       <c r="N17" s="32" t="str">
-        <f t="shared" ref="N17:N32" si="65">W17</f>
+        <f t="shared" ref="N17:N31" si="67">W17</f>
         <v>2D</v>
       </c>
       <c r="O17" s="35" t="str">
-        <f t="shared" ref="O17:O32" si="66">"FF01"&amp;J17&amp;""&amp;K17&amp;L17&amp;M17&amp;N17</f>
+        <f t="shared" ref="O17:O31" si="68">"FF01"&amp;J17&amp;""&amp;K17&amp;L17&amp;M17&amp;N17</f>
         <v>FF01002B00012D</v>
       </c>
       <c r="P17" s="36" t="s">
         <v>9</v>
       </c>
       <c r="Q17" s="37">
-        <f t="shared" ref="Q17:Q32" si="67">HEX2DEC(I17)</f>
+        <f t="shared" ref="Q17:Q31" si="69">HEX2DEC(I17)</f>
         <v>1</v>
       </c>
       <c r="R17" s="37">
-        <f t="shared" ref="R17:R32" si="68">HEX2DEC(J17)</f>
+        <f t="shared" ref="R17:R31" si="70">HEX2DEC(J17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="37">
-        <f t="shared" ref="S17:S32" si="69">HEX2DEC(K17)</f>
+        <f t="shared" ref="S17:S31" si="71">HEX2DEC(K17)</f>
         <v>43</v>
       </c>
       <c r="T17" s="37">
-        <f t="shared" ref="T17:T32" si="70">HEX2DEC(L17)</f>
+        <f t="shared" ref="T17:T31" si="72">HEX2DEC(L17)</f>
         <v>0</v>
       </c>
       <c r="U17" s="37">
-        <f t="shared" ref="U17:U32" si="71">HEX2DEC(M17)</f>
+        <f t="shared" ref="U17:U31" si="73">HEX2DEC(M17)</f>
         <v>1</v>
       </c>
       <c r="V17" s="37">
-        <f t="shared" ref="V17:V32" si="72">SUM(Q17:U17)</f>
+        <f t="shared" ref="V17:V31" si="74">SUM(Q17:U17)</f>
         <v>45</v>
       </c>
       <c r="W17" s="38" t="str">
-        <f t="shared" ref="W17:W32" si="73">REPT("0",2-LEN(RIGHT(DEC2HEX(V17), 2)))&amp;RIGHT(DEC2HEX(V17), 2)</f>
+        <f t="shared" ref="W17:W31" si="75">REPT("0",2-LEN(RIGHT(DEC2HEX(V17), 2)))&amp;RIGHT(DEC2HEX(V17), 2)</f>
         <v>2D</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="22" t="str">
-        <f t="shared" ref="N18:N25" si="74">W18</f>
+      <c r="Y17" s="83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="3" t="str">
+        <f t="shared" ref="N18:N24" si="76">W18</f>
         <v>B2</v>
       </c>
-      <c r="O18" s="25" t="str">
-        <f t="shared" ref="O18:O25" si="75">"FF01"&amp;J18&amp;""&amp;K18&amp;L18&amp;M18&amp;N18</f>
-        <v>FF01A1100000B2</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="27">
-        <f t="shared" ref="Q18:Q25" si="76">HEX2DEC(I18)</f>
-        <v>1</v>
-      </c>
-      <c r="R18" s="27">
-        <f t="shared" ref="R18:R25" si="77">HEX2DEC(J18)</f>
-        <v>161</v>
-      </c>
-      <c r="S18" s="27">
-        <f t="shared" ref="S18:S25" si="78">HEX2DEC(K18)</f>
-        <v>16</v>
-      </c>
-      <c r="T18" s="27">
-        <f t="shared" ref="T18:T25" si="79">HEX2DEC(L18)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="27">
-        <f t="shared" ref="U18:U25" si="80">HEX2DEC(M18)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="27">
-        <f t="shared" ref="V18:V25" si="81">SUM(Q18:U18)</f>
+      <c r="O18" s="12" t="str">
+        <f t="shared" ref="O18:O24" si="77">"FF01"&amp;J18&amp;""&amp;K18&amp;L18&amp;M18&amp;N18</f>
+        <v>FF01A0110000B2</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" ref="Q18:Q24" si="78">HEX2DEC(I18)</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" ref="R18:R24" si="79">HEX2DEC(J18)</f>
+        <v>160</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" ref="S18:S24" si="80">HEX2DEC(K18)</f>
+        <v>17</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" ref="T18:T24" si="81">HEX2DEC(L18)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" ref="U18:U24" si="82">HEX2DEC(M18)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" ref="V18:V24" si="83">SUM(Q18:U18)</f>
         <v>178</v>
       </c>
-      <c r="W18" s="28" t="str">
-        <f t="shared" ref="W18:W25" si="82">REPT("0",2-LEN(RIGHT(DEC2HEX(V18), 2)))&amp;RIGHT(DEC2HEX(V18), 2)</f>
+      <c r="W18" s="30" t="str">
+        <f t="shared" ref="W18:W24" si="84">REPT("0",2-LEN(RIGHT(DEC2HEX(V18), 2)))&amp;RIGHT(DEC2HEX(V18), 2)</f>
         <v>B2</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="71"/>
+      <c r="Y18" s="83" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="64"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3426,7 +3905,7 @@
         <v>23</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>16</v>
@@ -3435,50 +3914,53 @@
         <v>16</v>
       </c>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="74"/>
-        <v>B2</v>
+        <f t="shared" si="76"/>
+        <v>B3</v>
       </c>
       <c r="O19" s="12" t="str">
-        <f t="shared" si="75"/>
-        <v>FF01A0110000B2</v>
+        <f t="shared" si="77"/>
+        <v>FF01A0120000B3</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q19" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="R19" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>160</v>
       </c>
       <c r="S19" s="15">
-        <f t="shared" si="78"/>
-        <v>17</v>
+        <f t="shared" si="80"/>
+        <v>18</v>
       </c>
       <c r="T19" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="U19" s="15">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="V19" s="15">
-        <f t="shared" si="81"/>
-        <v>178</v>
+        <f t="shared" si="83"/>
+        <v>179</v>
       </c>
       <c r="W19" s="30" t="str">
-        <f t="shared" si="82"/>
-        <v>B2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="71"/>
+        <f t="shared" si="84"/>
+        <v>B3</v>
+      </c>
+      <c r="Y19" s="83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="64"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3497,53 +3979,56 @@
         <v>16</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N20" s="3" t="str">
-        <f t="shared" si="74"/>
-        <v>B3</v>
+        <f t="shared" si="76"/>
+        <v>B7</v>
       </c>
       <c r="O20" s="12" t="str">
-        <f t="shared" si="75"/>
-        <v>FF01A0120000B3</v>
+        <f t="shared" si="77"/>
+        <v>FF01A0120004B7</v>
       </c>
       <c r="P20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>160</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>18</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <f t="shared" si="82"/>
+        <v>4</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="81"/>
-        <v>179</v>
+        <f t="shared" si="83"/>
+        <v>183</v>
       </c>
       <c r="W20" s="30" t="str">
-        <f t="shared" si="82"/>
-        <v>B3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="71"/>
+        <f t="shared" si="84"/>
+        <v>B7</v>
+      </c>
+      <c r="Y20" s="83" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="64"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3556,59 +4041,62 @@
         <v>23</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="N21" s="3" t="str">
-        <f t="shared" si="74"/>
-        <v>B7</v>
+        <f t="shared" si="76"/>
+        <v>B4</v>
       </c>
       <c r="O21" s="12" t="str">
-        <f t="shared" si="75"/>
-        <v>FF01A0120004B7</v>
+        <f t="shared" si="77"/>
+        <v>FF01A0130000B4</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q21" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="R21" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>160</v>
       </c>
       <c r="S21" s="15">
-        <f t="shared" si="78"/>
-        <v>18</v>
+        <f t="shared" si="80"/>
+        <v>19</v>
       </c>
       <c r="T21" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="U21" s="15">
-        <f t="shared" si="80"/>
-        <v>4</v>
+        <f t="shared" si="82"/>
+        <v>0</v>
       </c>
       <c r="V21" s="15">
-        <f t="shared" si="81"/>
-        <v>183</v>
+        <f t="shared" si="83"/>
+        <v>180</v>
       </c>
       <c r="W21" s="30" t="str">
-        <f t="shared" si="82"/>
-        <v>B7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="71"/>
+        <f t="shared" si="84"/>
+        <v>B4</v>
+      </c>
+      <c r="Y21" s="83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="64"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3627,53 +4115,56 @@
         <v>16</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="74"/>
-        <v>B4</v>
+        <f t="shared" si="76"/>
+        <v>B8</v>
       </c>
       <c r="O22" s="12" t="str">
-        <f t="shared" si="75"/>
-        <v>FF01A0130000B4</v>
+        <f t="shared" si="77"/>
+        <v>FF01A0130004B8</v>
       </c>
       <c r="P22" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q22" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="R22" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>160</v>
       </c>
       <c r="S22" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>19</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="U22" s="15">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <f t="shared" si="82"/>
+        <v>4</v>
       </c>
       <c r="V22" s="15">
-        <f t="shared" si="81"/>
-        <v>180</v>
+        <f t="shared" si="83"/>
+        <v>184</v>
       </c>
       <c r="W22" s="30" t="str">
-        <f t="shared" si="82"/>
-        <v>B4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="71"/>
+        <f t="shared" si="84"/>
+        <v>B8</v>
+      </c>
+      <c r="Y22" s="83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="64"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3686,59 +4177,62 @@
         <v>23</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="N23" s="3" t="str">
-        <f t="shared" si="74"/>
-        <v>B8</v>
+        <f t="shared" si="76"/>
+        <v>B5</v>
       </c>
       <c r="O23" s="12" t="str">
-        <f t="shared" si="75"/>
-        <v>FF01A0130004B8</v>
+        <f t="shared" si="77"/>
+        <v>FF01A0140000B5</v>
       </c>
       <c r="P23" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q23" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="R23" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>160</v>
       </c>
       <c r="S23" s="15">
-        <f t="shared" si="78"/>
-        <v>19</v>
+        <f t="shared" si="80"/>
+        <v>20</v>
       </c>
       <c r="T23" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="U23" s="15">
-        <f t="shared" si="80"/>
-        <v>4</v>
+        <f t="shared" si="82"/>
+        <v>0</v>
       </c>
       <c r="V23" s="15">
-        <f t="shared" si="81"/>
-        <v>184</v>
+        <f t="shared" si="83"/>
+        <v>181</v>
       </c>
       <c r="W23" s="30" t="str">
-        <f t="shared" si="82"/>
-        <v>B8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="71"/>
+        <f t="shared" si="84"/>
+        <v>B5</v>
+      </c>
+      <c r="Y23" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="64"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3757,53 +4251,56 @@
         <v>16</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N24" s="3" t="str">
-        <f t="shared" si="74"/>
-        <v>B5</v>
+        <f t="shared" si="76"/>
+        <v>B6</v>
       </c>
       <c r="O24" s="12" t="str">
-        <f t="shared" si="75"/>
-        <v>FF01A0140000B5</v>
+        <f t="shared" si="77"/>
+        <v>FF01A0140001B6</v>
       </c>
       <c r="P24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q24" s="15">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="R24" s="15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>160</v>
       </c>
       <c r="S24" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>20</v>
       </c>
       <c r="T24" s="15">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="U24" s="15">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <f t="shared" si="82"/>
+        <v>1</v>
       </c>
       <c r="V24" s="15">
-        <f t="shared" si="81"/>
-        <v>181</v>
+        <f t="shared" si="83"/>
+        <v>182</v>
       </c>
       <c r="W24" s="30" t="str">
-        <f t="shared" si="82"/>
-        <v>B5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="71"/>
+        <f t="shared" si="84"/>
+        <v>B6</v>
+      </c>
+      <c r="Y24" s="83" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="64"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3822,53 +4319,56 @@
         <v>16</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N25" s="3" t="str">
+        <f t="shared" si="67"/>
+        <v>B7</v>
+      </c>
+      <c r="O25" s="12" t="str">
+        <f t="shared" si="68"/>
+        <v>FF01A0140002B7</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="15">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="15">
+        <f t="shared" si="70"/>
+        <v>160</v>
+      </c>
+      <c r="S25" s="15">
+        <f t="shared" si="71"/>
+        <v>20</v>
+      </c>
+      <c r="T25" s="15">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="V25" s="15">
         <f t="shared" si="74"/>
-        <v>B6</v>
-      </c>
-      <c r="O25" s="12" t="str">
+        <v>183</v>
+      </c>
+      <c r="W25" s="30" t="str">
         <f t="shared" si="75"/>
-        <v>FF01A0140001B6</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q25" s="15">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="15">
-        <f t="shared" si="77"/>
-        <v>160</v>
-      </c>
-      <c r="S25" s="15">
-        <f t="shared" si="78"/>
-        <v>20</v>
-      </c>
-      <c r="T25" s="15">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="15">
-        <f t="shared" si="80"/>
-        <v>1</v>
-      </c>
-      <c r="V25" s="15">
-        <f t="shared" si="81"/>
-        <v>182</v>
-      </c>
-      <c r="W25" s="30" t="str">
-        <f t="shared" si="82"/>
-        <v>B6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="71"/>
+        <v>B7</v>
+      </c>
+      <c r="Y25" s="83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="64"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3881,59 +4381,62 @@
         <v>23</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N26" s="3" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>B7</v>
       </c>
       <c r="O26" s="12" t="str">
-        <f t="shared" si="66"/>
-        <v>FF01A0140002B7</v>
+        <f t="shared" si="68"/>
+        <v>FF01A0150001B7</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="R26" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>160</v>
       </c>
       <c r="S26" s="15">
-        <f t="shared" si="69"/>
-        <v>20</v>
+        <f t="shared" si="71"/>
+        <v>21</v>
       </c>
       <c r="T26" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="U26" s="15">
-        <f t="shared" si="71"/>
-        <v>2</v>
+        <f t="shared" si="73"/>
+        <v>1</v>
       </c>
       <c r="V26" s="15">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>183</v>
       </c>
       <c r="W26" s="30" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>B7</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="71"/>
+      <c r="Y26" s="83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="64"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3952,53 +4455,56 @@
         <v>16</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="N27" s="3" t="str">
-        <f t="shared" si="65"/>
-        <v>B7</v>
+        <f t="shared" ref="N27:N28" si="85">W27</f>
+        <v>6A</v>
       </c>
       <c r="O27" s="12" t="str">
-        <f t="shared" si="66"/>
-        <v>FF01A0150001B7</v>
+        <f t="shared" ref="O27:O28" si="86">"FF01"&amp;J27&amp;""&amp;K27&amp;L27&amp;M27&amp;N27</f>
+        <v>FF01A01500B46A</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q27" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="Q27:Q28" si="87">HEX2DEC(I27)</f>
         <v>1</v>
       </c>
       <c r="R27" s="15">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="R27:R28" si="88">HEX2DEC(J27)</f>
         <v>160</v>
       </c>
       <c r="S27" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="S27:S28" si="89">HEX2DEC(K27)</f>
         <v>21</v>
       </c>
       <c r="T27" s="15">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="T27:T28" si="90">HEX2DEC(L27)</f>
         <v>0</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="71"/>
-        <v>1</v>
+        <f t="shared" ref="U27:U28" si="91">HEX2DEC(M27)</f>
+        <v>180</v>
       </c>
       <c r="V27" s="15">
-        <f t="shared" si="72"/>
-        <v>183</v>
+        <f t="shared" ref="V27:V28" si="92">SUM(Q27:U27)</f>
+        <v>362</v>
       </c>
       <c r="W27" s="30" t="str">
-        <f t="shared" si="73"/>
-        <v>B7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="71"/>
+        <f t="shared" ref="W27:W28" si="93">REPT("0",2-LEN(RIGHT(DEC2HEX(V27), 2)))&amp;RIGHT(DEC2HEX(V27), 2)</f>
+        <v>6A</v>
+      </c>
+      <c r="Y27" s="83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="64"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4011,59 +4517,62 @@
         <v>23</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N28" s="3" t="str">
-        <f t="shared" ref="N28:N29" si="83">W28</f>
-        <v>6A</v>
+        <f t="shared" si="85"/>
+        <v>1B</v>
       </c>
       <c r="O28" s="12" t="str">
-        <f t="shared" ref="O28:O29" si="84">"FF01"&amp;J28&amp;""&amp;K28&amp;L28&amp;M28&amp;N28</f>
-        <v>FF01A01500B46A</v>
+        <f t="shared" si="86"/>
+        <v>FF01A01600641B</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q28" s="15">
-        <f t="shared" ref="Q28:Q29" si="85">HEX2DEC(I28)</f>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="R28" s="15">
-        <f t="shared" ref="R28:R29" si="86">HEX2DEC(J28)</f>
+        <f t="shared" si="88"/>
         <v>160</v>
       </c>
       <c r="S28" s="15">
-        <f t="shared" ref="S28:S29" si="87">HEX2DEC(K28)</f>
-        <v>21</v>
+        <f t="shared" si="89"/>
+        <v>22</v>
       </c>
       <c r="T28" s="15">
-        <f t="shared" ref="T28:T29" si="88">HEX2DEC(L28)</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="U28" s="15">
-        <f t="shared" ref="U28:U29" si="89">HEX2DEC(M28)</f>
-        <v>180</v>
+        <f t="shared" si="91"/>
+        <v>100</v>
       </c>
       <c r="V28" s="15">
-        <f t="shared" ref="V28:V29" si="90">SUM(Q28:U28)</f>
-        <v>362</v>
+        <f t="shared" si="92"/>
+        <v>283</v>
       </c>
       <c r="W28" s="30" t="str">
-        <f t="shared" ref="W28:W29" si="91">REPT("0",2-LEN(RIGHT(DEC2HEX(V28), 2)))&amp;RIGHT(DEC2HEX(V28), 2)</f>
-        <v>6A</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="71"/>
+        <f t="shared" si="93"/>
+        <v>1B</v>
+      </c>
+      <c r="Y28" s="83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="64"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -4079,56 +4588,59 @@
         <v>127</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="N29" s="3" t="str">
-        <f t="shared" si="83"/>
-        <v>1B</v>
+        <f t="shared" ref="N29:N30" si="94">W29</f>
+        <v>B5</v>
       </c>
       <c r="O29" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v>FF01A01600641B</v>
+        <f t="shared" ref="O29:O30" si="95">"FF01"&amp;J29&amp;""&amp;K29&amp;L29&amp;M29&amp;N29</f>
+        <v>FF01A016FFFFB5</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="Q29:Q30" si="96">HEX2DEC(I29)</f>
         <v>1</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="R29:R30" si="97">HEX2DEC(J29)</f>
         <v>160</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="S29:S30" si="98">HEX2DEC(K29)</f>
         <v>22</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" ref="T29:T30" si="99">HEX2DEC(L29)</f>
+        <v>255</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="89"/>
-        <v>100</v>
+        <f t="shared" ref="U29:U30" si="100">HEX2DEC(M29)</f>
+        <v>255</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="90"/>
-        <v>283</v>
+        <f t="shared" ref="V29:V30" si="101">SUM(Q29:U29)</f>
+        <v>693</v>
       </c>
       <c r="W29" s="30" t="str">
-        <f t="shared" si="91"/>
-        <v>1B</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="71"/>
+        <f t="shared" ref="W29:W30" si="102">REPT("0",2-LEN(RIGHT(DEC2HEX(V29), 2)))&amp;RIGHT(DEC2HEX(V29), 2)</f>
+        <v>B5</v>
+      </c>
+      <c r="Y29" s="83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="64"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -4141,253 +4653,266 @@
         <v>23</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N30" s="3" t="str">
-        <f t="shared" ref="N30:N33" si="92">W30</f>
-        <v>B5</v>
+        <f t="shared" si="94"/>
+        <v>B8</v>
       </c>
       <c r="O30" s="12" t="str">
-        <f t="shared" ref="O30:O31" si="93">"FF01"&amp;J30&amp;""&amp;K30&amp;L30&amp;M30&amp;N30</f>
-        <v>FF01A016FFFFB5</v>
+        <f t="shared" si="95"/>
+        <v>FF01A0170000B8</v>
       </c>
       <c r="P30" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" ref="Q30:Q31" si="94">HEX2DEC(I30)</f>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" ref="R30:R31" si="95">HEX2DEC(J30)</f>
+        <f t="shared" si="97"/>
         <v>160</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" ref="S30:S31" si="96">HEX2DEC(K30)</f>
-        <v>22</v>
+        <f t="shared" si="98"/>
+        <v>23</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" ref="T30:T31" si="97">HEX2DEC(L30)</f>
-        <v>255</v>
+        <f t="shared" si="99"/>
+        <v>0</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" ref="U30:U31" si="98">HEX2DEC(M30)</f>
-        <v>255</v>
+        <f t="shared" si="100"/>
+        <v>0</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" ref="V30:V31" si="99">SUM(Q30:U30)</f>
-        <v>693</v>
+        <f t="shared" si="101"/>
+        <v>184</v>
       </c>
       <c r="W30" s="30" t="str">
-        <f t="shared" ref="W30:W31" si="100">REPT("0",2-LEN(RIGHT(DEC2HEX(V30), 2)))&amp;RIGHT(DEC2HEX(V30), 2)</f>
-        <v>B5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="5" t="s">
+        <f t="shared" si="102"/>
+        <v>B8</v>
+      </c>
+      <c r="Y30" s="83" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="65"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="3" t="str">
-        <f t="shared" si="92"/>
-        <v>B8</v>
-      </c>
-      <c r="O31" s="12" t="str">
-        <f t="shared" si="93"/>
-        <v>FF01A0170000B8</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="15">
-        <f t="shared" si="94"/>
-        <v>1</v>
-      </c>
-      <c r="R31" s="15">
-        <f t="shared" si="95"/>
+      <c r="L31" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="32" t="str">
+        <f t="shared" si="67"/>
+        <v>B9</v>
+      </c>
+      <c r="O31" s="35" t="str">
+        <f t="shared" si="68"/>
+        <v>FF01A0170001B9</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="37">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="37">
+        <f t="shared" si="70"/>
         <v>160</v>
       </c>
-      <c r="S31" s="15">
-        <f t="shared" si="96"/>
+      <c r="S31" s="37">
+        <f t="shared" si="71"/>
         <v>23</v>
       </c>
-      <c r="T31" s="15">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="15">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="15">
-        <f t="shared" si="99"/>
-        <v>184</v>
-      </c>
-      <c r="W31" s="30" t="str">
-        <f t="shared" si="100"/>
-        <v>B8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="34" t="s">
+      <c r="T31" s="37">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="37">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="V31" s="37">
+        <f t="shared" si="74"/>
+        <v>185</v>
+      </c>
+      <c r="W31" s="38" t="str">
+        <f t="shared" si="75"/>
+        <v>B9</v>
+      </c>
+      <c r="Y31" s="83" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="32" t="str">
-        <f t="shared" si="65"/>
-        <v>B9</v>
-      </c>
-      <c r="O32" s="35" t="str">
-        <f t="shared" si="66"/>
-        <v>FF01A0170001B9</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q32" s="37">
-        <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="R32" s="37">
-        <f t="shared" si="68"/>
+      <c r="K32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>A2</v>
+      </c>
+      <c r="O32" s="12" t="str">
+        <f t="shared" ref="O32" si="103">"FF01"&amp;J32&amp;""&amp;K32&amp;L32&amp;M32&amp;N32</f>
+        <v>FF01A0010000A2</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="15">
+        <f t="shared" ref="Q32" si="104">HEX2DEC(I32)</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="15">
+        <f t="shared" ref="R32" si="105">HEX2DEC(J32)</f>
         <v>160</v>
       </c>
-      <c r="S32" s="37">
-        <f t="shared" si="69"/>
+      <c r="S32" s="15">
+        <f t="shared" ref="S32" si="106">HEX2DEC(K32)</f>
+        <v>1</v>
+      </c>
+      <c r="T32" s="15">
+        <f t="shared" ref="T32" si="107">HEX2DEC(L32)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <f t="shared" ref="U32" si="108">HEX2DEC(M32)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
+        <f t="shared" ref="V32" si="109">SUM(Q32:U32)</f>
+        <v>162</v>
+      </c>
+      <c r="W32" s="30" t="str">
+        <f t="shared" ref="W32" si="110">REPT("0",2-LEN(RIGHT(DEC2HEX(V32), 2)))&amp;RIGHT(DEC2HEX(V32), 2)</f>
+        <v>A2</v>
+      </c>
+      <c r="Y32" s="83" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T32" s="37">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="37">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="V32" s="37">
-        <f t="shared" si="72"/>
-        <v>185</v>
-      </c>
-      <c r="W32" s="38" t="str">
-        <f t="shared" si="73"/>
-        <v>B9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>16</v>
+      <c r="K33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="N33" s="3" t="str">
-        <f t="shared" si="92"/>
-        <v>A2</v>
-      </c>
-      <c r="O33" s="25" t="str">
-        <f>"FF01"&amp;J33&amp;""&amp;K33&amp;L33&amp;M33&amp;N33</f>
-        <v>FF01A1000000A2</v>
-      </c>
-      <c r="P33" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q33" s="27">
-        <v>1</v>
-      </c>
-      <c r="R33" s="27">
-        <f>HEX2DEC(J33)</f>
-        <v>161</v>
-      </c>
-      <c r="S33" s="27">
-        <f>HEX2DEC(K33)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="27">
-        <f>HEX2DEC(L33)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="27">
-        <f>HEX2DEC(M33)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="27">
-        <f>SUM(Q33:U33)</f>
-        <v>162</v>
-      </c>
-      <c r="W33" s="28" t="str">
-        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V33), 2)))&amp;RIGHT(DEC2HEX(V33), 2)</f>
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="71"/>
+        <f t="shared" si="42"/>
+        <v>A3</v>
+      </c>
+      <c r="O33" s="12" t="str">
+        <f t="shared" ref="O33:O34" si="111">"FF01"&amp;J33&amp;""&amp;K33&amp;L33&amp;M33&amp;N33</f>
+        <v>FF01A0010001A3</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="15">
+        <f t="shared" ref="Q33:Q34" si="112">HEX2DEC(I33)</f>
+        <v>1</v>
+      </c>
+      <c r="R33" s="15">
+        <f t="shared" ref="R33:R34" si="113">HEX2DEC(J33)</f>
+        <v>160</v>
+      </c>
+      <c r="S33" s="15">
+        <f t="shared" ref="S33:S34" si="114">HEX2DEC(K33)</f>
+        <v>1</v>
+      </c>
+      <c r="T33" s="15">
+        <f t="shared" ref="T33:T34" si="115">HEX2DEC(L33)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="15">
+        <f t="shared" ref="U33:U34" si="116">HEX2DEC(M33)</f>
+        <v>1</v>
+      </c>
+      <c r="V33" s="15">
+        <f t="shared" ref="V33:V34" si="117">SUM(Q33:U33)</f>
+        <v>163</v>
+      </c>
+      <c r="W33" s="30" t="str">
+        <f t="shared" ref="W33:W34" si="118">REPT("0",2-LEN(RIGHT(DEC2HEX(V33), 2)))&amp;RIGHT(DEC2HEX(V33), 2)</f>
+        <v>A3</v>
+      </c>
+      <c r="Y33" s="83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="64"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4400,7 +4925,7 @@
         <v>23</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>16</v>
@@ -4409,50 +4934,53 @@
         <v>16</v>
       </c>
       <c r="N34" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A2</v>
+        <f t="shared" si="42"/>
+        <v>A3</v>
       </c>
       <c r="O34" s="12" t="str">
-        <f t="shared" ref="O34" si="101">"FF01"&amp;J34&amp;""&amp;K34&amp;L34&amp;M34&amp;N34</f>
-        <v>FF01A0010000A2</v>
+        <f t="shared" si="111"/>
+        <v>FF01A0020000A3</v>
       </c>
       <c r="P34" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q34" s="15">
-        <f t="shared" ref="Q34" si="102">HEX2DEC(I34)</f>
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
       <c r="R34" s="15">
-        <f t="shared" ref="R34" si="103">HEX2DEC(J34)</f>
+        <f t="shared" si="113"/>
         <v>160</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34" si="104">HEX2DEC(K34)</f>
-        <v>1</v>
+        <f t="shared" si="114"/>
+        <v>2</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" ref="T34" si="105">HEX2DEC(L34)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" ref="U34" si="106">HEX2DEC(M34)</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" ref="V34" si="107">SUM(Q34:U34)</f>
-        <v>162</v>
+        <f t="shared" si="117"/>
+        <v>163</v>
       </c>
       <c r="W34" s="30" t="str">
-        <f t="shared" ref="W34" si="108">REPT("0",2-LEN(RIGHT(DEC2HEX(V34), 2)))&amp;RIGHT(DEC2HEX(V34), 2)</f>
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="71"/>
+        <f t="shared" si="118"/>
+        <v>A3</v>
+      </c>
+      <c r="Y34" s="83" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="64"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4465,7 +4993,7 @@
         <v>23</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>16</v>
@@ -4474,50 +5002,53 @@
         <v>24</v>
       </c>
       <c r="N35" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A3</v>
+        <f t="shared" si="42"/>
+        <v>A4</v>
       </c>
       <c r="O35" s="12" t="str">
-        <f t="shared" ref="O35:O36" si="109">"FF01"&amp;J35&amp;""&amp;K35&amp;L35&amp;M35&amp;N35</f>
-        <v>FF01A0010001A3</v>
+        <f t="shared" ref="O35:O37" si="119">"FF01"&amp;J35&amp;""&amp;K35&amp;L35&amp;M35&amp;N35</f>
+        <v>FF01A0020001A4</v>
       </c>
       <c r="P35" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" ref="Q35:Q36" si="110">HEX2DEC(I35)</f>
+        <f t="shared" ref="Q35:Q37" si="120">HEX2DEC(I35)</f>
         <v>1</v>
       </c>
       <c r="R35" s="15">
-        <f t="shared" ref="R35:R36" si="111">HEX2DEC(J35)</f>
+        <f t="shared" ref="R35:R37" si="121">HEX2DEC(J35)</f>
         <v>160</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" ref="S35:S36" si="112">HEX2DEC(K35)</f>
-        <v>1</v>
+        <f t="shared" ref="S35:S37" si="122">HEX2DEC(K35)</f>
+        <v>2</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" ref="T35:T36" si="113">HEX2DEC(L35)</f>
+        <f t="shared" ref="T35:T37" si="123">HEX2DEC(L35)</f>
         <v>0</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" ref="U35:U36" si="114">HEX2DEC(M35)</f>
+        <f t="shared" ref="U35:U37" si="124">HEX2DEC(M35)</f>
         <v>1</v>
       </c>
       <c r="V35" s="15">
-        <f t="shared" ref="V35:V36" si="115">SUM(Q35:U35)</f>
-        <v>163</v>
+        <f t="shared" ref="V35:V37" si="125">SUM(Q35:U35)</f>
+        <v>164</v>
       </c>
       <c r="W35" s="30" t="str">
-        <f t="shared" ref="W35:W36" si="116">REPT("0",2-LEN(RIGHT(DEC2HEX(V35), 2)))&amp;RIGHT(DEC2HEX(V35), 2)</f>
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="71"/>
+        <f t="shared" ref="W35:W37" si="126">REPT("0",2-LEN(RIGHT(DEC2HEX(V35), 2)))&amp;RIGHT(DEC2HEX(V35), 2)</f>
+        <v>A4</v>
+      </c>
+      <c r="Y35" s="83" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="64"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4530,7 +5061,7 @@
         <v>23</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>16</v>
@@ -4539,50 +5070,53 @@
         <v>16</v>
       </c>
       <c r="N36" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A3</v>
+        <f t="shared" si="42"/>
+        <v>A4</v>
       </c>
       <c r="O36" s="12" t="str">
-        <f t="shared" si="109"/>
-        <v>FF01A0020000A3</v>
+        <f t="shared" si="119"/>
+        <v>FF01A0030000A4</v>
       </c>
       <c r="P36" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>1</v>
       </c>
       <c r="R36" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="121"/>
         <v>160</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" si="112"/>
-        <v>2</v>
+        <f t="shared" si="122"/>
+        <v>3</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="115"/>
-        <v>163</v>
+        <f t="shared" si="125"/>
+        <v>164</v>
       </c>
       <c r="W36" s="30" t="str">
-        <f t="shared" si="116"/>
-        <v>A3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="71"/>
+        <f t="shared" si="126"/>
+        <v>A4</v>
+      </c>
+      <c r="Y36" s="83" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="64"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4595,7 +5129,7 @@
         <v>23</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>16</v>
@@ -4604,50 +5138,53 @@
         <v>24</v>
       </c>
       <c r="N37" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A4</v>
+        <f t="shared" si="42"/>
+        <v>A5</v>
       </c>
       <c r="O37" s="12" t="str">
-        <f t="shared" ref="O37:O39" si="117">"FF01"&amp;J37&amp;""&amp;K37&amp;L37&amp;M37&amp;N37</f>
-        <v>FF01A0020001A4</v>
+        <f t="shared" si="119"/>
+        <v>FF01A0030001A5</v>
       </c>
       <c r="P37" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q37" s="15">
-        <f t="shared" ref="Q37:Q39" si="118">HEX2DEC(I37)</f>
+        <f t="shared" si="120"/>
         <v>1</v>
       </c>
       <c r="R37" s="15">
-        <f t="shared" ref="R37:R39" si="119">HEX2DEC(J37)</f>
+        <f t="shared" si="121"/>
         <v>160</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" ref="S37:S39" si="120">HEX2DEC(K37)</f>
-        <v>2</v>
+        <f t="shared" si="122"/>
+        <v>3</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" ref="T37:T39" si="121">HEX2DEC(L37)</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" ref="U37:U39" si="122">HEX2DEC(M37)</f>
+        <f t="shared" si="124"/>
         <v>1</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" ref="V37:V39" si="123">SUM(Q37:U37)</f>
-        <v>164</v>
+        <f t="shared" si="125"/>
+        <v>165</v>
       </c>
       <c r="W37" s="30" t="str">
-        <f t="shared" ref="W37:W39" si="124">REPT("0",2-LEN(RIGHT(DEC2HEX(V37), 2)))&amp;RIGHT(DEC2HEX(V37), 2)</f>
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="71"/>
+        <f t="shared" si="126"/>
+        <v>A5</v>
+      </c>
+      <c r="Y37" s="83" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="64"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4666,53 +5203,56 @@
         <v>16</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N38" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A4</v>
+        <f t="shared" si="42"/>
+        <v>A6</v>
       </c>
       <c r="O38" s="12" t="str">
-        <f t="shared" si="117"/>
-        <v>FF01A0030000A4</v>
+        <f t="shared" ref="O38:O40" si="127">"FF01"&amp;J38&amp;""&amp;K38&amp;L38&amp;M38&amp;N38</f>
+        <v>FF01A0030002A6</v>
       </c>
       <c r="P38" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q38" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" ref="Q38:Q40" si="128">HEX2DEC(I38)</f>
         <v>1</v>
       </c>
       <c r="R38" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" ref="R38:R40" si="129">HEX2DEC(J38)</f>
         <v>160</v>
       </c>
       <c r="S38" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" ref="S38:S40" si="130">HEX2DEC(K38)</f>
         <v>3</v>
       </c>
       <c r="T38" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" ref="T38:T40" si="131">HEX2DEC(L38)</f>
         <v>0</v>
       </c>
       <c r="U38" s="15">
-        <f t="shared" si="122"/>
-        <v>0</v>
+        <f t="shared" ref="U38:U40" si="132">HEX2DEC(M38)</f>
+        <v>2</v>
       </c>
       <c r="V38" s="15">
-        <f t="shared" si="123"/>
-        <v>164</v>
+        <f t="shared" ref="V38:V40" si="133">SUM(Q38:U38)</f>
+        <v>166</v>
       </c>
       <c r="W38" s="30" t="str">
-        <f t="shared" si="124"/>
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="71"/>
+        <f t="shared" ref="W38:W40" si="134">REPT("0",2-LEN(RIGHT(DEC2HEX(V38), 2)))&amp;RIGHT(DEC2HEX(V38), 2)</f>
+        <v>A6</v>
+      </c>
+      <c r="Y38" s="83" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="64"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4731,53 +5271,56 @@
         <v>16</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="N39" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A5</v>
+        <f t="shared" si="42"/>
+        <v>A7</v>
       </c>
       <c r="O39" s="12" t="str">
-        <f t="shared" si="117"/>
-        <v>FF01A0030001A5</v>
+        <f t="shared" si="127"/>
+        <v>FF01A0030003A7</v>
       </c>
       <c r="P39" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="R39" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="129"/>
         <v>160</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="130"/>
         <v>3</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="122"/>
-        <v>1</v>
+        <f t="shared" si="132"/>
+        <v>3</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="123"/>
-        <v>165</v>
+        <f t="shared" si="133"/>
+        <v>167</v>
       </c>
       <c r="W39" s="30" t="str">
-        <f t="shared" si="124"/>
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="71"/>
+        <f t="shared" si="134"/>
+        <v>A7</v>
+      </c>
+      <c r="Y39" s="83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="64"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4796,53 +5339,56 @@
         <v>16</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="N40" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A6</v>
+        <f t="shared" si="42"/>
+        <v>A8</v>
       </c>
       <c r="O40" s="12" t="str">
-        <f t="shared" ref="O40:O42" si="125">"FF01"&amp;J40&amp;""&amp;K40&amp;L40&amp;M40&amp;N40</f>
-        <v>FF01A0030002A6</v>
+        <f t="shared" si="127"/>
+        <v>FF01A0030004A8</v>
       </c>
       <c r="P40" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q40" s="15">
-        <f t="shared" ref="Q40:Q42" si="126">HEX2DEC(I40)</f>
+        <f t="shared" si="128"/>
         <v>1</v>
       </c>
       <c r="R40" s="15">
-        <f t="shared" ref="R40:R42" si="127">HEX2DEC(J40)</f>
+        <f t="shared" si="129"/>
         <v>160</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" ref="S40:S42" si="128">HEX2DEC(K40)</f>
+        <f t="shared" si="130"/>
         <v>3</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" ref="T40:T42" si="129">HEX2DEC(L40)</f>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" ref="U40:U42" si="130">HEX2DEC(M40)</f>
-        <v>2</v>
+        <f t="shared" si="132"/>
+        <v>4</v>
       </c>
       <c r="V40" s="15">
-        <f t="shared" ref="V40:V42" si="131">SUM(Q40:U40)</f>
-        <v>166</v>
+        <f t="shared" si="133"/>
+        <v>168</v>
       </c>
       <c r="W40" s="30" t="str">
-        <f t="shared" ref="W40:W42" si="132">REPT("0",2-LEN(RIGHT(DEC2HEX(V40), 2)))&amp;RIGHT(DEC2HEX(V40), 2)</f>
-        <v>A6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="71"/>
+        <f t="shared" si="134"/>
+        <v>A8</v>
+      </c>
+      <c r="Y40" s="83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="64"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4861,53 +5407,56 @@
         <v>16</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N41" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A7</v>
+        <f t="shared" si="42"/>
+        <v>A9</v>
       </c>
       <c r="O41" s="12" t="str">
-        <f t="shared" si="125"/>
-        <v>FF01A0030003A7</v>
+        <f t="shared" ref="O41:O49" si="135">"FF01"&amp;J41&amp;""&amp;K41&amp;L41&amp;M41&amp;N41</f>
+        <v>FF01A0030005A9</v>
       </c>
       <c r="P41" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q41" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" ref="Q41:Q49" si="136">HEX2DEC(I41)</f>
         <v>1</v>
       </c>
       <c r="R41" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" ref="R41:R49" si="137">HEX2DEC(J41)</f>
         <v>160</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="S41:S49" si="138">HEX2DEC(K41)</f>
         <v>3</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" ref="T41:T49" si="139">HEX2DEC(L41)</f>
         <v>0</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="130"/>
-        <v>3</v>
+        <f t="shared" ref="U41:U49" si="140">HEX2DEC(M41)</f>
+        <v>5</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="131"/>
-        <v>167</v>
+        <f t="shared" ref="V41:V49" si="141">SUM(Q41:U41)</f>
+        <v>169</v>
       </c>
       <c r="W41" s="30" t="str">
-        <f t="shared" si="132"/>
-        <v>A7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="71"/>
+        <f t="shared" ref="W41:W49" si="142">REPT("0",2-LEN(RIGHT(DEC2HEX(V41), 2)))&amp;RIGHT(DEC2HEX(V41), 2)</f>
+        <v>A9</v>
+      </c>
+      <c r="Y41" s="83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="64"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4920,59 +5469,62 @@
         <v>23</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="N42" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A8</v>
+        <f t="shared" si="42"/>
+        <v>A5</v>
       </c>
       <c r="O42" s="12" t="str">
-        <f t="shared" si="125"/>
-        <v>FF01A0030004A8</v>
+        <f t="shared" si="135"/>
+        <v>FF01A0040000A5</v>
       </c>
       <c r="P42" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q42" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="R42" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="137"/>
         <v>160</v>
       </c>
       <c r="S42" s="15">
-        <f t="shared" si="128"/>
-        <v>3</v>
+        <f t="shared" si="138"/>
+        <v>4</v>
       </c>
       <c r="T42" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="U42" s="15">
-        <f t="shared" si="130"/>
-        <v>4</v>
+        <f t="shared" si="140"/>
+        <v>0</v>
       </c>
       <c r="V42" s="15">
-        <f t="shared" si="131"/>
-        <v>168</v>
+        <f t="shared" si="141"/>
+        <v>165</v>
       </c>
       <c r="W42" s="30" t="str">
-        <f t="shared" si="132"/>
-        <v>A8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="71"/>
+        <f t="shared" si="142"/>
+        <v>A5</v>
+      </c>
+      <c r="Y42" s="83" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="64"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4985,59 +5537,62 @@
         <v>23</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N43" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A9</v>
+        <f t="shared" si="42"/>
+        <v>A6</v>
       </c>
       <c r="O43" s="12" t="str">
-        <f t="shared" ref="O43:O51" si="133">"FF01"&amp;J43&amp;""&amp;K43&amp;L43&amp;M43&amp;N43</f>
-        <v>FF01A0030005A9</v>
+        <f t="shared" si="135"/>
+        <v>FF01A0040001A6</v>
       </c>
       <c r="P43" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q43" s="15">
-        <f t="shared" ref="Q43:Q51" si="134">HEX2DEC(I43)</f>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="R43" s="15">
-        <f t="shared" ref="R43:R51" si="135">HEX2DEC(J43)</f>
+        <f t="shared" si="137"/>
         <v>160</v>
       </c>
       <c r="S43" s="15">
-        <f t="shared" ref="S43:S51" si="136">HEX2DEC(K43)</f>
-        <v>3</v>
+        <f t="shared" si="138"/>
+        <v>4</v>
       </c>
       <c r="T43" s="15">
-        <f t="shared" ref="T43:T51" si="137">HEX2DEC(L43)</f>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="U43" s="15">
-        <f t="shared" ref="U43:U51" si="138">HEX2DEC(M43)</f>
-        <v>5</v>
+        <f t="shared" si="140"/>
+        <v>1</v>
       </c>
       <c r="V43" s="15">
-        <f t="shared" ref="V43:V51" si="139">SUM(Q43:U43)</f>
-        <v>169</v>
+        <f t="shared" si="141"/>
+        <v>166</v>
       </c>
       <c r="W43" s="30" t="str">
-        <f t="shared" ref="W43:W51" si="140">REPT("0",2-LEN(RIGHT(DEC2HEX(V43), 2)))&amp;RIGHT(DEC2HEX(V43), 2)</f>
-        <v>A9</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="71"/>
+        <f t="shared" si="142"/>
+        <v>A6</v>
+      </c>
+      <c r="Y43" s="83" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="64"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5050,7 +5605,7 @@
         <v>23</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>16</v>
@@ -5059,50 +5614,53 @@
         <v>16</v>
       </c>
       <c r="N44" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A5</v>
+        <f t="shared" si="42"/>
+        <v>A6</v>
       </c>
       <c r="O44" s="12" t="str">
-        <f t="shared" si="133"/>
-        <v>FF01A0040000A5</v>
+        <f t="shared" si="135"/>
+        <v>FF01A0050000A6</v>
       </c>
       <c r="P44" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q44" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="R44" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>160</v>
       </c>
       <c r="S44" s="15">
-        <f t="shared" si="136"/>
-        <v>4</v>
+        <f t="shared" si="138"/>
+        <v>5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="U44" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="V44" s="15">
-        <f t="shared" si="139"/>
-        <v>165</v>
+        <f t="shared" si="141"/>
+        <v>166</v>
       </c>
       <c r="W44" s="30" t="str">
-        <f t="shared" si="140"/>
-        <v>A5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="71"/>
+        <f t="shared" si="142"/>
+        <v>A6</v>
+      </c>
+      <c r="Y44" s="83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="64"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5115,7 +5673,7 @@
         <v>23</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>16</v>
@@ -5124,50 +5682,53 @@
         <v>24</v>
       </c>
       <c r="N45" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A6</v>
+        <f t="shared" si="42"/>
+        <v>A7</v>
       </c>
       <c r="O45" s="12" t="str">
-        <f t="shared" si="133"/>
-        <v>FF01A0040001A6</v>
+        <f t="shared" si="135"/>
+        <v>FF01A0050001A7</v>
       </c>
       <c r="P45" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q45" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="R45" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>160</v>
       </c>
       <c r="S45" s="15">
-        <f t="shared" si="136"/>
-        <v>4</v>
+        <f t="shared" si="138"/>
+        <v>5</v>
       </c>
       <c r="T45" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="U45" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>1</v>
       </c>
       <c r="V45" s="15">
-        <f t="shared" si="139"/>
-        <v>166</v>
+        <f t="shared" si="141"/>
+        <v>167</v>
       </c>
       <c r="W45" s="30" t="str">
-        <f t="shared" si="140"/>
-        <v>A6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="71"/>
+        <f t="shared" si="142"/>
+        <v>A7</v>
+      </c>
+      <c r="Y45" s="83" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="64"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5180,7 +5741,7 @@
         <v>23</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>16</v>
@@ -5189,50 +5750,53 @@
         <v>16</v>
       </c>
       <c r="N46" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A6</v>
+        <f t="shared" si="42"/>
+        <v>A7</v>
       </c>
       <c r="O46" s="12" t="str">
-        <f t="shared" si="133"/>
-        <v>FF01A0050000A6</v>
+        <f t="shared" si="135"/>
+        <v>FF01A0060000A7</v>
       </c>
       <c r="P46" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q46" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="R46" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>160</v>
       </c>
       <c r="S46" s="15">
-        <f t="shared" si="136"/>
-        <v>5</v>
+        <f t="shared" si="138"/>
+        <v>6</v>
       </c>
       <c r="T46" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="U46" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="V46" s="15">
-        <f t="shared" si="139"/>
-        <v>166</v>
+        <f t="shared" si="141"/>
+        <v>167</v>
       </c>
       <c r="W46" s="30" t="str">
-        <f t="shared" si="140"/>
-        <v>A6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="71"/>
+        <f t="shared" si="142"/>
+        <v>A7</v>
+      </c>
+      <c r="Y46" s="83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="64"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -5245,7 +5809,7 @@
         <v>23</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>16</v>
@@ -5254,50 +5818,53 @@
         <v>24</v>
       </c>
       <c r="N47" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A7</v>
+        <f t="shared" si="42"/>
+        <v>A8</v>
       </c>
       <c r="O47" s="12" t="str">
-        <f t="shared" si="133"/>
-        <v>FF01A0050001A7</v>
+        <f t="shared" si="135"/>
+        <v>FF01A0060001A8</v>
       </c>
       <c r="P47" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q47" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="R47" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>160</v>
       </c>
       <c r="S47" s="15">
-        <f t="shared" si="136"/>
-        <v>5</v>
+        <f t="shared" si="138"/>
+        <v>6</v>
       </c>
       <c r="T47" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="U47" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>1</v>
       </c>
       <c r="V47" s="15">
-        <f t="shared" si="139"/>
-        <v>167</v>
+        <f t="shared" si="141"/>
+        <v>168</v>
       </c>
       <c r="W47" s="30" t="str">
-        <f t="shared" si="140"/>
-        <v>A7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="71"/>
+        <f t="shared" si="142"/>
+        <v>A8</v>
+      </c>
+      <c r="Y47" s="83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="64"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5316,118 +5883,124 @@
         <v>16</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N48" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A7</v>
+        <f t="shared" si="42"/>
+        <v>A9</v>
       </c>
       <c r="O48" s="12" t="str">
-        <f t="shared" si="133"/>
-        <v>FF01A0060000A7</v>
+        <f t="shared" si="135"/>
+        <v>FF01A0060002A9</v>
       </c>
       <c r="P48" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q48" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="R48" s="15">
+        <f t="shared" si="137"/>
+        <v>160</v>
+      </c>
+      <c r="S48" s="15">
+        <f t="shared" si="138"/>
+        <v>6</v>
+      </c>
+      <c r="T48" s="15">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="15">
+        <f t="shared" si="140"/>
+        <v>2</v>
+      </c>
+      <c r="V48" s="15">
+        <f t="shared" si="141"/>
+        <v>169</v>
+      </c>
+      <c r="W48" s="30" t="str">
+        <f t="shared" si="142"/>
+        <v>A9</v>
+      </c>
+      <c r="Y48" s="83" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="65"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="L49" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="N49" s="32" t="str">
+        <f t="shared" si="42"/>
+        <v>AC</v>
+      </c>
+      <c r="O49" s="35" t="str">
         <f t="shared" si="135"/>
+        <v>FF01A0070004AC</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q49" s="37">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
+      <c r="R49" s="37">
+        <f t="shared" si="137"/>
         <v>160</v>
       </c>
-      <c r="S48" s="15">
-        <f t="shared" si="136"/>
-        <v>6</v>
-      </c>
-      <c r="T48" s="15">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="15">
+      <c r="S49" s="37">
         <f t="shared" si="138"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="15">
+        <v>7</v>
+      </c>
+      <c r="T49" s="37">
         <f t="shared" si="139"/>
-        <v>167</v>
-      </c>
-      <c r="W48" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="U49" s="37">
         <f t="shared" si="140"/>
-        <v>A7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A8</v>
-      </c>
-      <c r="O49" s="12" t="str">
-        <f t="shared" si="133"/>
-        <v>FF01A0060001A8</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q49" s="15">
-        <f t="shared" si="134"/>
-        <v>1</v>
-      </c>
-      <c r="R49" s="15">
-        <f t="shared" si="135"/>
-        <v>160</v>
-      </c>
-      <c r="S49" s="15">
-        <f t="shared" si="136"/>
-        <v>6</v>
-      </c>
-      <c r="T49" s="15">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="15">
-        <f t="shared" si="138"/>
-        <v>1</v>
-      </c>
-      <c r="V49" s="15">
-        <f t="shared" si="139"/>
-        <v>168</v>
-      </c>
-      <c r="W49" s="30" t="str">
-        <f t="shared" si="140"/>
-        <v>A8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="71"/>
+        <v>4</v>
+      </c>
+      <c r="V49" s="37">
+        <f t="shared" si="141"/>
+        <v>172</v>
+      </c>
+      <c r="W49" s="38" t="str">
+        <f t="shared" si="142"/>
+        <v>AC</v>
+      </c>
+      <c r="Y49" s="83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="64"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5440,189 +6013,198 @@
         <v>23</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N50" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>A9</v>
+        <f t="shared" ref="N50" si="143">W50</f>
+        <v>C2</v>
       </c>
       <c r="O50" s="12" t="str">
-        <f t="shared" si="133"/>
-        <v>FF01A0060002A9</v>
+        <f t="shared" ref="O50" si="144">"FF01"&amp;J50&amp;""&amp;K50&amp;L50&amp;M50&amp;N50</f>
+        <v>FF01A0210000C2</v>
       </c>
       <c r="P50" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q50" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" ref="Q50" si="145">HEX2DEC(I50)</f>
         <v>1</v>
       </c>
       <c r="R50" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" ref="R50" si="146">HEX2DEC(J50)</f>
         <v>160</v>
       </c>
       <c r="S50" s="15">
-        <f t="shared" si="136"/>
-        <v>6</v>
+        <f t="shared" ref="S50" si="147">HEX2DEC(K50)</f>
+        <v>33</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" ref="T50" si="148">HEX2DEC(L50)</f>
         <v>0</v>
       </c>
       <c r="U50" s="15">
-        <f t="shared" si="138"/>
-        <v>2</v>
+        <f t="shared" ref="U50" si="149">HEX2DEC(M50)</f>
+        <v>0</v>
       </c>
       <c r="V50" s="15">
-        <f t="shared" si="139"/>
-        <v>169</v>
+        <f t="shared" ref="V50:V65" si="150">SUM(Q50:U50)</f>
+        <v>194</v>
       </c>
       <c r="W50" s="30" t="str">
-        <f t="shared" si="140"/>
-        <v>A9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="34" t="s">
+        <f t="shared" ref="W50:W65" si="151">REPT("0",2-LEN(RIGHT(DEC2HEX(V50), 2)))&amp;RIGHT(DEC2HEX(V50), 2)</f>
+        <v>C2</v>
+      </c>
+      <c r="Y50" s="83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="L51" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="N51" s="32" t="str">
-        <f t="shared" si="46"/>
-        <v>AC</v>
-      </c>
-      <c r="O51" s="35" t="str">
-        <f t="shared" si="133"/>
-        <v>FF01A0070004AC</v>
-      </c>
-      <c r="P51" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q51" s="37">
-        <f t="shared" si="134"/>
-        <v>1</v>
-      </c>
-      <c r="R51" s="37">
-        <f t="shared" si="135"/>
+      <c r="K51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="3" t="str">
+        <f t="shared" ref="N51" si="152">W51</f>
+        <v>C3</v>
+      </c>
+      <c r="O51" s="12" t="str">
+        <f t="shared" ref="O51" si="153">"FF01"&amp;J51&amp;""&amp;K51&amp;L51&amp;M51&amp;N51</f>
+        <v>FF01A0210001C3</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q51" s="15">
+        <f t="shared" ref="Q51" si="154">HEX2DEC(I51)</f>
+        <v>1</v>
+      </c>
+      <c r="R51" s="15">
+        <f t="shared" ref="R51" si="155">HEX2DEC(J51)</f>
         <v>160</v>
       </c>
-      <c r="S51" s="37">
-        <f t="shared" si="136"/>
-        <v>7</v>
-      </c>
-      <c r="T51" s="37">
-        <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="37">
-        <f t="shared" si="138"/>
-        <v>4</v>
-      </c>
-      <c r="V51" s="37">
-        <f t="shared" si="139"/>
-        <v>172</v>
-      </c>
-      <c r="W51" s="38" t="str">
-        <f t="shared" si="140"/>
-        <v>AC</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K52" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L52" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="22" t="str">
-        <f>W52</f>
-        <v>C2</v>
-      </c>
-      <c r="O52" s="25" t="str">
-        <f>"FF01"&amp;J52&amp;""&amp;K52&amp;L52&amp;M52&amp;N52</f>
-        <v>FF01A1200000C2</v>
-      </c>
-      <c r="P52" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q52" s="27">
-        <f>HEX2DEC(I52)</f>
-        <v>1</v>
-      </c>
-      <c r="R52" s="27">
-        <f>HEX2DEC(J52)</f>
-        <v>161</v>
-      </c>
-      <c r="S52" s="27">
-        <f>HEX2DEC(K52)</f>
-        <v>32</v>
-      </c>
-      <c r="T52" s="27">
-        <f>HEX2DEC(L52)</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="27">
-        <f>HEX2DEC(M52)</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="27">
-        <f>SUM(Q52:U52)</f>
-        <v>194</v>
-      </c>
-      <c r="W52" s="28" t="str">
-        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V52), 2)))&amp;RIGHT(DEC2HEX(V52), 2)</f>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="71"/>
+      <c r="S51" s="15">
+        <f t="shared" ref="S51" si="156">HEX2DEC(K51)</f>
+        <v>33</v>
+      </c>
+      <c r="T51" s="15">
+        <f t="shared" ref="T51" si="157">HEX2DEC(L51)</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <f t="shared" ref="U51" si="158">HEX2DEC(M51)</f>
+        <v>1</v>
+      </c>
+      <c r="V51" s="15">
+        <f t="shared" si="150"/>
+        <v>195</v>
+      </c>
+      <c r="W51" s="30" t="str">
+        <f t="shared" si="151"/>
+        <v>C3</v>
+      </c>
+      <c r="Y51" s="83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="3" t="str">
+        <f t="shared" ref="N52" si="159">W52</f>
+        <v>C3</v>
+      </c>
+      <c r="O52" s="12" t="str">
+        <f t="shared" ref="O52" si="160">"FF01"&amp;J52&amp;""&amp;K52&amp;L52&amp;M52&amp;N52</f>
+        <v>FF01A0220000C3</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q52" s="15">
+        <f t="shared" ref="Q52" si="161">HEX2DEC(I52)</f>
+        <v>1</v>
+      </c>
+      <c r="R52" s="15">
+        <f t="shared" ref="R52" si="162">HEX2DEC(J52)</f>
+        <v>160</v>
+      </c>
+      <c r="S52" s="15">
+        <f t="shared" ref="S52" si="163">HEX2DEC(K52)</f>
+        <v>34</v>
+      </c>
+      <c r="T52" s="15">
+        <f t="shared" ref="T52" si="164">HEX2DEC(L52)</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="15">
+        <f t="shared" ref="U52" si="165">HEX2DEC(M52)</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="15">
+        <f t="shared" si="150"/>
+        <v>195</v>
+      </c>
+      <c r="W52" s="30" t="str">
+        <f t="shared" si="151"/>
+        <v>C3</v>
+      </c>
+      <c r="Y52" s="83" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="64"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -5635,59 +6217,62 @@
         <v>23</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N53" s="3" t="str">
-        <f t="shared" ref="N53" si="141">W53</f>
-        <v>C2</v>
+        <f t="shared" ref="N53" si="166">W53</f>
+        <v>C4</v>
       </c>
       <c r="O53" s="12" t="str">
-        <f t="shared" ref="O53" si="142">"FF01"&amp;J53&amp;""&amp;K53&amp;L53&amp;M53&amp;N53</f>
-        <v>FF01A0210000C2</v>
+        <f t="shared" ref="O53" si="167">"FF01"&amp;J53&amp;""&amp;K53&amp;L53&amp;M53&amp;N53</f>
+        <v>FF01A0220001C4</v>
       </c>
       <c r="P53" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q53" s="15">
-        <f t="shared" ref="Q53" si="143">HEX2DEC(I53)</f>
+        <f t="shared" ref="Q53" si="168">HEX2DEC(I53)</f>
         <v>1</v>
       </c>
       <c r="R53" s="15">
-        <f t="shared" ref="R53" si="144">HEX2DEC(J53)</f>
+        <f t="shared" ref="R53" si="169">HEX2DEC(J53)</f>
         <v>160</v>
       </c>
       <c r="S53" s="15">
-        <f t="shared" ref="S53" si="145">HEX2DEC(K53)</f>
-        <v>33</v>
+        <f t="shared" ref="S53" si="170">HEX2DEC(K53)</f>
+        <v>34</v>
       </c>
       <c r="T53" s="15">
-        <f t="shared" ref="T53" si="146">HEX2DEC(L53)</f>
+        <f t="shared" ref="T53" si="171">HEX2DEC(L53)</f>
         <v>0</v>
       </c>
       <c r="U53" s="15">
-        <f t="shared" ref="U53" si="147">HEX2DEC(M53)</f>
-        <v>0</v>
+        <f t="shared" ref="U53" si="172">HEX2DEC(M53)</f>
+        <v>1</v>
       </c>
       <c r="V53" s="15">
-        <f t="shared" ref="V53:V68" si="148">SUM(Q53:U53)</f>
-        <v>194</v>
+        <f t="shared" si="150"/>
+        <v>196</v>
       </c>
       <c r="W53" s="30" t="str">
-        <f t="shared" ref="W53:W68" si="149">REPT("0",2-LEN(RIGHT(DEC2HEX(V53), 2)))&amp;RIGHT(DEC2HEX(V53), 2)</f>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="71"/>
+        <f t="shared" si="151"/>
+        <v>C4</v>
+      </c>
+      <c r="Y53" s="83" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="64"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -5696,11 +6281,11 @@
       <c r="I54" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>18</v>
+      <c r="K54" s="3">
+        <v>23</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>16</v>
@@ -5709,50 +6294,53 @@
         <v>24</v>
       </c>
       <c r="N54" s="3" t="str">
-        <f t="shared" ref="N54" si="150">W54</f>
-        <v>C3</v>
+        <f>W54</f>
+        <v>C5</v>
       </c>
       <c r="O54" s="12" t="str">
-        <f t="shared" ref="O54" si="151">"FF01"&amp;J54&amp;""&amp;K54&amp;L54&amp;M54&amp;N54</f>
-        <v>FF01A0210001C3</v>
+        <f>"FF01"&amp;J54&amp;""&amp;K54&amp;L54&amp;M54&amp;N54</f>
+        <v>FF01A0230001C5</v>
       </c>
       <c r="P54" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q54" s="15">
-        <f t="shared" ref="Q54" si="152">HEX2DEC(I54)</f>
+        <f t="shared" ref="Q54:U57" si="173">HEX2DEC(I54)</f>
         <v>1</v>
       </c>
       <c r="R54" s="15">
-        <f t="shared" ref="R54" si="153">HEX2DEC(J54)</f>
+        <f t="shared" si="173"/>
         <v>160</v>
       </c>
       <c r="S54" s="15">
-        <f t="shared" ref="S54" si="154">HEX2DEC(K54)</f>
-        <v>33</v>
+        <f t="shared" si="173"/>
+        <v>35</v>
       </c>
       <c r="T54" s="15">
-        <f t="shared" ref="T54" si="155">HEX2DEC(L54)</f>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="U54" s="15">
-        <f t="shared" ref="U54" si="156">HEX2DEC(M54)</f>
+        <f t="shared" si="173"/>
         <v>1</v>
       </c>
       <c r="V54" s="15">
-        <f t="shared" si="148"/>
-        <v>195</v>
+        <f>SUM(Q54:U54)</f>
+        <v>197</v>
       </c>
       <c r="W54" s="30" t="str">
-        <f t="shared" si="149"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="71"/>
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V54), 2)))&amp;RIGHT(DEC2HEX(V54), 2)</f>
+        <v>C5</v>
+      </c>
+      <c r="Y54" s="83" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="64"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -5761,11 +6349,11 @@
       <c r="I55" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>49</v>
+      <c r="K55" s="3">
+        <v>23</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>16</v>
@@ -5774,50 +6362,53 @@
         <v>16</v>
       </c>
       <c r="N55" s="3" t="str">
-        <f t="shared" ref="N55" si="157">W55</f>
-        <v>C3</v>
+        <f>W55</f>
+        <v>C4</v>
       </c>
       <c r="O55" s="12" t="str">
-        <f t="shared" ref="O55" si="158">"FF01"&amp;J55&amp;""&amp;K55&amp;L55&amp;M55&amp;N55</f>
-        <v>FF01A0220000C3</v>
+        <f>"FF01"&amp;J55&amp;""&amp;K55&amp;L55&amp;M55&amp;N55</f>
+        <v>FF01A0230000C4</v>
       </c>
       <c r="P55" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q55" s="15">
-        <f t="shared" ref="Q55" si="159">HEX2DEC(I55)</f>
+        <f t="shared" si="173"/>
         <v>1</v>
       </c>
       <c r="R55" s="15">
-        <f t="shared" ref="R55" si="160">HEX2DEC(J55)</f>
+        <f t="shared" si="173"/>
         <v>160</v>
       </c>
       <c r="S55" s="15">
-        <f t="shared" ref="S55" si="161">HEX2DEC(K55)</f>
-        <v>34</v>
+        <f t="shared" si="173"/>
+        <v>35</v>
       </c>
       <c r="T55" s="15">
-        <f t="shared" ref="T55" si="162">HEX2DEC(L55)</f>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="U55" s="15">
-        <f t="shared" ref="U55" si="163">HEX2DEC(M55)</f>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="V55" s="15">
-        <f t="shared" si="148"/>
-        <v>195</v>
+        <f>SUM(Q55:U55)</f>
+        <v>196</v>
       </c>
       <c r="W55" s="30" t="str">
-        <f t="shared" si="149"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="71"/>
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V55), 2)))&amp;RIGHT(DEC2HEX(V55), 2)</f>
+        <v>C4</v>
+      </c>
+      <c r="Y55" s="83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="64"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -5826,11 +6417,11 @@
       <c r="I56" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>49</v>
+      <c r="K56" s="3">
+        <v>24</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>16</v>
@@ -5839,50 +6430,53 @@
         <v>24</v>
       </c>
       <c r="N56" s="3" t="str">
-        <f t="shared" ref="N56" si="164">W56</f>
-        <v>C4</v>
+        <f>W56</f>
+        <v>C6</v>
       </c>
       <c r="O56" s="12" t="str">
-        <f t="shared" ref="O56" si="165">"FF01"&amp;J56&amp;""&amp;K56&amp;L56&amp;M56&amp;N56</f>
-        <v>FF01A0220001C4</v>
+        <f t="shared" ref="O56:O57" si="174">"FF01"&amp;J56&amp;""&amp;K56&amp;L56&amp;M56&amp;N56</f>
+        <v>FF01A0240001C6</v>
       </c>
       <c r="P56" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q56" s="15">
-        <f t="shared" ref="Q56" si="166">HEX2DEC(I56)</f>
+        <f t="shared" si="173"/>
         <v>1</v>
       </c>
       <c r="R56" s="15">
-        <f t="shared" ref="R56" si="167">HEX2DEC(J56)</f>
+        <f t="shared" si="173"/>
         <v>160</v>
       </c>
       <c r="S56" s="15">
-        <f t="shared" ref="S56" si="168">HEX2DEC(K56)</f>
-        <v>34</v>
+        <f t="shared" si="173"/>
+        <v>36</v>
       </c>
       <c r="T56" s="15">
-        <f t="shared" ref="T56" si="169">HEX2DEC(L56)</f>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="U56" s="15">
-        <f t="shared" ref="U56" si="170">HEX2DEC(M56)</f>
+        <f t="shared" si="173"/>
         <v>1</v>
       </c>
       <c r="V56" s="15">
-        <f t="shared" si="148"/>
-        <v>196</v>
+        <f>SUM(Q56:U56)</f>
+        <v>198</v>
       </c>
       <c r="W56" s="30" t="str">
-        <f t="shared" si="149"/>
-        <v>C4</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="71"/>
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V56), 2)))&amp;RIGHT(DEC2HEX(V56), 2)</f>
+        <v>C6</v>
+      </c>
+      <c r="Y56" s="83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="64"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -5895,44 +6489,44 @@
         <v>23</v>
       </c>
       <c r="K57" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N57" s="3" t="str">
         <f>W57</f>
         <v>C5</v>
       </c>
       <c r="O57" s="12" t="str">
-        <f>"FF01"&amp;J57&amp;""&amp;K57&amp;L57&amp;M57&amp;N57</f>
-        <v>FF01A0230001C5</v>
+        <f t="shared" si="174"/>
+        <v>FF01A0240000C5</v>
       </c>
       <c r="P57" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q57" s="15">
-        <f t="shared" ref="Q57:U60" si="171">HEX2DEC(I57)</f>
+        <f t="shared" si="173"/>
         <v>1</v>
       </c>
       <c r="R57" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>160</v>
       </c>
       <c r="S57" s="15">
-        <f t="shared" si="171"/>
-        <v>35</v>
+        <f t="shared" si="173"/>
+        <v>36</v>
       </c>
       <c r="T57" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="U57" s="15">
-        <f t="shared" si="171"/>
-        <v>1</v>
+        <f t="shared" si="173"/>
+        <v>0</v>
       </c>
       <c r="V57" s="15">
         <f>SUM(Q57:U57)</f>
@@ -5942,12 +6536,15 @@
         <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V57), 2)))&amp;RIGHT(DEC2HEX(V57), 2)</f>
         <v>C5</v>
       </c>
-    </row>
-    <row r="58" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="71"/>
+      <c r="Y57" s="83" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="64"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -5956,11 +6553,11 @@
       <c r="I58" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K58" s="3">
-        <v>23</v>
+      <c r="K58" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>16</v>
@@ -5969,50 +6566,53 @@
         <v>16</v>
       </c>
       <c r="N58" s="3" t="str">
-        <f>W58</f>
-        <v>C4</v>
+        <f t="shared" ref="N58" si="175">W58</f>
+        <v>C6</v>
       </c>
       <c r="O58" s="12" t="str">
-        <f>"FF01"&amp;J58&amp;""&amp;K58&amp;L58&amp;M58&amp;N58</f>
-        <v>FF01A0230000C4</v>
+        <f t="shared" ref="O58" si="176">"FF01"&amp;J58&amp;""&amp;K58&amp;L58&amp;M58&amp;N58</f>
+        <v>FF01A0250000C6</v>
       </c>
       <c r="P58" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q58" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="Q58" si="177">HEX2DEC(I58)</f>
         <v>1</v>
       </c>
       <c r="R58" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="R58" si="178">HEX2DEC(J58)</f>
         <v>160</v>
       </c>
       <c r="S58" s="15">
-        <f t="shared" si="171"/>
-        <v>35</v>
+        <f t="shared" ref="S58" si="179">HEX2DEC(K58)</f>
+        <v>37</v>
       </c>
       <c r="T58" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="T58" si="180">HEX2DEC(L58)</f>
         <v>0</v>
       </c>
       <c r="U58" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="U58" si="181">HEX2DEC(M58)</f>
         <v>0</v>
       </c>
       <c r="V58" s="15">
-        <f>SUM(Q58:U58)</f>
-        <v>196</v>
+        <f t="shared" si="150"/>
+        <v>198</v>
       </c>
       <c r="W58" s="30" t="str">
-        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V58), 2)))&amp;RIGHT(DEC2HEX(V58), 2)</f>
-        <v>C4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="71"/>
+        <f t="shared" si="151"/>
+        <v>C6</v>
+      </c>
+      <c r="Y58" s="83" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="64"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -6021,11 +6621,11 @@
       <c r="I59" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K59" s="3">
-        <v>24</v>
+      <c r="K59" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>16</v>
@@ -6034,50 +6634,53 @@
         <v>24</v>
       </c>
       <c r="N59" s="3" t="str">
-        <f>W59</f>
-        <v>C6</v>
+        <f t="shared" ref="N59" si="182">W59</f>
+        <v>C7</v>
       </c>
       <c r="O59" s="12" t="str">
-        <f t="shared" ref="O59:O60" si="172">"FF01"&amp;J59&amp;""&amp;K59&amp;L59&amp;M59&amp;N59</f>
-        <v>FF01A0240001C6</v>
+        <f t="shared" ref="O59" si="183">"FF01"&amp;J59&amp;""&amp;K59&amp;L59&amp;M59&amp;N59</f>
+        <v>FF01A0250001C7</v>
       </c>
       <c r="P59" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q59" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="Q59" si="184">HEX2DEC(I59)</f>
         <v>1</v>
       </c>
       <c r="R59" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="R59" si="185">HEX2DEC(J59)</f>
         <v>160</v>
       </c>
       <c r="S59" s="15">
-        <f t="shared" si="171"/>
-        <v>36</v>
+        <f t="shared" ref="S59" si="186">HEX2DEC(K59)</f>
+        <v>37</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="T59" si="187">HEX2DEC(L59)</f>
         <v>0</v>
       </c>
       <c r="U59" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="U59" si="188">HEX2DEC(M59)</f>
         <v>1</v>
       </c>
       <c r="V59" s="15">
-        <f>SUM(Q59:U59)</f>
-        <v>198</v>
+        <f t="shared" si="150"/>
+        <v>199</v>
       </c>
       <c r="W59" s="30" t="str">
-        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V59), 2)))&amp;RIGHT(DEC2HEX(V59), 2)</f>
-        <v>C6</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="71"/>
+        <f t="shared" si="151"/>
+        <v>C7</v>
+      </c>
+      <c r="Y59" s="83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="64"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -6086,11 +6689,11 @@
       <c r="I60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="3">
-        <v>24</v>
+      <c r="K60" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>16</v>
@@ -6099,50 +6702,53 @@
         <v>16</v>
       </c>
       <c r="N60" s="3" t="str">
-        <f>W60</f>
-        <v>C5</v>
+        <f t="shared" ref="N60" si="189">W60</f>
+        <v>C7</v>
       </c>
       <c r="O60" s="12" t="str">
-        <f t="shared" si="172"/>
-        <v>FF01A0240000C5</v>
+        <f t="shared" ref="O60" si="190">"FF01"&amp;J60&amp;""&amp;K60&amp;L60&amp;M60&amp;N60</f>
+        <v>FF01A0260000C7</v>
       </c>
       <c r="P60" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q60" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="Q60" si="191">HEX2DEC(I60)</f>
         <v>1</v>
       </c>
       <c r="R60" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="R60" si="192">HEX2DEC(J60)</f>
         <v>160</v>
       </c>
       <c r="S60" s="15">
-        <f t="shared" si="171"/>
-        <v>36</v>
+        <f t="shared" ref="S60" si="193">HEX2DEC(K60)</f>
+        <v>38</v>
       </c>
       <c r="T60" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="T60" si="194">HEX2DEC(L60)</f>
         <v>0</v>
       </c>
       <c r="U60" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="U60" si="195">HEX2DEC(M60)</f>
         <v>0</v>
       </c>
       <c r="V60" s="15">
-        <f>SUM(Q60:U60)</f>
-        <v>197</v>
+        <f t="shared" si="150"/>
+        <v>199</v>
       </c>
       <c r="W60" s="30" t="str">
-        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V60), 2)))&amp;RIGHT(DEC2HEX(V60), 2)</f>
-        <v>C5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="71"/>
+        <f t="shared" si="151"/>
+        <v>C7</v>
+      </c>
+      <c r="Y60" s="83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="64"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -6155,59 +6761,62 @@
         <v>23</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N61" s="3" t="str">
-        <f t="shared" ref="N61" si="173">W61</f>
-        <v>C6</v>
+        <f t="shared" ref="N61" si="196">W61</f>
+        <v>C8</v>
       </c>
       <c r="O61" s="12" t="str">
-        <f t="shared" ref="O61" si="174">"FF01"&amp;J61&amp;""&amp;K61&amp;L61&amp;M61&amp;N61</f>
-        <v>FF01A0250000C6</v>
+        <f t="shared" ref="O61" si="197">"FF01"&amp;J61&amp;""&amp;K61&amp;L61&amp;M61&amp;N61</f>
+        <v>FF01A0260001C8</v>
       </c>
       <c r="P61" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q61" s="15">
-        <f t="shared" ref="Q61" si="175">HEX2DEC(I61)</f>
+        <f t="shared" ref="Q61" si="198">HEX2DEC(I61)</f>
         <v>1</v>
       </c>
       <c r="R61" s="15">
-        <f t="shared" ref="R61" si="176">HEX2DEC(J61)</f>
+        <f t="shared" ref="R61" si="199">HEX2DEC(J61)</f>
         <v>160</v>
       </c>
       <c r="S61" s="15">
-        <f t="shared" ref="S61" si="177">HEX2DEC(K61)</f>
-        <v>37</v>
+        <f t="shared" ref="S61" si="200">HEX2DEC(K61)</f>
+        <v>38</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" ref="T61" si="178">HEX2DEC(L61)</f>
+        <f t="shared" ref="T61" si="201">HEX2DEC(L61)</f>
         <v>0</v>
       </c>
       <c r="U61" s="15">
-        <f t="shared" ref="U61" si="179">HEX2DEC(M61)</f>
-        <v>0</v>
+        <f t="shared" ref="U61" si="202">HEX2DEC(M61)</f>
+        <v>1</v>
       </c>
       <c r="V61" s="15">
-        <f t="shared" si="148"/>
-        <v>198</v>
+        <f t="shared" si="150"/>
+        <v>200</v>
       </c>
       <c r="W61" s="30" t="str">
-        <f t="shared" si="149"/>
-        <v>C6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="71"/>
+        <f t="shared" si="151"/>
+        <v>C8</v>
+      </c>
+      <c r="Y61" s="83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="64"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -6220,59 +6829,62 @@
         <v>23</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N62" s="3" t="str">
-        <f t="shared" ref="N62" si="180">W62</f>
-        <v>C7</v>
+        <f t="shared" ref="N62" si="203">W62</f>
+        <v>C8</v>
       </c>
       <c r="O62" s="12" t="str">
-        <f t="shared" ref="O62" si="181">"FF01"&amp;J62&amp;""&amp;K62&amp;L62&amp;M62&amp;N62</f>
-        <v>FF01A0250001C7</v>
+        <f t="shared" ref="O62" si="204">"FF01"&amp;J62&amp;""&amp;K62&amp;L62&amp;M62&amp;N62</f>
+        <v>FF01A0270000C8</v>
       </c>
       <c r="P62" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q62" s="15">
-        <f t="shared" ref="Q62" si="182">HEX2DEC(I62)</f>
+        <f t="shared" ref="Q62" si="205">HEX2DEC(I62)</f>
         <v>1</v>
       </c>
       <c r="R62" s="15">
-        <f t="shared" ref="R62" si="183">HEX2DEC(J62)</f>
+        <f t="shared" ref="R62" si="206">HEX2DEC(J62)</f>
         <v>160</v>
       </c>
       <c r="S62" s="15">
-        <f t="shared" ref="S62" si="184">HEX2DEC(K62)</f>
-        <v>37</v>
+        <f t="shared" ref="S62" si="207">HEX2DEC(K62)</f>
+        <v>39</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" ref="T62" si="185">HEX2DEC(L62)</f>
+        <f t="shared" ref="T62" si="208">HEX2DEC(L62)</f>
         <v>0</v>
       </c>
       <c r="U62" s="15">
-        <f t="shared" ref="U62" si="186">HEX2DEC(M62)</f>
-        <v>1</v>
+        <f t="shared" ref="U62" si="209">HEX2DEC(M62)</f>
+        <v>0</v>
       </c>
       <c r="V62" s="15">
-        <f t="shared" si="148"/>
-        <v>199</v>
+        <f t="shared" si="150"/>
+        <v>200</v>
       </c>
       <c r="W62" s="30" t="str">
-        <f t="shared" si="149"/>
-        <v>C7</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="71"/>
+        <f t="shared" si="151"/>
+        <v>C8</v>
+      </c>
+      <c r="Y62" s="83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="64"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -6285,59 +6897,62 @@
         <v>23</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="N63" s="3" t="str">
-        <f t="shared" ref="N63" si="187">W63</f>
-        <v>C7</v>
+        <f t="shared" ref="N63:N64" si="210">W63</f>
+        <v>D2</v>
       </c>
       <c r="O63" s="12" t="str">
-        <f t="shared" ref="O63" si="188">"FF01"&amp;J63&amp;""&amp;K63&amp;L63&amp;M63&amp;N63</f>
-        <v>FF01A0260000C7</v>
+        <f t="shared" ref="O63:O64" si="211">"FF01"&amp;J63&amp;""&amp;K63&amp;L63&amp;M63&amp;N63</f>
+        <v>FF01A027000AD2</v>
       </c>
       <c r="P63" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q63" s="15">
-        <f t="shared" ref="Q63" si="189">HEX2DEC(I63)</f>
+        <f t="shared" ref="Q63:Q64" si="212">HEX2DEC(I63)</f>
         <v>1</v>
       </c>
       <c r="R63" s="15">
-        <f t="shared" ref="R63" si="190">HEX2DEC(J63)</f>
+        <f t="shared" ref="R63:R64" si="213">HEX2DEC(J63)</f>
         <v>160</v>
       </c>
       <c r="S63" s="15">
-        <f t="shared" ref="S63" si="191">HEX2DEC(K63)</f>
-        <v>38</v>
+        <f t="shared" ref="S63:S64" si="214">HEX2DEC(K63)</f>
+        <v>39</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" ref="T63" si="192">HEX2DEC(L63)</f>
+        <f t="shared" ref="T63:T64" si="215">HEX2DEC(L63)</f>
         <v>0</v>
       </c>
       <c r="U63" s="15">
-        <f t="shared" ref="U63" si="193">HEX2DEC(M63)</f>
-        <v>0</v>
+        <f t="shared" ref="U63:U64" si="216">HEX2DEC(M63)</f>
+        <v>10</v>
       </c>
       <c r="V63" s="15">
-        <f t="shared" si="148"/>
-        <v>199</v>
+        <f t="shared" si="150"/>
+        <v>210</v>
       </c>
       <c r="W63" s="30" t="str">
-        <f t="shared" si="149"/>
-        <v>C7</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="71"/>
+        <f t="shared" si="151"/>
+        <v>D2</v>
+      </c>
+      <c r="Y63" s="83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="64"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -6350,124 +6965,130 @@
         <v>23</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="N64" s="3" t="str">
-        <f t="shared" ref="N64" si="194">W64</f>
-        <v>C8</v>
+        <f t="shared" si="210"/>
+        <v>DC</v>
       </c>
       <c r="O64" s="12" t="str">
-        <f t="shared" ref="O64" si="195">"FF01"&amp;J64&amp;""&amp;K64&amp;L64&amp;M64&amp;N64</f>
-        <v>FF01A0260001C8</v>
+        <f t="shared" si="211"/>
+        <v>FF01A0270014DC</v>
       </c>
       <c r="P64" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q64" s="15">
-        <f t="shared" ref="Q64" si="196">HEX2DEC(I64)</f>
+        <f t="shared" si="212"/>
         <v>1</v>
       </c>
       <c r="R64" s="15">
-        <f t="shared" ref="R64" si="197">HEX2DEC(J64)</f>
+        <f t="shared" si="213"/>
         <v>160</v>
       </c>
       <c r="S64" s="15">
-        <f t="shared" ref="S64" si="198">HEX2DEC(K64)</f>
-        <v>38</v>
+        <f t="shared" si="214"/>
+        <v>39</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" ref="T64" si="199">HEX2DEC(L64)</f>
+        <f t="shared" si="215"/>
         <v>0</v>
       </c>
       <c r="U64" s="15">
-        <f t="shared" ref="U64" si="200">HEX2DEC(M64)</f>
-        <v>1</v>
+        <f t="shared" si="216"/>
+        <v>20</v>
       </c>
       <c r="V64" s="15">
-        <f t="shared" si="148"/>
-        <v>200</v>
+        <f t="shared" si="150"/>
+        <v>220</v>
       </c>
       <c r="W64" s="30" t="str">
-        <f t="shared" si="149"/>
-        <v>C8</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="5" t="s">
+        <f t="shared" si="151"/>
+        <v>DC</v>
+      </c>
+      <c r="Y64" s="83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="65"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="L65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N65" s="3" t="str">
-        <f t="shared" ref="N65" si="201">W65</f>
-        <v>C8</v>
-      </c>
-      <c r="O65" s="12" t="str">
-        <f t="shared" ref="O65" si="202">"FF01"&amp;J65&amp;""&amp;K65&amp;L65&amp;M65&amp;N65</f>
-        <v>FF01A0270000C8</v>
-      </c>
-      <c r="P65" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q65" s="15">
-        <f t="shared" ref="Q65" si="203">HEX2DEC(I65)</f>
-        <v>1</v>
-      </c>
-      <c r="R65" s="15">
-        <f t="shared" ref="R65" si="204">HEX2DEC(J65)</f>
+      <c r="L65" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N65" s="32" t="str">
+        <f t="shared" ref="N65" si="217">W65</f>
+        <v>E6</v>
+      </c>
+      <c r="O65" s="35" t="str">
+        <f t="shared" ref="O65" si="218">"FF01"&amp;J65&amp;""&amp;K65&amp;L65&amp;M65&amp;N65</f>
+        <v>FF01A027001EE6</v>
+      </c>
+      <c r="P65" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q65" s="37">
+        <f t="shared" ref="Q65" si="219">HEX2DEC(I65)</f>
+        <v>1</v>
+      </c>
+      <c r="R65" s="37">
+        <f t="shared" ref="R65" si="220">HEX2DEC(J65)</f>
         <v>160</v>
       </c>
-      <c r="S65" s="15">
-        <f t="shared" ref="S65" si="205">HEX2DEC(K65)</f>
+      <c r="S65" s="37">
+        <f t="shared" ref="S65" si="221">HEX2DEC(K65)</f>
         <v>39</v>
       </c>
-      <c r="T65" s="15">
-        <f t="shared" ref="T65" si="206">HEX2DEC(L65)</f>
-        <v>0</v>
-      </c>
-      <c r="U65" s="15">
-        <f t="shared" ref="U65" si="207">HEX2DEC(M65)</f>
-        <v>0</v>
-      </c>
-      <c r="V65" s="15">
-        <f t="shared" si="148"/>
-        <v>200</v>
-      </c>
-      <c r="W65" s="30" t="str">
-        <f t="shared" si="149"/>
-        <v>C8</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="71"/>
+      <c r="T65" s="37">
+        <f t="shared" ref="T65" si="222">HEX2DEC(L65)</f>
+        <v>0</v>
+      </c>
+      <c r="U65" s="37">
+        <f t="shared" ref="U65" si="223">HEX2DEC(M65)</f>
+        <v>30</v>
+      </c>
+      <c r="V65" s="37">
+        <f t="shared" si="150"/>
+        <v>230</v>
+      </c>
+      <c r="W65" s="38" t="str">
+        <f t="shared" si="151"/>
+        <v>E6</v>
+      </c>
+      <c r="Y65" s="83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="64"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -6476,63 +7097,66 @@
       <c r="I66" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J66" s="5" t="s">
+      <c r="J66" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K66" s="5" t="s">
-        <v>60</v>
+      <c r="K66" s="3">
+        <v>31</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="N66" s="3" t="str">
-        <f t="shared" ref="N66:N67" si="208">W66</f>
+        <f t="shared" ref="N66:N80" si="224">W66</f>
         <v>D2</v>
       </c>
       <c r="O66" s="12" t="str">
-        <f t="shared" ref="O66:O67" si="209">"FF01"&amp;J66&amp;""&amp;K66&amp;L66&amp;M66&amp;N66</f>
-        <v>FF01A027000AD2</v>
+        <f t="shared" ref="O66:O80" si="225">"FF01"&amp;J66&amp;""&amp;K66&amp;L66&amp;M66&amp;N66</f>
+        <v>FF01A0310000D2</v>
       </c>
       <c r="P66" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q66" s="15">
-        <f t="shared" ref="Q66:Q67" si="210">HEX2DEC(I66)</f>
+        <f t="shared" ref="Q66:Q80" si="226">HEX2DEC(I66)</f>
         <v>1</v>
       </c>
       <c r="R66" s="15">
-        <f t="shared" ref="R66:R67" si="211">HEX2DEC(J66)</f>
+        <f t="shared" ref="R66:R80" si="227">HEX2DEC(J66)</f>
         <v>160</v>
       </c>
       <c r="S66" s="15">
-        <f t="shared" ref="S66:S67" si="212">HEX2DEC(K66)</f>
-        <v>39</v>
+        <f t="shared" ref="S66:S80" si="228">HEX2DEC(K66)</f>
+        <v>49</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" ref="T66:T67" si="213">HEX2DEC(L66)</f>
+        <f t="shared" ref="T66:T80" si="229">HEX2DEC(L66)</f>
         <v>0</v>
       </c>
       <c r="U66" s="15">
-        <f t="shared" ref="U66:U67" si="214">HEX2DEC(M66)</f>
-        <v>10</v>
+        <f t="shared" ref="U66:U80" si="230">HEX2DEC(M66)</f>
+        <v>0</v>
       </c>
       <c r="V66" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" ref="V66:V80" si="231">SUM(Q66:U66)</f>
         <v>210</v>
       </c>
       <c r="W66" s="30" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" ref="W66:W86" si="232">REPT("0",2-LEN(RIGHT(DEC2HEX(V66), 2)))&amp;RIGHT(DEC2HEX(V66), 2)</f>
         <v>D2</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="71"/>
+      <c r="Y66" s="83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="64"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -6541,193 +7165,202 @@
       <c r="I67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J67" s="5" t="s">
+      <c r="J67" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K67" s="5" t="s">
-        <v>60</v>
+      <c r="K67" s="3">
+        <v>31</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="N67" s="3" t="str">
-        <f t="shared" si="208"/>
-        <v>DC</v>
+        <f t="shared" si="224"/>
+        <v>D3</v>
       </c>
       <c r="O67" s="12" t="str">
-        <f t="shared" si="209"/>
-        <v>FF01A0270014DC</v>
+        <f t="shared" si="225"/>
+        <v>FF01A0310001D3</v>
       </c>
       <c r="P67" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q67" s="15">
-        <f t="shared" si="210"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="R67" s="15">
-        <f t="shared" si="211"/>
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
       <c r="S67" s="15">
-        <f t="shared" si="212"/>
-        <v>39</v>
+        <f t="shared" si="228"/>
+        <v>49</v>
       </c>
       <c r="T67" s="15">
-        <f t="shared" si="213"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="U67" s="15">
-        <f t="shared" si="214"/>
-        <v>20</v>
+        <f t="shared" si="230"/>
+        <v>1</v>
       </c>
       <c r="V67" s="15">
-        <f t="shared" si="148"/>
-        <v>220</v>
+        <f t="shared" si="231"/>
+        <v>211</v>
       </c>
       <c r="W67" s="30" t="str">
-        <f t="shared" si="149"/>
-        <v>DC</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" s="34" t="s">
+        <f t="shared" si="232"/>
+        <v>D3</v>
+      </c>
+      <c r="Y67" s="83" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="64"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K68" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="L68" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M68" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="N68" s="32" t="str">
-        <f t="shared" ref="N68" si="215">W68</f>
-        <v>E6</v>
-      </c>
-      <c r="O68" s="35" t="str">
-        <f t="shared" ref="O68" si="216">"FF01"&amp;J68&amp;""&amp;K68&amp;L68&amp;M68&amp;N68</f>
-        <v>FF01A027001EE6</v>
-      </c>
-      <c r="P68" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q68" s="37">
-        <f t="shared" ref="Q68" si="217">HEX2DEC(I68)</f>
-        <v>1</v>
-      </c>
-      <c r="R68" s="37">
-        <f t="shared" ref="R68" si="218">HEX2DEC(J68)</f>
+      <c r="K68" s="3">
+        <v>32</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N68" s="3" t="str">
+        <f t="shared" si="224"/>
+        <v>D3</v>
+      </c>
+      <c r="O68" s="12" t="str">
+        <f t="shared" si="225"/>
+        <v>FF01A0320000D3</v>
+      </c>
+      <c r="P68" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q68" s="15">
+        <f t="shared" si="226"/>
+        <v>1</v>
+      </c>
+      <c r="R68" s="15">
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
-      <c r="S68" s="37">
-        <f t="shared" ref="S68" si="219">HEX2DEC(K68)</f>
-        <v>39</v>
-      </c>
-      <c r="T68" s="37">
-        <f t="shared" ref="T68" si="220">HEX2DEC(L68)</f>
-        <v>0</v>
-      </c>
-      <c r="U68" s="37">
-        <f t="shared" ref="U68" si="221">HEX2DEC(M68)</f>
-        <v>30</v>
-      </c>
-      <c r="V68" s="37">
-        <f t="shared" si="148"/>
-        <v>230</v>
-      </c>
-      <c r="W68" s="38" t="str">
-        <f t="shared" si="149"/>
-        <v>E6</v>
-      </c>
-    </row>
-    <row r="69" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="K69" s="22">
-        <v>30</v>
-      </c>
-      <c r="L69" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N69" s="22" t="str">
-        <f t="shared" ref="N69:N84" si="222">W69</f>
-        <v>D2</v>
-      </c>
-      <c r="O69" s="25" t="str">
-        <f t="shared" ref="O69:O84" si="223">"FF01"&amp;J69&amp;""&amp;K69&amp;L69&amp;M69&amp;N69</f>
-        <v>FF01A1300000D2</v>
-      </c>
-      <c r="P69" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q69" s="27">
-        <f t="shared" ref="Q69:Q84" si="224">HEX2DEC(I69)</f>
-        <v>1</v>
-      </c>
-      <c r="R69" s="27">
-        <f t="shared" ref="R69:R84" si="225">HEX2DEC(J69)</f>
-        <v>161</v>
-      </c>
-      <c r="S69" s="27">
-        <f t="shared" ref="S69:S84" si="226">HEX2DEC(K69)</f>
-        <v>48</v>
-      </c>
-      <c r="T69" s="27">
-        <f t="shared" ref="T69:T84" si="227">HEX2DEC(L69)</f>
-        <v>0</v>
-      </c>
-      <c r="U69" s="27">
-        <f t="shared" ref="U69:U84" si="228">HEX2DEC(M69)</f>
-        <v>0</v>
-      </c>
-      <c r="V69" s="27">
-        <f t="shared" ref="V69:V84" si="229">SUM(Q69:U69)</f>
-        <v>210</v>
-      </c>
-      <c r="W69" s="28" t="str">
-        <f t="shared" ref="W69:W91" si="230">REPT("0",2-LEN(RIGHT(DEC2HEX(V69), 2)))&amp;RIGHT(DEC2HEX(V69), 2)</f>
-        <v>D2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="71"/>
+      <c r="S68" s="15">
+        <f t="shared" si="228"/>
+        <v>50</v>
+      </c>
+      <c r="T68" s="15">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="15">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="15">
+        <f t="shared" si="231"/>
+        <v>211</v>
+      </c>
+      <c r="W68" s="30" t="str">
+        <f t="shared" si="232"/>
+        <v>D3</v>
+      </c>
+      <c r="Y68" s="83" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="64"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="3">
+        <v>32</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N69" s="3" t="str">
+        <f t="shared" si="224"/>
+        <v>FB</v>
+      </c>
+      <c r="O69" s="12" t="str">
+        <f t="shared" si="225"/>
+        <v>FF01A0320028FB</v>
+      </c>
+      <c r="P69" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="15">
+        <f t="shared" si="226"/>
+        <v>1</v>
+      </c>
+      <c r="R69" s="15">
+        <f t="shared" si="227"/>
+        <v>160</v>
+      </c>
+      <c r="S69" s="15">
+        <f t="shared" si="228"/>
+        <v>50</v>
+      </c>
+      <c r="T69" s="15">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="U69" s="15">
+        <f t="shared" si="230"/>
+        <v>40</v>
+      </c>
+      <c r="V69" s="15">
+        <f t="shared" si="231"/>
+        <v>251</v>
+      </c>
+      <c r="W69" s="30" t="str">
+        <f t="shared" si="232"/>
+        <v>FB</v>
+      </c>
+      <c r="Y69" s="83" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="64"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -6740,7 +7373,7 @@
         <v>23</v>
       </c>
       <c r="K70" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>16</v>
@@ -6749,50 +7382,53 @@
         <v>16</v>
       </c>
       <c r="N70" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>D2</v>
+        <f t="shared" si="224"/>
+        <v>D4</v>
       </c>
       <c r="O70" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0310000D2</v>
+        <f t="shared" si="225"/>
+        <v>FF01A0330000D4</v>
       </c>
       <c r="P70" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q70" s="15">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="R70" s="15">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
       <c r="S70" s="15">
-        <f t="shared" si="226"/>
-        <v>49</v>
+        <f t="shared" si="228"/>
+        <v>51</v>
       </c>
       <c r="T70" s="15">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="U70" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>0</v>
       </c>
       <c r="V70" s="15">
-        <f t="shared" si="229"/>
-        <v>210</v>
+        <f t="shared" si="231"/>
+        <v>212</v>
       </c>
       <c r="W70" s="30" t="str">
-        <f t="shared" si="230"/>
-        <v>D2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" s="71"/>
+        <f t="shared" si="232"/>
+        <v>D4</v>
+      </c>
+      <c r="Y70" s="83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="64"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -6805,59 +7441,62 @@
         <v>23</v>
       </c>
       <c r="K71" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="N71" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>D3</v>
+        <f t="shared" si="224"/>
+        <v>FC</v>
       </c>
       <c r="O71" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0310001D3</v>
+        <f t="shared" si="225"/>
+        <v>FF01A0330028FC</v>
       </c>
       <c r="P71" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q71" s="15">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="R71" s="15">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
       <c r="S71" s="15">
-        <f t="shared" si="226"/>
-        <v>49</v>
+        <f t="shared" si="228"/>
+        <v>51</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="U71" s="15">
-        <f t="shared" si="228"/>
-        <v>1</v>
+        <f t="shared" si="230"/>
+        <v>40</v>
       </c>
       <c r="V71" s="15">
-        <f t="shared" si="229"/>
-        <v>211</v>
+        <f t="shared" si="231"/>
+        <v>252</v>
       </c>
       <c r="W71" s="30" t="str">
-        <f t="shared" si="230"/>
-        <v>D3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="71"/>
+        <f t="shared" si="232"/>
+        <v>FC</v>
+      </c>
+      <c r="Y71" s="83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="64"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -6870,7 +7509,7 @@
         <v>23</v>
       </c>
       <c r="K72" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>16</v>
@@ -6879,50 +7518,53 @@
         <v>16</v>
       </c>
       <c r="N72" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>D3</v>
+        <f t="shared" si="224"/>
+        <v>D5</v>
       </c>
       <c r="O72" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0320000D3</v>
+        <f t="shared" si="225"/>
+        <v>FF01A0340000D5</v>
       </c>
       <c r="P72" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q72" s="15">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="R72" s="15">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
       <c r="S72" s="15">
-        <f t="shared" si="226"/>
-        <v>50</v>
+        <f t="shared" si="228"/>
+        <v>52</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="U72" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>0</v>
       </c>
       <c r="V72" s="15">
-        <f t="shared" si="229"/>
-        <v>211</v>
+        <f t="shared" si="231"/>
+        <v>213</v>
       </c>
       <c r="W72" s="30" t="str">
-        <f t="shared" si="230"/>
-        <v>D3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="71"/>
+        <f t="shared" si="232"/>
+        <v>D5</v>
+      </c>
+      <c r="Y72" s="83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="64"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -6935,59 +7577,62 @@
         <v>23</v>
       </c>
       <c r="K73" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="N73" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>FB</v>
+        <f t="shared" si="224"/>
+        <v>D6</v>
       </c>
       <c r="O73" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0320028FB</v>
+        <f t="shared" si="225"/>
+        <v>FF01A0340001D6</v>
       </c>
       <c r="P73" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q73" s="15">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="R73" s="15">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
       <c r="S73" s="15">
-        <f t="shared" si="226"/>
-        <v>50</v>
+        <f t="shared" si="228"/>
+        <v>52</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="U73" s="15">
-        <f t="shared" si="228"/>
-        <v>40</v>
+        <f t="shared" si="230"/>
+        <v>1</v>
       </c>
       <c r="V73" s="15">
-        <f t="shared" si="229"/>
-        <v>251</v>
+        <f t="shared" si="231"/>
+        <v>214</v>
       </c>
       <c r="W73" s="30" t="str">
-        <f t="shared" si="230"/>
-        <v>FB</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="71"/>
+        <f t="shared" si="232"/>
+        <v>D6</v>
+      </c>
+      <c r="Y73" s="83" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="64"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -7000,7 +7645,7 @@
         <v>23</v>
       </c>
       <c r="K74" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>16</v>
@@ -7009,50 +7654,53 @@
         <v>16</v>
       </c>
       <c r="N74" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>D4</v>
+        <f t="shared" si="224"/>
+        <v>D6</v>
       </c>
       <c r="O74" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0330000D4</v>
+        <f t="shared" si="225"/>
+        <v>FF01A0350000D6</v>
       </c>
       <c r="P74" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q74" s="15">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>1</v>
       </c>
       <c r="R74" s="15">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
       <c r="S74" s="15">
-        <f t="shared" si="226"/>
-        <v>51</v>
+        <f t="shared" si="228"/>
+        <v>53</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>0</v>
       </c>
       <c r="U74" s="15">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>0</v>
       </c>
       <c r="V74" s="15">
-        <f t="shared" si="229"/>
-        <v>212</v>
+        <f t="shared" si="231"/>
+        <v>214</v>
       </c>
       <c r="W74" s="30" t="str">
-        <f t="shared" si="230"/>
-        <v>D4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="71"/>
+        <f t="shared" si="232"/>
+        <v>D6</v>
+      </c>
+      <c r="Y74" s="83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="64"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -7065,384 +7713,402 @@
         <v>23</v>
       </c>
       <c r="K75" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="N75" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>FC</v>
+        <f t="shared" si="224"/>
+        <v>D7</v>
       </c>
       <c r="O75" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0330028FC</v>
+        <f t="shared" si="225"/>
+        <v>FF01A0350001D7</v>
       </c>
       <c r="P75" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q75" s="15">
+        <f t="shared" si="226"/>
+        <v>1</v>
+      </c>
+      <c r="R75" s="15">
+        <f t="shared" si="227"/>
+        <v>160</v>
+      </c>
+      <c r="S75" s="15">
+        <f t="shared" si="228"/>
+        <v>53</v>
+      </c>
+      <c r="T75" s="15">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="15">
+        <f t="shared" si="230"/>
+        <v>1</v>
+      </c>
+      <c r="V75" s="15">
+        <f t="shared" si="231"/>
+        <v>215</v>
+      </c>
+      <c r="W75" s="30" t="str">
+        <f t="shared" si="232"/>
+        <v>D7</v>
+      </c>
+      <c r="Y75" s="83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="66"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="16">
+        <v>35</v>
+      </c>
+      <c r="L76" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" s="16" t="str">
         <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-      <c r="R75" s="15">
+        <v>D8</v>
+      </c>
+      <c r="O76" s="19" t="str">
         <f t="shared" si="225"/>
+        <v>FF01A0350002D8</v>
+      </c>
+      <c r="P76" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q76" s="21">
+        <f t="shared" si="226"/>
+        <v>1</v>
+      </c>
+      <c r="R76" s="21">
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
-      <c r="S75" s="15">
+      <c r="S76" s="21">
+        <f t="shared" si="228"/>
+        <v>53</v>
+      </c>
+      <c r="T76" s="21">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="21">
+        <f t="shared" si="230"/>
+        <v>2</v>
+      </c>
+      <c r="V76" s="21">
+        <f t="shared" si="231"/>
+        <v>216</v>
+      </c>
+      <c r="W76" s="61" t="str">
+        <f t="shared" si="232"/>
+        <v>D8</v>
+      </c>
+      <c r="Y76" s="83" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="66"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="16">
+        <v>36</v>
+      </c>
+      <c r="L77" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N77" s="16" t="str">
+        <f t="shared" si="224"/>
+        <v>D7</v>
+      </c>
+      <c r="O77" s="19" t="str">
+        <f t="shared" si="225"/>
+        <v>FF01A0360000D7</v>
+      </c>
+      <c r="P77" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q77" s="21">
         <f t="shared" si="226"/>
-        <v>51</v>
-      </c>
-      <c r="T75" s="15">
+        <v>1</v>
+      </c>
+      <c r="R77" s="21">
         <f t="shared" si="227"/>
-        <v>0</v>
-      </c>
-      <c r="U75" s="15">
+        <v>160</v>
+      </c>
+      <c r="S77" s="21">
         <f t="shared" si="228"/>
-        <v>40</v>
-      </c>
-      <c r="V75" s="15">
+        <v>54</v>
+      </c>
+      <c r="T77" s="21">
         <f t="shared" si="229"/>
-        <v>252</v>
-      </c>
-      <c r="W75" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="U77" s="21">
         <f t="shared" si="230"/>
-        <v>FC</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V77" s="21">
+        <f t="shared" si="231"/>
+        <v>215</v>
+      </c>
+      <c r="W77" s="61" t="str">
+        <f t="shared" si="232"/>
+        <v>D7</v>
+      </c>
+      <c r="Y77" s="83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="66"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K76" s="3">
-        <v>34</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>D5</v>
-      </c>
-      <c r="O76" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0340000D5</v>
-      </c>
-      <c r="P76" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q76" s="15">
+      <c r="K78" s="16">
+        <v>36</v>
+      </c>
+      <c r="L78" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="16" t="str">
         <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-      <c r="R76" s="15">
+        <v>D8</v>
+      </c>
+      <c r="O78" s="19" t="str">
         <f t="shared" si="225"/>
+        <v>FF01A0360001D8</v>
+      </c>
+      <c r="P78" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q78" s="21">
+        <f t="shared" si="226"/>
+        <v>1</v>
+      </c>
+      <c r="R78" s="21">
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
-      <c r="S76" s="15">
+      <c r="S78" s="21">
+        <f t="shared" si="228"/>
+        <v>54</v>
+      </c>
+      <c r="T78" s="21">
+        <f t="shared" si="229"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="21">
+        <f t="shared" si="230"/>
+        <v>1</v>
+      </c>
+      <c r="V78" s="21">
+        <f t="shared" si="231"/>
+        <v>216</v>
+      </c>
+      <c r="W78" s="61" t="str">
+        <f t="shared" si="232"/>
+        <v>D8</v>
+      </c>
+      <c r="Y78" s="83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" s="66"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K79" s="16">
+        <v>36</v>
+      </c>
+      <c r="L79" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="16" t="str">
+        <f t="shared" si="224"/>
+        <v>D9</v>
+      </c>
+      <c r="O79" s="19" t="str">
+        <f t="shared" si="225"/>
+        <v>FF01A0360002D9</v>
+      </c>
+      <c r="P79" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q79" s="21">
         <f t="shared" si="226"/>
-        <v>52</v>
-      </c>
-      <c r="T76" s="15">
+        <v>1</v>
+      </c>
+      <c r="R79" s="21">
         <f t="shared" si="227"/>
-        <v>0</v>
-      </c>
-      <c r="U76" s="15">
+        <v>160</v>
+      </c>
+      <c r="S79" s="21">
         <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="V76" s="15">
+        <v>54</v>
+      </c>
+      <c r="T79" s="21">
         <f t="shared" si="229"/>
-        <v>213</v>
-      </c>
-      <c r="W76" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="U79" s="21">
         <f t="shared" si="230"/>
-        <v>D5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="71"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V79" s="21">
+        <f t="shared" si="231"/>
+        <v>217</v>
+      </c>
+      <c r="W79" s="61" t="str">
+        <f t="shared" si="232"/>
+        <v>D9</v>
+      </c>
+      <c r="Y79" s="83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="65"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K77" s="3">
-        <v>34</v>
-      </c>
-      <c r="L77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N77" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>D6</v>
-      </c>
-      <c r="O77" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0340001D6</v>
-      </c>
-      <c r="P77" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q77" s="15">
+      <c r="K80" s="32">
+        <v>36</v>
+      </c>
+      <c r="L80" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="N80" s="32" t="str">
         <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-      <c r="R77" s="15">
+        <v>DA</v>
+      </c>
+      <c r="O80" s="35" t="str">
         <f t="shared" si="225"/>
+        <v>FF01A0360003DA</v>
+      </c>
+      <c r="P80" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q80" s="37">
+        <f t="shared" si="226"/>
+        <v>1</v>
+      </c>
+      <c r="R80" s="37">
+        <f t="shared" si="227"/>
         <v>160</v>
       </c>
-      <c r="S77" s="15">
-        <f t="shared" si="226"/>
-        <v>52</v>
-      </c>
-      <c r="T77" s="15">
-        <f t="shared" si="227"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="15">
+      <c r="S80" s="37">
         <f t="shared" si="228"/>
-        <v>1</v>
-      </c>
-      <c r="V77" s="15">
+        <v>54</v>
+      </c>
+      <c r="T80" s="37">
         <f t="shared" si="229"/>
-        <v>214</v>
-      </c>
-      <c r="W77" s="30" t="str">
+        <v>0</v>
+      </c>
+      <c r="U80" s="37">
         <f t="shared" si="230"/>
-        <v>D6</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="71"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K78" s="3">
-        <v>35</v>
-      </c>
-      <c r="L78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M78" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N78" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>D6</v>
-      </c>
-      <c r="O78" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0350000D6</v>
-      </c>
-      <c r="P78" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q78" s="15">
-        <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-      <c r="R78" s="15">
-        <f t="shared" si="225"/>
-        <v>160</v>
-      </c>
-      <c r="S78" s="15">
-        <f t="shared" si="226"/>
-        <v>53</v>
-      </c>
-      <c r="T78" s="15">
-        <f t="shared" si="227"/>
-        <v>0</v>
-      </c>
-      <c r="U78" s="15">
-        <f t="shared" si="228"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="15">
-        <f t="shared" si="229"/>
-        <v>214</v>
-      </c>
-      <c r="W78" s="30" t="str">
-        <f t="shared" si="230"/>
-        <v>D6</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="71"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K79" s="3">
-        <v>35</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N79" s="3" t="str">
-        <f t="shared" si="222"/>
-        <v>D7</v>
-      </c>
-      <c r="O79" s="12" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0350001D7</v>
-      </c>
-      <c r="P79" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q79" s="15">
-        <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-      <c r="R79" s="15">
-        <f t="shared" si="225"/>
-        <v>160</v>
-      </c>
-      <c r="S79" s="15">
-        <f t="shared" si="226"/>
-        <v>53</v>
-      </c>
-      <c r="T79" s="15">
-        <f t="shared" si="227"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="15">
-        <f t="shared" si="228"/>
-        <v>1</v>
-      </c>
-      <c r="V79" s="15">
-        <f t="shared" si="229"/>
-        <v>215</v>
-      </c>
-      <c r="W79" s="30" t="str">
-        <f t="shared" si="230"/>
-        <v>D7</v>
-      </c>
-    </row>
-    <row r="80" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="73"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K80" s="16">
-        <v>35</v>
-      </c>
-      <c r="L80" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M80" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N80" s="16" t="str">
-        <f t="shared" si="222"/>
-        <v>D8</v>
-      </c>
-      <c r="O80" s="19" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0350002D8</v>
-      </c>
-      <c r="P80" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q80" s="21">
-        <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-      <c r="R80" s="21">
-        <f t="shared" si="225"/>
-        <v>160</v>
-      </c>
-      <c r="S80" s="21">
-        <f t="shared" si="226"/>
-        <v>53</v>
-      </c>
-      <c r="T80" s="21">
-        <f t="shared" si="227"/>
-        <v>0</v>
-      </c>
-      <c r="U80" s="21">
-        <f t="shared" si="228"/>
-        <v>2</v>
-      </c>
-      <c r="V80" s="21">
-        <f t="shared" si="229"/>
-        <v>216</v>
-      </c>
-      <c r="W80" s="61" t="str">
-        <f t="shared" si="230"/>
-        <v>D8</v>
-      </c>
-    </row>
-    <row r="81" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="73"/>
+        <v>3</v>
+      </c>
+      <c r="V80" s="37">
+        <f t="shared" si="231"/>
+        <v>218</v>
+      </c>
+      <c r="W80" s="38" t="str">
+        <f t="shared" si="232"/>
+        <v>DA</v>
+      </c>
+      <c r="Y80" s="83" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="66"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
@@ -7455,7 +8121,7 @@
         <v>23</v>
       </c>
       <c r="K81" s="16">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L81" s="18" t="s">
         <v>16</v>
@@ -7464,50 +8130,53 @@
         <v>16</v>
       </c>
       <c r="N81" s="16" t="str">
-        <f t="shared" si="222"/>
-        <v>D7</v>
+        <f t="shared" ref="N81" si="233">W81</f>
+        <v>E2</v>
       </c>
       <c r="O81" s="19" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0360000D7</v>
+        <f t="shared" ref="O81" si="234">"FF01"&amp;J81&amp;""&amp;K81&amp;L81&amp;M81&amp;N81</f>
+        <v>FF01A0410000E2</v>
       </c>
       <c r="P81" s="20" t="s">
         <v>9</v>
       </c>
       <c r="Q81" s="21">
-        <f t="shared" si="224"/>
+        <f t="shared" ref="Q81" si="235">HEX2DEC(I81)</f>
         <v>1</v>
       </c>
       <c r="R81" s="21">
-        <f t="shared" si="225"/>
+        <f t="shared" ref="R81" si="236">HEX2DEC(J81)</f>
         <v>160</v>
       </c>
       <c r="S81" s="21">
-        <f t="shared" si="226"/>
-        <v>54</v>
+        <f t="shared" ref="S81" si="237">HEX2DEC(K81)</f>
+        <v>65</v>
       </c>
       <c r="T81" s="21">
-        <f t="shared" si="227"/>
+        <f t="shared" ref="T81" si="238">HEX2DEC(L81)</f>
         <v>0</v>
       </c>
       <c r="U81" s="21">
-        <f t="shared" si="228"/>
+        <f t="shared" ref="U81" si="239">HEX2DEC(M81)</f>
         <v>0</v>
       </c>
       <c r="V81" s="21">
-        <f t="shared" si="229"/>
-        <v>215</v>
+        <f t="shared" ref="V81" si="240">SUM(Q81:U81)</f>
+        <v>226</v>
       </c>
       <c r="W81" s="61" t="str">
-        <f t="shared" si="230"/>
-        <v>D7</v>
-      </c>
-    </row>
-    <row r="82" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="73"/>
+        <f t="shared" si="232"/>
+        <v>E2</v>
+      </c>
+      <c r="Y81" s="83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="66"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
@@ -7520,59 +8189,62 @@
         <v>23</v>
       </c>
       <c r="K82" s="16">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L82" s="18" t="s">
         <v>16</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N82" s="16" t="str">
-        <f t="shared" si="222"/>
-        <v>D8</v>
+        <f t="shared" ref="N82:N90" si="241">W82</f>
+        <v>E3</v>
       </c>
       <c r="O82" s="19" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0360001D8</v>
+        <f t="shared" ref="O82:O90" si="242">"FF01"&amp;J82&amp;""&amp;K82&amp;L82&amp;M82&amp;N82</f>
+        <v>FF01A0420000E3</v>
       </c>
       <c r="P82" s="20" t="s">
         <v>9</v>
       </c>
       <c r="Q82" s="21">
-        <f t="shared" si="224"/>
+        <f t="shared" ref="Q82:Q86" si="243">HEX2DEC(I82)</f>
         <v>1</v>
       </c>
       <c r="R82" s="21">
-        <f t="shared" si="225"/>
+        <f t="shared" ref="R82:R86" si="244">HEX2DEC(J82)</f>
         <v>160</v>
       </c>
       <c r="S82" s="21">
-        <f t="shared" si="226"/>
-        <v>54</v>
+        <f t="shared" ref="S82:S86" si="245">HEX2DEC(K82)</f>
+        <v>66</v>
       </c>
       <c r="T82" s="21">
-        <f t="shared" si="227"/>
+        <f t="shared" ref="T82:T86" si="246">HEX2DEC(L82)</f>
         <v>0</v>
       </c>
       <c r="U82" s="21">
-        <f t="shared" si="228"/>
-        <v>1</v>
+        <f t="shared" ref="U82:U86" si="247">HEX2DEC(M82)</f>
+        <v>0</v>
       </c>
       <c r="V82" s="21">
-        <f t="shared" si="229"/>
-        <v>216</v>
+        <f t="shared" ref="V82:V86" si="248">SUM(Q82:U82)</f>
+        <v>227</v>
       </c>
       <c r="W82" s="61" t="str">
-        <f t="shared" si="230"/>
-        <v>D8</v>
-      </c>
-    </row>
-    <row r="83" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="73"/>
+        <f t="shared" si="232"/>
+        <v>E3</v>
+      </c>
+      <c r="Y82" s="83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="66"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
@@ -7585,189 +8257,198 @@
         <v>23</v>
       </c>
       <c r="K83" s="16">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L83" s="18" t="s">
         <v>16</v>
       </c>
       <c r="M83" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N83" s="16" t="str">
+        <f t="shared" si="241"/>
+        <v>E4</v>
+      </c>
+      <c r="O83" s="19" t="str">
+        <f t="shared" si="242"/>
+        <v>FF01A0420001E4</v>
+      </c>
+      <c r="P83" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q83" s="21">
+        <f t="shared" si="243"/>
+        <v>1</v>
+      </c>
+      <c r="R83" s="21">
+        <f t="shared" si="244"/>
+        <v>160</v>
+      </c>
+      <c r="S83" s="21">
+        <f t="shared" si="245"/>
+        <v>66</v>
+      </c>
+      <c r="T83" s="21">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="21">
+        <f t="shared" si="247"/>
+        <v>1</v>
+      </c>
+      <c r="V83" s="21">
+        <f t="shared" si="248"/>
+        <v>228</v>
+      </c>
+      <c r="W83" s="61" t="str">
+        <f t="shared" si="232"/>
+        <v>E4</v>
+      </c>
+      <c r="Y83" s="83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="66"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="16">
+        <v>42</v>
+      </c>
+      <c r="L84" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N83" s="16" t="str">
-        <f t="shared" si="222"/>
-        <v>D9</v>
-      </c>
-      <c r="O83" s="19" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0360002D9</v>
-      </c>
-      <c r="P83" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q83" s="21">
-        <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-      <c r="R83" s="21">
-        <f t="shared" si="225"/>
+      <c r="N84" s="16" t="str">
+        <f t="shared" si="241"/>
+        <v>E5</v>
+      </c>
+      <c r="O84" s="19" t="str">
+        <f t="shared" si="242"/>
+        <v>FF01A0420002E5</v>
+      </c>
+      <c r="P84" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q84" s="21">
+        <f t="shared" si="243"/>
+        <v>1</v>
+      </c>
+      <c r="R84" s="21">
+        <f t="shared" si="244"/>
         <v>160</v>
       </c>
-      <c r="S83" s="21">
-        <f t="shared" si="226"/>
-        <v>54</v>
-      </c>
-      <c r="T83" s="21">
-        <f t="shared" si="227"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="21">
-        <f t="shared" si="228"/>
+      <c r="S84" s="21">
+        <f t="shared" si="245"/>
+        <v>66</v>
+      </c>
+      <c r="T84" s="21">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="21">
+        <f t="shared" si="247"/>
         <v>2</v>
       </c>
-      <c r="V83" s="21">
-        <f t="shared" si="229"/>
-        <v>217</v>
-      </c>
-      <c r="W83" s="61" t="str">
-        <f t="shared" si="230"/>
-        <v>D9</v>
-      </c>
-    </row>
-    <row r="84" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="72"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" s="32" t="s">
+      <c r="V84" s="21">
+        <f t="shared" si="248"/>
+        <v>229</v>
+      </c>
+      <c r="W84" s="61" t="str">
+        <f t="shared" si="232"/>
+        <v>E5</v>
+      </c>
+      <c r="Y84" s="83" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="66"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K84" s="32">
-        <v>36</v>
-      </c>
-      <c r="L84" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M84" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="N84" s="32" t="str">
-        <f t="shared" si="222"/>
-        <v>DA</v>
-      </c>
-      <c r="O84" s="35" t="str">
-        <f t="shared" si="223"/>
-        <v>FF01A0360003DA</v>
-      </c>
-      <c r="P84" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q84" s="37">
-        <f t="shared" si="224"/>
-        <v>1</v>
-      </c>
-      <c r="R84" s="37">
-        <f t="shared" si="225"/>
+      <c r="K85" s="16">
+        <v>43</v>
+      </c>
+      <c r="L85" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85" s="16" t="str">
+        <f t="shared" si="241"/>
+        <v>E5</v>
+      </c>
+      <c r="O85" s="19" t="str">
+        <f t="shared" si="242"/>
+        <v>FF01A0430001E5</v>
+      </c>
+      <c r="P85" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q85" s="21">
+        <f t="shared" si="243"/>
+        <v>1</v>
+      </c>
+      <c r="R85" s="21">
+        <f t="shared" si="244"/>
         <v>160</v>
       </c>
-      <c r="S84" s="37">
-        <f t="shared" si="226"/>
-        <v>54</v>
-      </c>
-      <c r="T84" s="37">
-        <f t="shared" si="227"/>
-        <v>0</v>
-      </c>
-      <c r="U84" s="37">
-        <f t="shared" si="228"/>
-        <v>3</v>
-      </c>
-      <c r="V84" s="37">
-        <f t="shared" si="229"/>
-        <v>218</v>
-      </c>
-      <c r="W84" s="38" t="str">
-        <f t="shared" si="230"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="85" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="74"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="J85" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="K85" s="62">
-        <v>40</v>
-      </c>
-      <c r="L85" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="M85" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="N85" s="62" t="str">
-        <f t="shared" ref="N85" si="231">W85</f>
-        <v>E2</v>
-      </c>
-      <c r="O85" s="65" t="str">
-        <f t="shared" ref="O85" si="232">"FF01"&amp;J85&amp;""&amp;K85&amp;L85&amp;M85&amp;N85</f>
-        <v>FF01A1400000E2</v>
-      </c>
-      <c r="P85" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q85" s="67">
-        <f t="shared" ref="Q85" si="233">HEX2DEC(I85)</f>
-        <v>1</v>
-      </c>
-      <c r="R85" s="67">
-        <f t="shared" ref="R85" si="234">HEX2DEC(J85)</f>
-        <v>161</v>
-      </c>
-      <c r="S85" s="67">
-        <f t="shared" ref="S85" si="235">HEX2DEC(K85)</f>
-        <v>64</v>
-      </c>
-      <c r="T85" s="67">
-        <f t="shared" ref="T85" si="236">HEX2DEC(L85)</f>
-        <v>0</v>
-      </c>
-      <c r="U85" s="67">
-        <f t="shared" ref="U85" si="237">HEX2DEC(M85)</f>
-        <v>0</v>
-      </c>
-      <c r="V85" s="67">
-        <f t="shared" ref="V85" si="238">SUM(Q85:U85)</f>
-        <v>226</v>
-      </c>
-      <c r="W85" s="68" t="str">
-        <f t="shared" si="230"/>
-        <v>E2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="73"/>
+      <c r="S85" s="21">
+        <f t="shared" si="245"/>
+        <v>67</v>
+      </c>
+      <c r="T85" s="21">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="21">
+        <f t="shared" si="247"/>
+        <v>1</v>
+      </c>
+      <c r="V85" s="21">
+        <f t="shared" si="248"/>
+        <v>229</v>
+      </c>
+      <c r="W85" s="61" t="str">
+        <f t="shared" si="232"/>
+        <v>E5</v>
+      </c>
+      <c r="Y85" s="83" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="66"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
@@ -7779,393 +8460,1143 @@
       <c r="J86" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K86" s="16">
-        <v>41</v>
+      <c r="K86" s="18">
+        <v>43</v>
       </c>
       <c r="L86" s="18" t="s">
         <v>16</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="N86" s="16" t="str">
-        <f t="shared" ref="N86" si="239">W86</f>
+        <f t="shared" si="241"/>
+        <v>98</v>
+      </c>
+      <c r="O86" s="19" t="str">
+        <f t="shared" si="242"/>
+        <v>FF01A04300B498</v>
+      </c>
+      <c r="P86" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q86" s="21">
+        <f t="shared" si="243"/>
+        <v>1</v>
+      </c>
+      <c r="R86" s="21">
+        <f t="shared" si="244"/>
+        <v>160</v>
+      </c>
+      <c r="S86" s="21">
+        <f t="shared" si="245"/>
+        <v>67</v>
+      </c>
+      <c r="T86" s="21">
+        <f t="shared" si="246"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="21">
+        <f t="shared" si="247"/>
+        <v>180</v>
+      </c>
+      <c r="V86" s="21">
+        <f t="shared" si="248"/>
+        <v>408</v>
+      </c>
+      <c r="W86" s="61" t="str">
+        <f t="shared" si="232"/>
+        <v>98</v>
+      </c>
+      <c r="Y86" s="83" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="79"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="L87" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N87" s="14" t="str">
+        <f t="shared" ref="N87:N88" si="249">W87</f>
+        <v>F2</v>
+      </c>
+      <c r="O87" s="14" t="str">
+        <f t="shared" ref="O87:O88" si="250">"FF01"&amp;J87&amp;""&amp;K87&amp;L87&amp;M87&amp;N87</f>
+        <v>FF01A0510000F2</v>
+      </c>
+      <c r="P87" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q87" s="15">
+        <f t="shared" ref="Q87:Q88" si="251">HEX2DEC(I87)</f>
+        <v>1</v>
+      </c>
+      <c r="R87" s="15">
+        <f t="shared" ref="R87:R88" si="252">HEX2DEC(J87)</f>
+        <v>160</v>
+      </c>
+      <c r="S87" s="15">
+        <f t="shared" ref="S87:S88" si="253">HEX2DEC(K87)</f>
+        <v>81</v>
+      </c>
+      <c r="T87" s="15">
+        <f t="shared" ref="T87:T88" si="254">HEX2DEC(L87)</f>
+        <v>0</v>
+      </c>
+      <c r="U87" s="15">
+        <f t="shared" ref="U87:U88" si="255">HEX2DEC(M87)</f>
+        <v>0</v>
+      </c>
+      <c r="V87" s="15">
+        <f t="shared" ref="V87:V88" si="256">SUM(Q87:U87)</f>
+        <v>242</v>
+      </c>
+      <c r="W87" s="30" t="str">
+        <f t="shared" ref="W87:W88" si="257">REPT("0",2-LEN(RIGHT(DEC2HEX(V87), 2)))&amp;RIGHT(DEC2HEX(V87), 2)</f>
+        <v>F2</v>
+      </c>
+      <c r="Y87" s="83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="79"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="L88" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M88" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N88" s="14" t="str">
+        <f t="shared" si="249"/>
+        <v>F3</v>
+      </c>
+      <c r="O88" s="14" t="str">
+        <f t="shared" si="250"/>
+        <v>FF01A0520000F3</v>
+      </c>
+      <c r="P88" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q88" s="15">
+        <f t="shared" si="251"/>
+        <v>1</v>
+      </c>
+      <c r="R88" s="15">
+        <f t="shared" si="252"/>
+        <v>160</v>
+      </c>
+      <c r="S88" s="15">
+        <f t="shared" si="253"/>
+        <v>82</v>
+      </c>
+      <c r="T88" s="15">
+        <f t="shared" si="254"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="15">
+        <f t="shared" si="255"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="15">
+        <f t="shared" si="256"/>
+        <v>243</v>
+      </c>
+      <c r="W88" s="30" t="str">
+        <f t="shared" si="257"/>
+        <v>F3</v>
+      </c>
+      <c r="Y88" s="83" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="79"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="L89" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="N89" s="14" t="str">
+        <f t="shared" si="241"/>
+        <v>F4</v>
+      </c>
+      <c r="O89" s="14" t="str">
+        <f t="shared" si="242"/>
+        <v>FF01A0520001F4</v>
+      </c>
+      <c r="P89" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" ref="Q89:Q90" si="258">HEX2DEC(I89)</f>
+        <v>1</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" ref="R89:R90" si="259">HEX2DEC(J89)</f>
+        <v>160</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" ref="S89:S90" si="260">HEX2DEC(K89)</f>
+        <v>82</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" ref="T89:T90" si="261">HEX2DEC(L89)</f>
+        <v>0</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" ref="U89:U90" si="262">HEX2DEC(M89)</f>
+        <v>1</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" ref="V89:V90" si="263">SUM(Q89:U89)</f>
+        <v>244</v>
+      </c>
+      <c r="W89" s="30" t="str">
+        <f t="shared" ref="W89:W90" si="264">REPT("0",2-LEN(RIGHT(DEC2HEX(V89), 2)))&amp;RIGHT(DEC2HEX(V89), 2)</f>
+        <v>F4</v>
+      </c>
+      <c r="Y89" s="83" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="79"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="L90" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M90" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N90" s="14" t="str">
+        <f t="shared" si="241"/>
+        <v>F4</v>
+      </c>
+      <c r="O90" s="14" t="str">
+        <f t="shared" si="242"/>
+        <v>FF01A0530000F4</v>
+      </c>
+      <c r="P90" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q90" s="15">
+        <f t="shared" si="258"/>
+        <v>1</v>
+      </c>
+      <c r="R90" s="15">
+        <f t="shared" si="259"/>
+        <v>160</v>
+      </c>
+      <c r="S90" s="15">
+        <f t="shared" si="260"/>
+        <v>83</v>
+      </c>
+      <c r="T90" s="15">
+        <f t="shared" si="261"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="15">
+        <f t="shared" si="262"/>
+        <v>0</v>
+      </c>
+      <c r="V90" s="15">
+        <f t="shared" si="263"/>
+        <v>244</v>
+      </c>
+      <c r="W90" s="30" t="str">
+        <f t="shared" si="264"/>
+        <v>F4</v>
+      </c>
+      <c r="Y90" s="83" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="85"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="J91" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="L91" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="N91" s="20" t="str">
+        <f t="shared" ref="N91" si="265">W91</f>
+        <v>F5</v>
+      </c>
+      <c r="O91" s="20" t="str">
+        <f t="shared" ref="O91" si="266">"FF01"&amp;J91&amp;""&amp;K91&amp;L91&amp;M91&amp;N91</f>
+        <v>FF01A0530001F5</v>
+      </c>
+      <c r="P91" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q91" s="21">
+        <f t="shared" ref="Q91:Q92" si="267">HEX2DEC(I91)</f>
+        <v>1</v>
+      </c>
+      <c r="R91" s="21">
+        <f t="shared" ref="R91:R92" si="268">HEX2DEC(J91)</f>
+        <v>160</v>
+      </c>
+      <c r="S91" s="21">
+        <f t="shared" ref="S91:S92" si="269">HEX2DEC(K91)</f>
+        <v>83</v>
+      </c>
+      <c r="T91" s="21">
+        <f t="shared" ref="T91:T92" si="270">HEX2DEC(L91)</f>
+        <v>0</v>
+      </c>
+      <c r="U91" s="21">
+        <f t="shared" ref="U91:U92" si="271">HEX2DEC(M91)</f>
+        <v>1</v>
+      </c>
+      <c r="V91" s="21">
+        <f t="shared" ref="V91:V92" si="272">SUM(Q91:U91)</f>
+        <v>245</v>
+      </c>
+      <c r="W91" s="61" t="str">
+        <f t="shared" ref="W91" si="273">REPT("0",2-LEN(RIGHT(DEC2HEX(V91), 2)))&amp;RIGHT(DEC2HEX(V91), 2)</f>
+        <v>F5</v>
+      </c>
+      <c r="Y91" s="83" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="78"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="K92" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N92" s="26" t="str">
+        <f>W92</f>
         <v>E2</v>
       </c>
-      <c r="O86" s="19" t="str">
-        <f t="shared" ref="O86" si="240">"FF01"&amp;J86&amp;""&amp;K86&amp;L86&amp;M86&amp;N86</f>
-        <v>FF01A0410000E2</v>
-      </c>
-      <c r="P86" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q86" s="21">
-        <f t="shared" ref="Q86" si="241">HEX2DEC(I86)</f>
-        <v>1</v>
-      </c>
-      <c r="R86" s="21">
-        <f t="shared" ref="R86" si="242">HEX2DEC(J86)</f>
+      <c r="O92" s="26" t="str">
+        <f>"FF01"&amp;J92&amp;""&amp;K92&amp;L92&amp;M92&amp;N92</f>
+        <v>FF01E1000000E2</v>
+      </c>
+      <c r="P92" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q92" s="27">
+        <f t="shared" si="267"/>
+        <v>1</v>
+      </c>
+      <c r="R92" s="27">
+        <f t="shared" si="268"/>
+        <v>225</v>
+      </c>
+      <c r="S92" s="27">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="27">
+        <f t="shared" si="270"/>
+        <v>0</v>
+      </c>
+      <c r="U92" s="27">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="27">
+        <f t="shared" si="272"/>
+        <v>226</v>
+      </c>
+      <c r="W92" s="28" t="str">
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V92), 2)))&amp;RIGHT(DEC2HEX(V92), 2)</f>
+        <v>E2</v>
+      </c>
+      <c r="Y92" s="83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="79"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J93" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="L93" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N93" s="14" t="str">
+        <f t="shared" ref="N93" si="274">W93</f>
+        <v>56</v>
+      </c>
+      <c r="O93" s="14" t="str">
+        <f t="shared" ref="O93" si="275">"FF01"&amp;J93&amp;""&amp;K93&amp;L93&amp;M93&amp;N93</f>
+        <v>FF010055000056</v>
+      </c>
+      <c r="P93" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q93" s="15">
+        <f t="shared" ref="Q93" si="276">HEX2DEC(I93)</f>
+        <v>1</v>
+      </c>
+      <c r="R93" s="15">
+        <f t="shared" ref="R93" si="277">HEX2DEC(J93)</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="15">
+        <f t="shared" ref="S93" si="278">HEX2DEC(K93)</f>
+        <v>85</v>
+      </c>
+      <c r="T93" s="15">
+        <f t="shared" ref="T93" si="279">HEX2DEC(L93)</f>
+        <v>0</v>
+      </c>
+      <c r="U93" s="15">
+        <f t="shared" ref="U93" si="280">HEX2DEC(M93)</f>
+        <v>0</v>
+      </c>
+      <c r="V93" s="15">
+        <f t="shared" ref="V93" si="281">SUM(Q93:U93)</f>
+        <v>86</v>
+      </c>
+      <c r="W93" s="30" t="str">
+        <f t="shared" ref="W93" si="282">REPT("0",2-LEN(RIGHT(DEC2HEX(V93), 2)))&amp;RIGHT(DEC2HEX(V93), 2)</f>
+        <v>56</v>
+      </c>
+      <c r="Y93" s="83" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="79"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J94" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="L94" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="14" t="str">
+        <f>W94</f>
+        <v>57</v>
+      </c>
+      <c r="O94" s="14" t="str">
+        <f>"FF01"&amp;J94&amp;""&amp;K94&amp;L94&amp;M94&amp;N94</f>
+        <v>FF010155000057</v>
+      </c>
+      <c r="P94" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q94" s="15">
+        <f>HEX2DEC(I94)</f>
+        <v>1</v>
+      </c>
+      <c r="R94" s="15">
+        <f>HEX2DEC(J94)</f>
+        <v>1</v>
+      </c>
+      <c r="S94" s="15">
+        <f>HEX2DEC(K94)</f>
+        <v>85</v>
+      </c>
+      <c r="T94" s="15">
+        <f>HEX2DEC(L94)</f>
+        <v>0</v>
+      </c>
+      <c r="U94" s="15">
+        <f>HEX2DEC(M94)</f>
+        <v>0</v>
+      </c>
+      <c r="V94" s="15">
+        <f>SUM(Q94:U94)</f>
+        <v>87</v>
+      </c>
+      <c r="W94" s="30" t="str">
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V94), 2)))&amp;RIGHT(DEC2HEX(V94), 2)</f>
+        <v>57</v>
+      </c>
+      <c r="Y94" s="83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="79"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J95" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="K95" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="L95" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M95" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N95" s="14" t="str">
+        <f>W95</f>
+        <v>B2</v>
+      </c>
+      <c r="O95" s="14" t="str">
+        <f>"FF01"&amp;J95&amp;""&amp;K95&amp;L95&amp;M95&amp;N95</f>
+        <v>FF01A1100000B2</v>
+      </c>
+      <c r="P95" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q95" s="15">
+        <f>HEX2DEC(I95)</f>
+        <v>1</v>
+      </c>
+      <c r="R95" s="15">
+        <f>HEX2DEC(J95)</f>
+        <v>161</v>
+      </c>
+      <c r="S95" s="15">
+        <f>HEX2DEC(K95)</f>
+        <v>16</v>
+      </c>
+      <c r="T95" s="15">
+        <f>HEX2DEC(L95)</f>
+        <v>0</v>
+      </c>
+      <c r="U95" s="15">
+        <f>HEX2DEC(M95)</f>
+        <v>0</v>
+      </c>
+      <c r="V95" s="15">
+        <f>SUM(Q95:U95)</f>
+        <v>178</v>
+      </c>
+      <c r="W95" s="30" t="str">
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V95), 2)))&amp;RIGHT(DEC2HEX(V95), 2)</f>
+        <v>B2</v>
+      </c>
+      <c r="Y95" s="83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="79"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K96" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="L96" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M96" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N96" s="14" t="str">
+        <f>W96</f>
+        <v>12</v>
+      </c>
+      <c r="O96" s="14" t="str">
+        <f>"FF01"&amp;J96&amp;""&amp;K96&amp;L96&amp;M96&amp;N96</f>
+        <v>FF01E130000012</v>
+      </c>
+      <c r="P96" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q96" s="15">
+        <f>HEX2DEC(I96)</f>
+        <v>1</v>
+      </c>
+      <c r="R96" s="15">
+        <f>HEX2DEC(J96)</f>
+        <v>225</v>
+      </c>
+      <c r="S96" s="15">
+        <f>HEX2DEC(K96)</f>
+        <v>48</v>
+      </c>
+      <c r="T96" s="15">
+        <f>HEX2DEC(L96)</f>
+        <v>0</v>
+      </c>
+      <c r="U96" s="15">
+        <f>HEX2DEC(M96)</f>
+        <v>0</v>
+      </c>
+      <c r="V96" s="15">
+        <f>SUM(Q96:U96)</f>
+        <v>274</v>
+      </c>
+      <c r="W96" s="30" t="str">
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V96), 2)))&amp;RIGHT(DEC2HEX(V96), 2)</f>
+        <v>12</v>
+      </c>
+      <c r="Y96" s="83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="79"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="K97" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="L97" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M97" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N97" s="14" t="str">
+        <f>W97</f>
+        <v>C2</v>
+      </c>
+      <c r="O97" s="14" t="str">
+        <f>"FF01"&amp;J97&amp;""&amp;K97&amp;L97&amp;M97&amp;N97</f>
+        <v>FF01A1200000C2</v>
+      </c>
+      <c r="P97" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q97" s="15">
+        <f>HEX2DEC(I97)</f>
+        <v>1</v>
+      </c>
+      <c r="R97" s="15">
+        <f>HEX2DEC(J97)</f>
+        <v>161</v>
+      </c>
+      <c r="S97" s="15">
+        <f>HEX2DEC(K97)</f>
+        <v>32</v>
+      </c>
+      <c r="T97" s="15">
+        <f>HEX2DEC(L97)</f>
+        <v>0</v>
+      </c>
+      <c r="U97" s="15">
+        <f>HEX2DEC(M97)</f>
+        <v>0</v>
+      </c>
+      <c r="V97" s="15">
+        <f>SUM(Q97:U97)</f>
+        <v>194</v>
+      </c>
+      <c r="W97" s="30" t="str">
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V97), 2)))&amp;RIGHT(DEC2HEX(V97), 2)</f>
+        <v>C2</v>
+      </c>
+      <c r="Y97" s="83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="79"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K98" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="L98" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N98" s="14" t="str">
+        <f>W98</f>
+        <v>F2</v>
+      </c>
+      <c r="O98" s="14" t="str">
+        <f>"FF01"&amp;J98&amp;""&amp;K98&amp;L98&amp;M98&amp;N98</f>
+        <v>FF01A1500000F2</v>
+      </c>
+      <c r="P98" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q98" s="15">
+        <f>HEX2DEC(I98)</f>
+        <v>1</v>
+      </c>
+      <c r="R98" s="15">
+        <f>HEX2DEC(J98)</f>
+        <v>161</v>
+      </c>
+      <c r="S98" s="15">
+        <f>HEX2DEC(K98)</f>
+        <v>80</v>
+      </c>
+      <c r="T98" s="15">
+        <f>HEX2DEC(L98)</f>
+        <v>0</v>
+      </c>
+      <c r="U98" s="15">
+        <f>HEX2DEC(M98)</f>
+        <v>0</v>
+      </c>
+      <c r="V98" s="15">
+        <f>SUM(Q98:U98)</f>
+        <v>242</v>
+      </c>
+      <c r="W98" s="30" t="str">
+        <f t="shared" ref="W98:W101" si="283">REPT("0",2-LEN(RIGHT(DEC2HEX(V98), 2)))&amp;RIGHT(DEC2HEX(V98), 2)</f>
+        <v>F2</v>
+      </c>
+      <c r="Y98" s="83" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="79"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K99" s="14">
+        <v>40</v>
+      </c>
+      <c r="L99" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M99" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N99" s="14" t="str">
+        <f t="shared" ref="N99" si="284">W99</f>
+        <v>E2</v>
+      </c>
+      <c r="O99" s="14" t="str">
+        <f t="shared" ref="O99" si="285">"FF01"&amp;J99&amp;""&amp;K99&amp;L99&amp;M99&amp;N99</f>
+        <v>FF01A1400000E2</v>
+      </c>
+      <c r="P99" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q99" s="15">
+        <f t="shared" ref="Q99" si="286">HEX2DEC(I99)</f>
+        <v>1</v>
+      </c>
+      <c r="R99" s="15">
+        <f t="shared" ref="R99" si="287">HEX2DEC(J99)</f>
+        <v>161</v>
+      </c>
+      <c r="S99" s="15">
+        <f t="shared" ref="S99" si="288">HEX2DEC(K99)</f>
+        <v>64</v>
+      </c>
+      <c r="T99" s="15">
+        <f t="shared" ref="T99" si="289">HEX2DEC(L99)</f>
+        <v>0</v>
+      </c>
+      <c r="U99" s="15">
+        <f t="shared" ref="U99" si="290">HEX2DEC(M99)</f>
+        <v>0</v>
+      </c>
+      <c r="V99" s="15">
+        <f t="shared" ref="V99" si="291">SUM(Q99:U99)</f>
+        <v>226</v>
+      </c>
+      <c r="W99" s="30" t="str">
+        <f t="shared" si="283"/>
+        <v>E2</v>
+      </c>
+      <c r="Y99" s="83" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="79"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K100" s="14">
+        <v>30</v>
+      </c>
+      <c r="L100" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="14" t="str">
+        <f>W100</f>
+        <v>D2</v>
+      </c>
+      <c r="O100" s="14" t="str">
+        <f>"FF01"&amp;J100&amp;""&amp;K100&amp;L100&amp;M100&amp;N100</f>
+        <v>FF01A1300000D2</v>
+      </c>
+      <c r="P100" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q100" s="15">
+        <f t="shared" ref="Q100:U100" si="292">HEX2DEC(I100)</f>
+        <v>1</v>
+      </c>
+      <c r="R100" s="15">
+        <f t="shared" si="292"/>
+        <v>161</v>
+      </c>
+      <c r="S100" s="15">
+        <f t="shared" si="292"/>
+        <v>48</v>
+      </c>
+      <c r="T100" s="15">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="15">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="15">
+        <f>SUM(Q100:U100)</f>
+        <v>210</v>
+      </c>
+      <c r="W100" s="30" t="str">
+        <f t="shared" si="283"/>
+        <v>D2</v>
+      </c>
+      <c r="Y100" s="83" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="79"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="K101" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="14" t="str">
+        <f>W101</f>
+        <v>A2</v>
+      </c>
+      <c r="O101" s="14" t="str">
+        <f>"FF01"&amp;J101&amp;""&amp;K101&amp;L101&amp;M101&amp;N101</f>
+        <v>FF01A1000000A2</v>
+      </c>
+      <c r="P101" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q101" s="15">
+        <v>1</v>
+      </c>
+      <c r="R101" s="15">
+        <f t="shared" ref="R101:U101" si="293">HEX2DEC(J101)</f>
+        <v>161</v>
+      </c>
+      <c r="S101" s="15">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="15">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="15">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="15">
+        <f>SUM(Q101:U101)</f>
+        <v>162</v>
+      </c>
+      <c r="W101" s="30" t="str">
+        <f t="shared" si="283"/>
+        <v>A2</v>
+      </c>
+      <c r="Y101" s="83" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="2:25" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="S86" s="21">
-        <f t="shared" ref="S86" si="243">HEX2DEC(K86)</f>
-        <v>65</v>
-      </c>
-      <c r="T86" s="21">
-        <f t="shared" ref="T86" si="244">HEX2DEC(L86)</f>
-        <v>0</v>
-      </c>
-      <c r="U86" s="21">
-        <f t="shared" ref="U86" si="245">HEX2DEC(M86)</f>
-        <v>0</v>
-      </c>
-      <c r="V86" s="21">
-        <f t="shared" ref="V86" si="246">SUM(Q86:U86)</f>
-        <v>226</v>
-      </c>
-      <c r="W86" s="61" t="str">
-        <f t="shared" si="230"/>
-        <v>E2</v>
-      </c>
-    </row>
-    <row r="87" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J87" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" s="16">
-        <v>42</v>
-      </c>
-      <c r="L87" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M87" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="N87" s="16" t="str">
-        <f t="shared" ref="N87:N91" si="247">W87</f>
-        <v>E3</v>
-      </c>
-      <c r="O87" s="19" t="str">
-        <f t="shared" ref="O87:O91" si="248">"FF01"&amp;J87&amp;""&amp;K87&amp;L87&amp;M87&amp;N87</f>
-        <v>FF01A0420000E3</v>
-      </c>
-      <c r="P87" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q87" s="21">
-        <f t="shared" ref="Q87:Q91" si="249">HEX2DEC(I87)</f>
-        <v>1</v>
-      </c>
-      <c r="R87" s="21">
-        <f t="shared" ref="R87:R91" si="250">HEX2DEC(J87)</f>
-        <v>160</v>
-      </c>
-      <c r="S87" s="21">
-        <f t="shared" ref="S87:S91" si="251">HEX2DEC(K87)</f>
-        <v>66</v>
-      </c>
-      <c r="T87" s="21">
-        <f t="shared" ref="T87:T91" si="252">HEX2DEC(L87)</f>
-        <v>0</v>
-      </c>
-      <c r="U87" s="21">
-        <f t="shared" ref="U87:U91" si="253">HEX2DEC(M87)</f>
-        <v>0</v>
-      </c>
-      <c r="V87" s="21">
-        <f t="shared" ref="V87:V91" si="254">SUM(Q87:U87)</f>
-        <v>227</v>
-      </c>
-      <c r="W87" s="61" t="str">
-        <f t="shared" si="230"/>
-        <v>E3</v>
-      </c>
-    </row>
-    <row r="88" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="73"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J88" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K88" s="16">
-        <v>42</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M88" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N88" s="16" t="str">
-        <f t="shared" si="247"/>
-        <v>E4</v>
-      </c>
-      <c r="O88" s="19" t="str">
-        <f t="shared" si="248"/>
-        <v>FF01A0420001E4</v>
-      </c>
-      <c r="P88" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q88" s="21">
-        <f t="shared" si="249"/>
-        <v>1</v>
-      </c>
-      <c r="R88" s="21">
-        <f t="shared" si="250"/>
-        <v>160</v>
-      </c>
-      <c r="S88" s="21">
-        <f t="shared" si="251"/>
-        <v>66</v>
-      </c>
-      <c r="T88" s="21">
-        <f t="shared" si="252"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="21">
-        <f t="shared" si="253"/>
-        <v>1</v>
-      </c>
-      <c r="V88" s="21">
-        <f t="shared" si="254"/>
-        <v>228</v>
-      </c>
-      <c r="W88" s="61" t="str">
-        <f t="shared" si="230"/>
-        <v>E4</v>
-      </c>
-    </row>
-    <row r="89" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K89" s="16">
-        <v>42</v>
-      </c>
-      <c r="L89" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M89" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N89" s="16" t="str">
-        <f t="shared" si="247"/>
-        <v>E5</v>
-      </c>
-      <c r="O89" s="19" t="str">
-        <f t="shared" si="248"/>
-        <v>FF01A0420002E5</v>
-      </c>
-      <c r="P89" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q89" s="21">
-        <f t="shared" si="249"/>
-        <v>1</v>
-      </c>
-      <c r="R89" s="21">
-        <f t="shared" si="250"/>
-        <v>160</v>
-      </c>
-      <c r="S89" s="21">
-        <f t="shared" si="251"/>
-        <v>66</v>
-      </c>
-      <c r="T89" s="21">
-        <f t="shared" si="252"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="21">
-        <f t="shared" si="253"/>
-        <v>2</v>
-      </c>
-      <c r="V89" s="21">
-        <f t="shared" si="254"/>
-        <v>229</v>
-      </c>
-      <c r="W89" s="61" t="str">
-        <f t="shared" si="230"/>
-        <v>E5</v>
-      </c>
-    </row>
-    <row r="90" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="73"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J90" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K90" s="16">
-        <v>43</v>
-      </c>
-      <c r="L90" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M90" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N90" s="16" t="str">
-        <f t="shared" si="247"/>
-        <v>E5</v>
-      </c>
-      <c r="O90" s="19" t="str">
-        <f t="shared" si="248"/>
-        <v>FF01A0430001E5</v>
-      </c>
-      <c r="P90" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q90" s="21">
-        <f t="shared" si="249"/>
-        <v>1</v>
-      </c>
-      <c r="R90" s="21">
-        <f t="shared" si="250"/>
-        <v>160</v>
-      </c>
-      <c r="S90" s="21">
-        <f t="shared" si="251"/>
-        <v>67</v>
-      </c>
-      <c r="T90" s="21">
-        <f t="shared" si="252"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="21">
-        <f t="shared" si="253"/>
-        <v>1</v>
-      </c>
-      <c r="V90" s="21">
-        <f t="shared" si="254"/>
-        <v>229</v>
-      </c>
-      <c r="W90" s="61" t="str">
-        <f t="shared" si="230"/>
-        <v>E5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:23" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="C91" s="72"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K91" s="32">
-        <v>43</v>
-      </c>
-      <c r="L91" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="N91" s="32" t="str">
-        <f t="shared" si="247"/>
-        <v>98</v>
-      </c>
-      <c r="O91" s="35" t="str">
-        <f t="shared" si="248"/>
-        <v>FF01A04300B498</v>
-      </c>
-      <c r="P91" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q91" s="37">
-        <f t="shared" si="249"/>
-        <v>1</v>
-      </c>
-      <c r="R91" s="37">
-        <f t="shared" si="250"/>
-        <v>160</v>
-      </c>
-      <c r="S91" s="37">
-        <f t="shared" si="251"/>
-        <v>67</v>
-      </c>
-      <c r="T91" s="37">
-        <f t="shared" si="252"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="37">
-        <f t="shared" si="253"/>
-        <v>180</v>
-      </c>
-      <c r="V91" s="37">
-        <f t="shared" si="254"/>
-        <v>408</v>
-      </c>
-      <c r="W91" s="38" t="str">
-        <f t="shared" si="230"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="83" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="93" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="83" t="s">
-        <v>160</v>
+      <c r="C102" s="80"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="K102" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="L102" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="36" t="str">
+        <f>W102</f>
+        <v>F2</v>
+      </c>
+      <c r="O102" s="36" t="str">
+        <f>"FF01"&amp;J102&amp;""&amp;K102&amp;L102&amp;M102&amp;N102</f>
+        <v>FF01E1100000F2</v>
+      </c>
+      <c r="P102" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q102" s="37">
+        <f>HEX2DEC(I102)</f>
+        <v>1</v>
+      </c>
+      <c r="R102" s="37">
+        <f>HEX2DEC(J102)</f>
+        <v>225</v>
+      </c>
+      <c r="S102" s="37">
+        <f>HEX2DEC(K102)</f>
+        <v>16</v>
+      </c>
+      <c r="T102" s="37">
+        <f>HEX2DEC(L102)</f>
+        <v>0</v>
+      </c>
+      <c r="U102" s="37">
+        <f>HEX2DEC(M102)</f>
+        <v>0</v>
+      </c>
+      <c r="V102" s="37">
+        <f>SUM(Q102:U102)</f>
+        <v>242</v>
+      </c>
+      <c r="W102" s="38" t="str">
+        <f>REPT("0",2-LEN(RIGHT(DEC2HEX(V102), 2)))&amp;RIGHT(DEC2HEX(V102), 2)</f>
+        <v>F2</v>
+      </c>
+      <c r="Y102" s="83" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8173,7 +9604,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M92:M1048576 M1" numberStoredAsText="1"/>
+    <ignoredError sqref="M1 M103:M1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Command/Command.xlsx
+++ b/Command/Command.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Project\Python\TestTool\Command\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE929A2C-719D-47FB-B0E2-84234E6DC704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219390B8-32E5-49B2-8C41-2C59A577E2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="75" windowWidth="21600" windowHeight="15375" activeTab="1" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
+    <workbookView xWindow="33405" yWindow="795" windowWidth="21600" windowHeight="14880" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Uncooled" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Cooled Data Sheet" sheetId="6" r:id="rId4"/>
     <sheet name="CMD RAW" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NYX Series'!$B$2:$N$259</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="853">
   <si>
     <r>
       <rPr>
@@ -2189,10 +2192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http poty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tcp port</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2317,126 +2316,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens focud encoder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lens fov</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens zoom spd=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens zoom spd=2</t>
-  </si>
-  <si>
-    <t>lens zoom spd=3</t>
-  </si>
-  <si>
-    <t>lens zoom spd=4</t>
-  </si>
-  <si>
-    <t>lens zoom spd=5</t>
-  </si>
-  <si>
-    <t>lens focus spd=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens focus spd=2</t>
-  </si>
-  <si>
-    <t>lens focus spd=3</t>
-  </si>
-  <si>
-    <t>lens focus spd=4</t>
-  </si>
-  <si>
-    <t>lens focus spd=5</t>
-  </si>
-  <si>
-    <t>lens zoom dir=24853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens focus stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens zoom stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens zoom wide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens zoom narrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens focus far</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens focus near</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens focus dir -17000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lens current fov</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens af stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af execute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af roi full</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af roi 3/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af roi 2/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af roi 1/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af mode manual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af mode interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af mode zoom-trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af interval 360 m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens af interval 10 m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>infr stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2461,62 +2348,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>infr output mode nuc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr output mode raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr output fps 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#infr_ofps=25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>infr output fps 25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr calibration stop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr calibration exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr calibration mode manual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr calibration mode interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr calibration interval 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr calibration interval 180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr calibration interval 360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr bad pixel repair mod off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr bad pixel repair mod on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#infr_bprm=off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2525,26 +2360,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bad pixel repair set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bad pixel repair update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#infr_bprf=set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bad pixel repair factory set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bad pixel repair factory clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#infr_bprf=clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2553,10 +2372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bad pixel repair factory update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#infr_bprf=update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2565,18 +2380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bad pixel repair factory clear all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bad pixel repair factory auto 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bad pixel repair factory auto 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#infr_bprf=auto1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2593,22 +2396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>infr non uniform correction mode 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr non uniform correction mode 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr non uniform correction mode 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr non uniform correction mode 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.GET#infr_nucm=mode2</t>
   </si>
   <si>
@@ -2618,30 +2405,6 @@
     <t>NYX.GET#infr_nucm=mode4</t>
   </si>
   <si>
-    <t>infr integral time 3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr integral time 6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr integral time 9000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr integral time 12000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr integral time 15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr integral time 20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#infr_inta=6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2650,18 +2413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>infr integral time fine control 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr integral time fine control 6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infr integral time fine control 25000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isp0 version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2698,42 +2449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resolution 720x576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolution 1280x720</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolution 1280x1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolution 1920x1080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp video mode window_box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp video mode window_box_lefttop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp video mode pillar_box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp video mode scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp video mode crop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>osd information on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2834,28 +2549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isp linear percent 0
-(AGC -&gt; Liner Weight)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp linear percent 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp linear percent 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp heq compress off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp heq compress on
-(AGC -&gt; Custom -&gt; HEQ Compress)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#isp0_heql=25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2864,60 +2557,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isp heq limit percent 0
-(AGC -&gt; Custom -&gt; HEQ Limit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp heq limit percent 25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp heq limit percent 45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp local area enhancement on
-(AGC -&gt; Custom -&gt; LAE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISP local area enhancement off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp0 gamma 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp0 gamma 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp0 gamma 0
-(AGC -&gt; Custom -&gt; Gamma)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#isp0_damp=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp0 damping 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp0 damping 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp0 damping 0
-(AGC -&gt; Custom -&gt; Damping)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp color space gray
-(Image -&gt; Color Space)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2926,38 +2566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isp color space iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp color space plazma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp color space rainbow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp color space twilight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp color space twilight_shifted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp color space turbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp color inverse white hot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp color inverse black hot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mirror on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3006,59 +2614,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isp filter roi box off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi box on
-(Image -&gt; FIlter ROI Draw)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi mode off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi mode left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi mode right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi mode up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi mode down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi mode custom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode x 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode x 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode x 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#isp0_frox=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isp filter roi custom mode x 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#isp0_frox=20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3071,18 +2630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isp filter roi custom mode y 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode y 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode y 32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#isp0_froy=8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3091,50 +2638,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isp filter roi custom mode y 64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#isp0_froy=64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isp filter roi custom mode x size1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode x size8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode x size10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#isp0_frsx=8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isp filter roi custom mode x size20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode y size1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode y size16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode y size 32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isp filter roi custom mode y size 64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>histogram draw on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3163,16 +2674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auto integral time on
-(Setting -&gt; Auto Int Time)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adaptive HEQ mode off
-(AGC -&gt; Custom -&gt; Adaptive HEQ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adaptive HEQ mode mode1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3197,11 +2698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>agc mode default
-(AGC -&gt; AGC Mode)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>agc legacy limit 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3210,11 +2706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>agc legacy limit 1
-(AGC -&gt; Legacy -&gt; Legacy Limit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>factory menu on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3227,11 +2718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bad pixel highlight on
-(BPR -&gt; Show Bad Pixel)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auto bad pixel threshold 30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3244,11 +2730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auto bad pixel threshold 1
-(BPR -&gt; BPR Threshold)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auto bad pixel same count 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3261,16 +2742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auto bad pixel same count 1
-(BPR -&gt; BPR Count)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nuc saturation cut on
-(NUC -&gt; NUC Cut Enable)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nuc saturation cut off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3291,34 +2762,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens zoom dir=17703</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#lens_zdir=17703</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens zoom dir=33190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#lens_zdir=33190</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens zoom dir=16003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#lens_zdir=16003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens zoom dir=33704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#lens_zdir=33704</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3327,10 +2782,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens zoom dir=19691</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#lens_zdir=19691</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3339,19 +2790,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens zoom dir=35178</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens focus dir 10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#lens_fdir=10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lens focus dir -500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3365,10 +2804,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lens focus dir 1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NYX.SET#lens_fdir=1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3378,6 +2813,493 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>http port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lens focus encoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get/Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom spd=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom spd=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> zoom spd=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zoom spd=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zoom spd=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus spd=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus spd=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus spd=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus spd=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus spd=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus far</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus near</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus dir -17000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus dir 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus dir -500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> focus dir 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> af stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> af execute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> af roi full</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> af roi 3/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> af roi 2/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> af roi 1/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> af interval 10 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> af interval 360 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> output mode nuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> output mode raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> calibration stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> calibration exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integral time 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integral time 6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integral time 9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integral time 12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integral time 15000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integral time 20000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integral time fine control 6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integral time fine control 25000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720x576</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1280x720</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1280x1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1920x1080</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> window_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> window_box_lefttop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pillar_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> linear percent 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> linear percent 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> linear percent 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> heq compress on</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> heq compress off</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> heq limit percent 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> heq limit percent 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> heq limit percent 45</t>
+  </si>
+  <si>
+    <t>gamma 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamma 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamma 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damping 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damping 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damping 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>plazma</t>
+  </si>
+  <si>
+    <t>rainbow</t>
+  </si>
+  <si>
+    <t>twilight</t>
+  </si>
+  <si>
+    <t>turbo</t>
+  </si>
+  <si>
+    <t>white hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roi box on</t>
+  </si>
+  <si>
+    <t>roi box off</t>
+  </si>
+  <si>
+    <t>roi mode off</t>
+  </si>
+  <si>
+    <t>roi mode left</t>
+  </si>
+  <si>
+    <t>roi mode right</t>
+  </si>
+  <si>
+    <t>roi mode up</t>
+  </si>
+  <si>
+    <t>roi mode down</t>
+  </si>
+  <si>
+    <t>roi mode custom</t>
+  </si>
+  <si>
+    <t>roi custom mode x 0</t>
+  </si>
+  <si>
+    <t>roi custom mode x 1</t>
+  </si>
+  <si>
+    <t>roi custom mode x 10</t>
+  </si>
+  <si>
+    <t>roi custom mode x 20</t>
+  </si>
+  <si>
+    <t>roi custom mode y 0</t>
+  </si>
+  <si>
+    <t>roi custom mode y 8</t>
+  </si>
+  <si>
+    <t>roi custom mode y 32</t>
+  </si>
+  <si>
+    <t>roi custom mode y 64</t>
+  </si>
+  <si>
+    <t>roi custom mode x size1</t>
+  </si>
+  <si>
+    <t>roi custom mode x size8</t>
+  </si>
+  <si>
+    <t>roi custom mode x size10</t>
+  </si>
+  <si>
+    <t>roi custom mode x size20</t>
+  </si>
+  <si>
+    <t>roi custom mode y size1</t>
+  </si>
+  <si>
+    <t>roi custom mode y size16</t>
+  </si>
+  <si>
+    <t>roi custom mode y size 32</t>
+  </si>
+  <si>
+    <t>roi custom mode y size 64</t>
+  </si>
+  <si>
+    <t>auto integral time on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaptive HEQ mode off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agc mode default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agc legacy limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad pixel highlight on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto bad pixel threshold 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto bad pixel same count 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuc saturation cut on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lae on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lae off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twilight shifted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> integral time fine control 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuc mode 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuc mode 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuc mode 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuc mode 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr factory set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr factory clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr factory update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr factory clear all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr factory auto 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr factory auto 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> cali. manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> cali. interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> cali. interval 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> cali. interval 180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> cali. interval 360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr mode off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bpr mode on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fps 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fps 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> af manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> af interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> af zoom-trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom narrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom wide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom dir=16003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom dir=33704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom dir=17703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom dir=24853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom dir=33190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom dir=19691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom dir=35178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF01000F000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4917,11 +4839,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2191A3BB-5475-EC49-9D9F-17B4E3E33BE8}">
   <dimension ref="B1:S102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5059,7 +4981,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="72" t="s">
-        <v>182</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -11210,23 +11132,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E81CA2C-2102-45AC-92BA-FE564D531E29}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:N259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="2.77734375" customWidth="1"/>
     <col min="8" max="8" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
@@ -11243,7 +11166,7 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="81" t="s">
-        <v>850</v>
+        <v>710</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>7</v>
@@ -11258,7 +11181,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="82" t="s">
         <v>553</v>
       </c>
@@ -11287,7 +11210,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82" t="s">
         <v>554</v>
       </c>
@@ -11316,9 +11239,9 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="82" t="s">
-        <v>555</v>
+        <v>711</v>
       </c>
       <c r="C5" s="83" t="s">
         <v>282</v>
@@ -11345,9 +11268,9 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="82" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C6" s="83" t="s">
         <v>280</v>
@@ -11361,9 +11284,9 @@
       <c r="F6" s="83"/>
       <c r="G6" s="78"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="82" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C7" s="83" t="s">
         <v>283</v>
@@ -11377,9 +11300,9 @@
       <c r="F7" s="83"/>
       <c r="G7" s="78"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="82" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C8" s="83" t="s">
         <v>284</v>
@@ -11393,9 +11316,9 @@
       <c r="F8" s="83"/>
       <c r="G8" s="78"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="82" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C9" s="83" t="s">
         <v>285</v>
@@ -11409,9 +11332,9 @@
       <c r="F9" s="83"/>
       <c r="G9" s="78"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="82" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C10" s="83" t="s">
         <v>286</v>
@@ -11425,9 +11348,9 @@
       <c r="F10" s="83"/>
       <c r="G10" s="78"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="82" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C11" s="83" t="s">
         <v>287</v>
@@ -11439,13 +11362,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="83" t="s">
+        <v>561</v>
+      </c>
+      <c r="G11" s="78"/>
+    </row>
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="82" t="s">
         <v>562</v>
-      </c>
-      <c r="G11" s="78"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="82" t="s">
-        <v>563</v>
       </c>
       <c r="C12" s="83" t="s">
         <v>288</v>
@@ -11461,13 +11384,13 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="82" t="s">
-        <v>827</v>
+        <v>696</v>
       </c>
       <c r="C13" s="83" t="s">
         <v>326</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E13" s="84">
         <v>0</v>
@@ -11475,9 +11398,9 @@
       <c r="F13" s="83"/>
       <c r="G13" s="78"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C14" s="83" t="s">
         <v>289</v>
@@ -11491,9 +11414,9 @@
       <c r="F14" s="83"/>
       <c r="G14" s="78"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="82" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C15" s="83" t="s">
         <v>290</v>
@@ -11507,9 +11430,9 @@
       <c r="F15" s="83"/>
       <c r="G15" s="78"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="82" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C16" s="83" t="s">
         <v>291</v>
@@ -11523,9 +11446,9 @@
       <c r="F16" s="83"/>
       <c r="G16" s="78"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C17" s="83" t="s">
         <v>292</v>
@@ -11539,12 +11462,12 @@
       <c r="F17" s="83"/>
       <c r="G17" s="78"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="82" t="s">
+        <v>571</v>
+      </c>
+      <c r="C18" s="83" t="s">
         <v>572</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>573</v>
       </c>
       <c r="D18" s="83" t="s">
         <v>313</v>
@@ -11555,9 +11478,9 @@
       <c r="F18" s="83"/>
       <c r="G18" s="78"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="82" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C19" s="83" t="s">
         <v>294</v>
@@ -11571,9 +11494,9 @@
       <c r="F19" s="83"/>
       <c r="G19" s="78"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C20" s="83" t="s">
         <v>295</v>
@@ -11585,13 +11508,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="83" t="s">
+        <v>580</v>
+      </c>
+      <c r="G20" s="78"/>
+    </row>
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="82" t="s">
         <v>581</v>
-      </c>
-      <c r="G20" s="78"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="82" t="s">
-        <v>582</v>
       </c>
       <c r="C21" s="83" t="s">
         <v>296</v>
@@ -11605,9 +11528,9 @@
       <c r="F21" s="83"/>
       <c r="G21" s="78"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="82" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C22" s="83" t="s">
         <v>297</v>
@@ -11621,9 +11544,9 @@
       <c r="F22" s="83"/>
       <c r="G22" s="78"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="82" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C23" s="83" t="s">
         <v>298</v>
@@ -11637,9 +11560,9 @@
       <c r="F23" s="83"/>
       <c r="G23" s="78"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="82" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C24" s="83" t="s">
         <v>299</v>
@@ -11653,9 +11576,9 @@
       <c r="F24" s="83"/>
       <c r="G24" s="78"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="82" t="s">
-        <v>587</v>
+        <v>712</v>
       </c>
       <c r="C25" s="83" t="s">
         <v>300</v>
@@ -11669,9 +11592,9 @@
       <c r="F25" s="83"/>
       <c r="G25" s="78"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="82" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C26" s="83" t="s">
         <v>301</v>
@@ -11687,13 +11610,13 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="82" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C27" s="83" t="s">
         <v>315</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E27" s="84">
         <v>1</v>
@@ -11703,13 +11626,13 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="82" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C28" s="83" t="s">
         <v>327</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E28" s="84">
         <v>1</v>
@@ -11719,13 +11642,13 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="82" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C29" s="83" t="s">
         <v>328</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E29" s="84">
         <v>1</v>
@@ -11735,13 +11658,13 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="82" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C30" s="83" t="s">
         <v>329</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E30" s="84">
         <v>1</v>
@@ -11751,13 +11674,13 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="82" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C31" s="83" t="s">
         <v>330</v>
       </c>
       <c r="D31" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E31" s="84">
         <v>2</v>
@@ -11767,13 +11690,13 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="82" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C32" s="83" t="s">
         <v>331</v>
       </c>
       <c r="D32" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E32" s="84">
         <v>2</v>
@@ -11783,13 +11706,13 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="82" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C33" s="83" t="s">
         <v>332</v>
       </c>
       <c r="D33" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E33" s="84">
         <v>2</v>
@@ -11799,31 +11722,31 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="82" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C34" s="83" t="s">
         <v>333</v>
       </c>
       <c r="D34" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E34" s="84">
         <v>2</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G34" s="78"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="82" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C35" s="83" t="s">
         <v>334</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E35" s="84">
         <v>2</v>
@@ -11833,13 +11756,13 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="82" t="s">
-        <v>589</v>
+        <v>714</v>
       </c>
       <c r="C36" s="83" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E36" s="84">
         <v>1</v>
@@ -11849,13 +11772,13 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="82" t="s">
-        <v>590</v>
+        <v>715</v>
       </c>
       <c r="C37" s="83" t="s">
         <v>342</v>
       </c>
       <c r="D37" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E37" s="84">
         <v>1</v>
@@ -11865,31 +11788,31 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="82" t="s">
-        <v>591</v>
+        <v>716</v>
       </c>
       <c r="C38" s="83" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E38" s="84">
         <v>1</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G38" s="78"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="82" t="s">
-        <v>592</v>
+        <v>717</v>
       </c>
       <c r="C39" s="83" t="s">
         <v>344</v>
       </c>
       <c r="D39" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E39" s="84">
         <v>1</v>
@@ -11899,13 +11822,13 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="82" t="s">
-        <v>593</v>
+        <v>718</v>
       </c>
       <c r="C40" s="83" t="s">
         <v>345</v>
       </c>
       <c r="D40" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E40" s="84">
         <v>1</v>
@@ -11915,13 +11838,13 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="82" t="s">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="C41" s="83" t="s">
         <v>346</v>
       </c>
       <c r="D41" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E41" s="84">
         <v>1</v>
@@ -11931,13 +11854,13 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="82" t="s">
-        <v>595</v>
+        <v>720</v>
       </c>
       <c r="C42" s="83" t="s">
         <v>347</v>
       </c>
       <c r="D42" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E42" s="84">
         <v>1</v>
@@ -11947,31 +11870,31 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="82" t="s">
-        <v>596</v>
+        <v>721</v>
       </c>
       <c r="C43" s="83" t="s">
         <v>348</v>
       </c>
       <c r="D43" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E43" s="84">
         <v>1</v>
       </c>
       <c r="F43" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G43" s="78"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="82" t="s">
-        <v>597</v>
+        <v>722</v>
       </c>
       <c r="C44" s="83" t="s">
         <v>349</v>
       </c>
       <c r="D44" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E44" s="84">
         <v>1</v>
@@ -11981,13 +11904,13 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="82" t="s">
-        <v>598</v>
+        <v>723</v>
       </c>
       <c r="C45" s="83" t="s">
         <v>350</v>
       </c>
       <c r="D45" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E45" s="84">
         <v>1</v>
@@ -11997,13 +11920,13 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="82" t="s">
-        <v>601</v>
+        <v>843</v>
       </c>
       <c r="C46" s="83" t="s">
         <v>351</v>
       </c>
       <c r="D46" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E46" s="84">
         <v>1</v>
@@ -12013,13 +11936,13 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="82" t="s">
-        <v>602</v>
+        <v>842</v>
       </c>
       <c r="C47" s="83" t="s">
         <v>352</v>
       </c>
       <c r="D47" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E47" s="84">
         <v>1</v>
@@ -12029,13 +11952,13 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="82" t="s">
-        <v>603</v>
+        <v>841</v>
       </c>
       <c r="C48" s="83" t="s">
         <v>353</v>
       </c>
       <c r="D48" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E48" s="84">
         <v>1</v>
@@ -12045,13 +11968,13 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="82" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="C49" s="83" t="s">
-        <v>834</v>
+        <v>700</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E49" s="84">
         <v>1</v>
@@ -12061,13 +11984,13 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="82" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>836</v>
+        <v>701</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E50" s="84">
         <v>1</v>
@@ -12077,31 +12000,31 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="82" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="C51" s="83" t="s">
-        <v>830</v>
+        <v>698</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E51" s="84">
         <v>1</v>
       </c>
       <c r="F51" s="83" t="s">
-        <v>837</v>
+        <v>702</v>
       </c>
       <c r="G51" s="78"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="82" t="s">
-        <v>599</v>
+        <v>847</v>
       </c>
       <c r="C52" s="83" t="s">
         <v>354</v>
       </c>
       <c r="D52" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E52" s="84">
         <v>1</v>
@@ -12111,61 +12034,61 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="82" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="C53" s="83" t="s">
-        <v>832</v>
+        <v>699</v>
       </c>
       <c r="D53" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E53" s="84">
         <v>1</v>
       </c>
       <c r="F53" s="83" t="s">
-        <v>837</v>
+        <v>702</v>
       </c>
       <c r="G53" s="78"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="82" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="C54" s="83" t="s">
-        <v>839</v>
+        <v>703</v>
       </c>
       <c r="D54" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E54" s="84">
         <v>1</v>
       </c>
       <c r="F54" s="83" t="s">
-        <v>840</v>
+        <v>704</v>
       </c>
       <c r="G54" s="78"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="82" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="C55" s="83" t="s">
-        <v>839</v>
+        <v>703</v>
       </c>
       <c r="D55" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E55" s="84">
         <v>1</v>
       </c>
       <c r="F55" s="83" t="s">
-        <v>840</v>
+        <v>704</v>
       </c>
       <c r="G55" s="78"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="82" t="s">
-        <v>825</v>
+        <v>694</v>
       </c>
       <c r="C56" s="83" t="s">
         <v>302</v>
@@ -12181,13 +12104,13 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="82" t="s">
-        <v>600</v>
+        <v>851</v>
       </c>
       <c r="C57" s="83" t="s">
         <v>355</v>
       </c>
       <c r="D57" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E57" s="84">
         <v>1</v>
@@ -12197,13 +12120,13 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="82" t="s">
-        <v>604</v>
+        <v>724</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>356</v>
       </c>
       <c r="D58" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E58" s="84">
         <v>1</v>
@@ -12213,13 +12136,13 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="82" t="s">
-        <v>605</v>
+        <v>725</v>
       </c>
       <c r="C59" s="83" t="s">
         <v>357</v>
       </c>
       <c r="D59" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E59" s="84">
         <v>1</v>
@@ -12229,13 +12152,13 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="82" t="s">
-        <v>606</v>
+        <v>726</v>
       </c>
       <c r="C60" s="83" t="s">
         <v>358</v>
       </c>
       <c r="D60" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E60" s="84">
         <v>1</v>
@@ -12245,13 +12168,13 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="82" t="s">
-        <v>842</v>
+        <v>727</v>
       </c>
       <c r="C61" s="83" t="s">
-        <v>843</v>
+        <v>705</v>
       </c>
       <c r="D61" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E61" s="84">
         <v>1</v>
@@ -12261,43 +12184,43 @@
     </row>
     <row r="62" spans="2:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B62" s="82" t="s">
-        <v>844</v>
+        <v>728</v>
       </c>
       <c r="C62" s="83" t="s">
-        <v>845</v>
+        <v>706</v>
       </c>
       <c r="D62" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E62" s="84">
         <v>1</v>
       </c>
       <c r="F62" s="83" t="s">
-        <v>846</v>
+        <v>707</v>
       </c>
       <c r="G62" s="78"/>
     </row>
     <row r="63" spans="2:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B63" s="82" t="s">
-        <v>847</v>
+        <v>729</v>
       </c>
       <c r="C63" s="83" t="s">
-        <v>848</v>
+        <v>708</v>
       </c>
       <c r="D63" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E63" s="84">
         <v>1</v>
       </c>
       <c r="F63" s="83" t="s">
-        <v>846</v>
+        <v>707</v>
       </c>
       <c r="G63" s="78"/>
     </row>
-    <row r="64" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="82" t="s">
-        <v>826</v>
+        <v>695</v>
       </c>
       <c r="C64" s="83" t="s">
         <v>303</v>
@@ -12311,9 +12234,9 @@
       <c r="F64" s="83"/>
       <c r="G64" s="78"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="82" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="C65" s="83" t="s">
         <v>304</v>
@@ -12329,13 +12252,13 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="82" t="s">
-        <v>608</v>
+        <v>730</v>
       </c>
       <c r="C66" s="83" t="s">
         <v>359</v>
       </c>
       <c r="D66" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E66" s="84">
         <v>1</v>
@@ -12345,13 +12268,13 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="82" t="s">
-        <v>609</v>
+        <v>731</v>
       </c>
       <c r="C67" s="83" t="s">
         <v>360</v>
       </c>
       <c r="D67" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E67" s="84">
         <v>1</v>
@@ -12361,13 +12284,13 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="82" t="s">
-        <v>610</v>
+        <v>732</v>
       </c>
       <c r="C68" s="83" t="s">
         <v>361</v>
       </c>
       <c r="D68" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E68" s="84">
         <v>1</v>
@@ -12377,13 +12300,13 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="82" t="s">
-        <v>611</v>
+        <v>733</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>362</v>
       </c>
       <c r="D69" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E69" s="84">
         <v>1</v>
@@ -12393,13 +12316,13 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="82" t="s">
-        <v>612</v>
+        <v>734</v>
       </c>
       <c r="C70" s="83" t="s">
         <v>363</v>
       </c>
       <c r="D70" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E70" s="84">
         <v>1</v>
@@ -12409,13 +12332,13 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="82" t="s">
-        <v>613</v>
+        <v>735</v>
       </c>
       <c r="C71" s="83" t="s">
         <v>364</v>
       </c>
       <c r="D71" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E71" s="84">
         <v>1</v>
@@ -12425,13 +12348,13 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="82" t="s">
-        <v>614</v>
+        <v>838</v>
       </c>
       <c r="C72" s="83" t="s">
         <v>365</v>
       </c>
       <c r="D72" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E72" s="84">
         <v>1</v>
@@ -12441,13 +12364,13 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="82" t="s">
-        <v>615</v>
+        <v>839</v>
       </c>
       <c r="C73" s="83" t="s">
         <v>366</v>
       </c>
       <c r="D73" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E73" s="84">
         <v>1</v>
@@ -12457,13 +12380,13 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="82" t="s">
-        <v>616</v>
+        <v>840</v>
       </c>
       <c r="C74" s="83" t="s">
         <v>367</v>
       </c>
       <c r="D74" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E74" s="84">
         <v>1</v>
@@ -12473,13 +12396,13 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="82" t="s">
-        <v>618</v>
+        <v>736</v>
       </c>
       <c r="C75" s="83" t="s">
         <v>368</v>
       </c>
       <c r="D75" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E75" s="84">
         <v>1</v>
@@ -12489,13 +12412,13 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="82" t="s">
-        <v>617</v>
+        <v>737</v>
       </c>
       <c r="C76" s="83" t="s">
         <v>369</v>
       </c>
       <c r="D76" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E76" s="84">
         <v>1</v>
@@ -12503,9 +12426,9 @@
       <c r="F76" s="83"/>
       <c r="G76" s="78"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="82" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="C77" s="83" t="s">
         <v>305</v>
@@ -12517,13 +12440,13 @@
         <v>1</v>
       </c>
       <c r="F77" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G77" s="78"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="82" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="C78" s="83" t="s">
         <v>306</v>
@@ -12537,9 +12460,9 @@
       <c r="F78" s="83"/>
       <c r="G78" s="78"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="82" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="C79" s="83" t="s">
         <v>307</v>
@@ -12551,13 +12474,13 @@
         <v>0</v>
       </c>
       <c r="F79" s="83" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G79" s="78"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="82" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="C80" s="83" t="s">
         <v>308</v>
@@ -12569,13 +12492,13 @@
         <v>0</v>
       </c>
       <c r="F80" s="83" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="G80" s="78"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="82" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="C81" s="83" t="s">
         <v>309</v>
@@ -12591,13 +12514,13 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="82" t="s">
-        <v>625</v>
+        <v>738</v>
       </c>
       <c r="C82" s="83" t="s">
         <v>370</v>
       </c>
       <c r="D82" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E82" s="84">
         <v>2</v>
@@ -12607,13 +12530,13 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="82" t="s">
-        <v>626</v>
+        <v>739</v>
       </c>
       <c r="C83" s="83" t="s">
         <v>371</v>
       </c>
       <c r="D83" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E83" s="84">
         <v>2</v>
@@ -12623,31 +12546,31 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="82" t="s">
-        <v>627</v>
+        <v>836</v>
       </c>
       <c r="C84" s="83" t="s">
         <v>372</v>
       </c>
       <c r="D84" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E84" s="84">
         <v>2</v>
       </c>
       <c r="F84" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G84" s="78"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="82" t="s">
-        <v>629</v>
+        <v>837</v>
       </c>
       <c r="C85" s="83" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="D85" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E85" s="84">
         <v>2</v>
@@ -12657,13 +12580,13 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="82" t="s">
-        <v>630</v>
+        <v>740</v>
       </c>
       <c r="C86" s="83" t="s">
         <v>373</v>
       </c>
       <c r="D86" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E86" s="84">
         <v>1</v>
@@ -12673,13 +12596,13 @@
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="82" t="s">
-        <v>631</v>
+        <v>741</v>
       </c>
       <c r="C87" s="83" t="s">
         <v>374</v>
       </c>
       <c r="D87" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E87" s="84">
         <v>1</v>
@@ -12689,13 +12612,13 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="82" t="s">
-        <v>632</v>
+        <v>829</v>
       </c>
       <c r="C88" s="83" t="s">
         <v>375</v>
       </c>
       <c r="D88" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E88" s="84">
         <v>1</v>
@@ -12705,13 +12628,13 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="82" t="s">
-        <v>633</v>
+        <v>830</v>
       </c>
       <c r="C89" s="83" t="s">
         <v>376</v>
       </c>
       <c r="D89" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E89" s="84">
         <v>1</v>
@@ -12721,13 +12644,13 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="82" t="s">
-        <v>634</v>
+        <v>831</v>
       </c>
       <c r="C90" s="83" t="s">
         <v>377</v>
       </c>
       <c r="D90" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E90" s="84">
         <v>1</v>
@@ -12737,13 +12660,13 @@
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="82" t="s">
-        <v>635</v>
+        <v>832</v>
       </c>
       <c r="C91" s="83" t="s">
         <v>378</v>
       </c>
       <c r="D91" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E91" s="84">
         <v>1</v>
@@ -12753,13 +12676,13 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="82" t="s">
-        <v>636</v>
+        <v>833</v>
       </c>
       <c r="C92" s="83" t="s">
         <v>379</v>
       </c>
       <c r="D92" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E92" s="84">
         <v>1</v>
@@ -12769,13 +12692,13 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="82" t="s">
-        <v>637</v>
+        <v>834</v>
       </c>
       <c r="C93" s="83" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="D93" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E93" s="84">
         <v>1</v>
@@ -12785,13 +12708,13 @@
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="82" t="s">
-        <v>638</v>
+        <v>835</v>
       </c>
       <c r="C94" s="83" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="D94" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E94" s="84">
         <v>1</v>
@@ -12801,13 +12724,13 @@
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="82" t="s">
-        <v>641</v>
+        <v>821</v>
       </c>
       <c r="C95" s="83" t="s">
         <v>380</v>
       </c>
       <c r="D95" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E95" s="84">
         <v>1</v>
@@ -12817,13 +12740,13 @@
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="82" t="s">
-        <v>642</v>
+        <v>822</v>
       </c>
       <c r="C96" s="83" t="s">
         <v>381</v>
       </c>
       <c r="D96" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E96" s="84">
         <v>1</v>
@@ -12833,13 +12756,13 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="82" t="s">
-        <v>644</v>
+        <v>823</v>
       </c>
       <c r="C97" s="83" t="s">
-        <v>643</v>
+        <v>597</v>
       </c>
       <c r="D97" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E97" s="84">
         <v>1</v>
@@ -12849,31 +12772,31 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="82" t="s">
-        <v>645</v>
+        <v>824</v>
       </c>
       <c r="C98" s="83" t="s">
-        <v>646</v>
+        <v>598</v>
       </c>
       <c r="D98" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E98" s="84">
         <v>1</v>
       </c>
       <c r="F98" s="83" t="s">
-        <v>647</v>
+        <v>599</v>
       </c>
       <c r="G98" s="78"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="82" t="s">
-        <v>648</v>
+        <v>825</v>
       </c>
       <c r="C99" s="83" t="s">
-        <v>649</v>
+        <v>600</v>
       </c>
       <c r="D99" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E99" s="84">
         <v>1</v>
@@ -12883,13 +12806,13 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="82" t="s">
-        <v>651</v>
+        <v>826</v>
       </c>
       <c r="C100" s="83" t="s">
-        <v>650</v>
+        <v>601</v>
       </c>
       <c r="D100" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E100" s="84">
         <v>1</v>
@@ -12899,13 +12822,13 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="82" t="s">
-        <v>652</v>
+        <v>827</v>
       </c>
       <c r="C101" s="83" t="s">
-        <v>654</v>
+        <v>602</v>
       </c>
       <c r="D101" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E101" s="84">
         <v>1</v>
@@ -12915,13 +12838,13 @@
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="82" t="s">
-        <v>653</v>
+        <v>828</v>
       </c>
       <c r="C102" s="83" t="s">
-        <v>655</v>
+        <v>603</v>
       </c>
       <c r="D102" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E102" s="84">
         <v>1</v>
@@ -12931,31 +12854,31 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="82" t="s">
-        <v>656</v>
+        <v>604</v>
       </c>
       <c r="C103" s="83" t="s">
         <v>382</v>
       </c>
       <c r="D103" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E103" s="84">
         <v>1</v>
       </c>
       <c r="F103" s="84" t="s">
-        <v>849</v>
+        <v>709</v>
       </c>
       <c r="G103" s="78"/>
     </row>
-    <row r="104" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="82" t="s">
-        <v>658</v>
+        <v>817</v>
       </c>
       <c r="C104" s="83" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="D104" s="83" t="s">
-        <v>313</v>
+        <v>713</v>
       </c>
       <c r="E104" s="84">
         <v>1</v>
@@ -12963,15 +12886,15 @@
       <c r="F104" s="83"/>
       <c r="G104" s="78"/>
     </row>
-    <row r="105" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="82" t="s">
-        <v>659</v>
+        <v>818</v>
       </c>
       <c r="C105" s="83" t="s">
-        <v>662</v>
+        <v>606</v>
       </c>
       <c r="D105" s="83" t="s">
-        <v>313</v>
+        <v>713</v>
       </c>
       <c r="E105" s="84">
         <v>1</v>
@@ -12979,15 +12902,15 @@
       <c r="F105" s="83"/>
       <c r="G105" s="78"/>
     </row>
-    <row r="106" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="82" t="s">
-        <v>660</v>
+        <v>819</v>
       </c>
       <c r="C106" s="83" t="s">
-        <v>663</v>
+        <v>607</v>
       </c>
       <c r="D106" s="83" t="s">
-        <v>313</v>
+        <v>713</v>
       </c>
       <c r="E106" s="84">
         <v>1</v>
@@ -12995,15 +12918,15 @@
       <c r="F106" s="83"/>
       <c r="G106" s="78"/>
     </row>
-    <row r="107" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="82" t="s">
-        <v>661</v>
+        <v>820</v>
       </c>
       <c r="C107" s="83" t="s">
-        <v>664</v>
+        <v>608</v>
       </c>
       <c r="D107" s="83" t="s">
-        <v>313</v>
+        <v>713</v>
       </c>
       <c r="E107" s="84">
         <v>1</v>
@@ -13013,13 +12936,13 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="82" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="C108" s="83" t="s">
         <v>390</v>
       </c>
       <c r="D108" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E108" s="84">
         <v>2</v>
@@ -13029,13 +12952,13 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="82" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="C109" s="83" t="s">
         <v>391</v>
       </c>
       <c r="D109" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E109" s="84">
         <v>2</v>
@@ -13045,13 +12968,13 @@
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="82" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="C110" s="83" t="s">
         <v>392</v>
       </c>
       <c r="D110" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E110" s="84">
         <v>2</v>
@@ -13061,13 +12984,13 @@
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="82" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="C111" s="83" t="s">
         <v>393</v>
       </c>
       <c r="D111" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E111" s="84">
         <v>2</v>
@@ -13077,13 +13000,13 @@
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="82" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="C112" s="83" t="s">
         <v>394</v>
       </c>
       <c r="D112" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E112" s="84">
         <v>2</v>
@@ -13093,13 +13016,13 @@
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="82" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="C113" s="83" t="s">
         <v>395</v>
       </c>
       <c r="D113" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E113" s="84">
         <v>2</v>
@@ -13109,13 +13032,13 @@
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="82" t="s">
-        <v>673</v>
+        <v>816</v>
       </c>
       <c r="C114" s="83" t="s">
         <v>500</v>
       </c>
       <c r="D114" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E114" s="84">
         <v>1</v>
@@ -13125,15 +13048,15 @@
       </c>
       <c r="G114" s="78"/>
     </row>
-    <row r="115" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="82" t="s">
-        <v>674</v>
+        <v>748</v>
       </c>
       <c r="C115" s="83" t="s">
-        <v>671</v>
+        <v>609</v>
       </c>
       <c r="D115" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E115" s="84">
         <v>1</v>
@@ -13141,15 +13064,15 @@
       <c r="F115" s="83"/>
       <c r="G115" s="78"/>
     </row>
-    <row r="116" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="82" t="s">
-        <v>675</v>
+        <v>749</v>
       </c>
       <c r="C116" s="83" t="s">
-        <v>672</v>
+        <v>610</v>
       </c>
       <c r="D116" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E116" s="84">
         <v>1</v>
@@ -13157,9 +13080,9 @@
       <c r="F116" s="83"/>
       <c r="G116" s="78"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="82" t="s">
-        <v>676</v>
+        <v>611</v>
       </c>
       <c r="C117" s="83" t="s">
         <v>310</v>
@@ -13173,9 +13096,9 @@
       <c r="F117" s="83"/>
       <c r="G117" s="78"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="82" t="s">
-        <v>677</v>
+        <v>612</v>
       </c>
       <c r="C118" s="83" t="s">
         <v>311</v>
@@ -13187,19 +13110,19 @@
         <v>1</v>
       </c>
       <c r="F118" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G118" s="78"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="82" t="s">
-        <v>678</v>
+        <v>613</v>
       </c>
       <c r="C119" s="83" t="s">
         <v>396</v>
       </c>
       <c r="D119" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E119" s="84">
         <v>1</v>
@@ -13211,13 +13134,13 @@
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="82" t="s">
-        <v>679</v>
+        <v>614</v>
       </c>
       <c r="C120" s="83" t="s">
         <v>397</v>
       </c>
       <c r="D120" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E120" s="84">
         <v>1</v>
@@ -13229,13 +13152,13 @@
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="82" t="s">
-        <v>680</v>
+        <v>615</v>
       </c>
       <c r="C121" s="83" t="s">
         <v>398</v>
       </c>
       <c r="D121" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E121" s="84">
         <v>1</v>
@@ -13245,13 +13168,13 @@
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="82" t="s">
-        <v>681</v>
+        <v>616</v>
       </c>
       <c r="C122" s="83" t="s">
         <v>399</v>
       </c>
       <c r="D122" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E122" s="84">
         <v>1</v>
@@ -13261,13 +13184,13 @@
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="82" t="s">
-        <v>682</v>
+        <v>617</v>
       </c>
       <c r="C123" s="83" t="s">
         <v>400</v>
       </c>
       <c r="D123" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E123" s="84">
         <v>1</v>
@@ -13277,13 +13200,13 @@
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="82" t="s">
-        <v>683</v>
+        <v>618</v>
       </c>
       <c r="C124" s="83" t="s">
         <v>401</v>
       </c>
       <c r="D124" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E124" s="84">
         <v>1</v>
@@ -13293,13 +13216,13 @@
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="82" t="s">
-        <v>684</v>
+        <v>619</v>
       </c>
       <c r="C125" s="83" t="s">
         <v>402</v>
       </c>
       <c r="D125" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E125" s="84">
         <v>1</v>
@@ -13309,13 +13232,13 @@
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="82" t="s">
-        <v>685</v>
+        <v>750</v>
       </c>
       <c r="C126" s="83" t="s">
         <v>403</v>
       </c>
       <c r="D126" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E126" s="84">
         <v>2</v>
@@ -13325,13 +13248,13 @@
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="82" t="s">
-        <v>686</v>
+        <v>751</v>
       </c>
       <c r="C127" s="83" t="s">
         <v>404</v>
       </c>
       <c r="D127" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E127" s="84">
         <v>2</v>
@@ -13341,13 +13264,13 @@
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="82" t="s">
-        <v>687</v>
+        <v>752</v>
       </c>
       <c r="C128" s="83" t="s">
         <v>405</v>
       </c>
       <c r="D128" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E128" s="84">
         <v>2</v>
@@ -13357,13 +13280,13 @@
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="82" t="s">
-        <v>688</v>
+        <v>753</v>
       </c>
       <c r="C129" s="83" t="s">
         <v>406</v>
       </c>
       <c r="D129" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E129" s="84">
         <v>2</v>
@@ -13373,13 +13296,13 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="82" t="s">
-        <v>689</v>
+        <v>754</v>
       </c>
       <c r="C130" s="83" t="s">
         <v>407</v>
       </c>
       <c r="D130" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E130" s="84">
         <v>2</v>
@@ -13387,15 +13310,15 @@
       <c r="F130" s="83"/>
       <c r="G130" s="78"/>
     </row>
-    <row r="131" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="82" t="s">
-        <v>690</v>
+        <v>755</v>
       </c>
       <c r="C131" s="83" t="s">
         <v>408</v>
       </c>
       <c r="D131" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E131" s="84">
         <v>2</v>
@@ -13405,13 +13328,13 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="82" t="s">
-        <v>691</v>
+        <v>756</v>
       </c>
       <c r="C132" s="83" t="s">
         <v>409</v>
       </c>
       <c r="D132" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E132" s="84">
         <v>2</v>
@@ -13421,13 +13344,13 @@
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="82" t="s">
-        <v>692</v>
+        <v>757</v>
       </c>
       <c r="C133" s="83" t="s">
         <v>410</v>
       </c>
       <c r="D133" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E133" s="84">
         <v>2</v>
@@ -13437,13 +13360,13 @@
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="82" t="s">
-        <v>693</v>
+        <v>758</v>
       </c>
       <c r="C134" s="83" t="s">
         <v>411</v>
       </c>
       <c r="D134" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E134" s="84">
         <v>2</v>
@@ -13453,13 +13376,13 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="82" t="s">
-        <v>694</v>
+        <v>620</v>
       </c>
       <c r="C135" s="83" t="s">
         <v>412</v>
       </c>
       <c r="D135" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E135" s="84">
         <v>1</v>
@@ -13469,13 +13392,13 @@
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="82" t="s">
-        <v>695</v>
+        <v>621</v>
       </c>
       <c r="C136" s="83" t="s">
         <v>413</v>
       </c>
       <c r="D136" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E136" s="84">
         <v>1</v>
@@ -13485,13 +13408,13 @@
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="82" t="s">
-        <v>696</v>
+        <v>622</v>
       </c>
       <c r="C137" s="83" t="s">
         <v>414</v>
       </c>
       <c r="D137" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E137" s="84">
         <v>1</v>
@@ -13501,13 +13424,13 @@
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="82" t="s">
-        <v>697</v>
+        <v>623</v>
       </c>
       <c r="C138" s="83" t="s">
         <v>415</v>
       </c>
       <c r="D138" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E138" s="84">
         <v>1</v>
@@ -13517,13 +13440,13 @@
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="82" t="s">
-        <v>698</v>
+        <v>624</v>
       </c>
       <c r="C139" s="83" t="s">
         <v>416</v>
       </c>
       <c r="D139" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E139" s="84">
         <v>1</v>
@@ -13533,13 +13456,13 @@
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="82" t="s">
-        <v>699</v>
+        <v>625</v>
       </c>
       <c r="C140" s="83" t="s">
         <v>417</v>
       </c>
       <c r="D140" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E140" s="84">
         <v>1</v>
@@ -13549,13 +13472,13 @@
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="82" t="s">
-        <v>700</v>
+        <v>626</v>
       </c>
       <c r="C141" s="83" t="s">
         <v>418</v>
       </c>
       <c r="D141" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E141" s="84">
         <v>1</v>
@@ -13565,13 +13488,13 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="82" t="s">
-        <v>701</v>
+        <v>627</v>
       </c>
       <c r="C142" s="83" t="s">
         <v>419</v>
       </c>
       <c r="D142" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E142" s="84">
         <v>1</v>
@@ -13581,13 +13504,13 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="82" t="s">
-        <v>702</v>
+        <v>628</v>
       </c>
       <c r="C143" s="83" t="s">
         <v>420</v>
       </c>
       <c r="D143" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E143" s="84">
         <v>1</v>
@@ -13597,13 +13520,13 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="82" t="s">
-        <v>703</v>
+        <v>629</v>
       </c>
       <c r="C144" s="83" t="s">
         <v>421</v>
       </c>
       <c r="D144" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E144" s="84">
         <v>1</v>
@@ -13613,13 +13536,13 @@
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="82" t="s">
-        <v>704</v>
+        <v>630</v>
       </c>
       <c r="C145" s="83" t="s">
         <v>422</v>
       </c>
       <c r="D145" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E145" s="84">
         <v>1</v>
@@ -13629,31 +13552,31 @@
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="82" t="s">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="C146" s="83" t="s">
-        <v>707</v>
+        <v>633</v>
       </c>
       <c r="D146" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E146" s="84">
         <v>1</v>
       </c>
       <c r="F146" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G146" s="78"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="82" t="s">
-        <v>706</v>
+        <v>632</v>
       </c>
       <c r="C147" s="83" t="s">
         <v>423</v>
       </c>
       <c r="D147" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E147" s="84">
         <v>1</v>
@@ -13663,31 +13586,31 @@
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="82" t="s">
-        <v>708</v>
+        <v>634</v>
       </c>
       <c r="C148" s="83" t="s">
         <v>424</v>
       </c>
       <c r="D148" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E148" s="84">
         <v>1</v>
       </c>
       <c r="F148" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G148" s="78"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="82" t="s">
-        <v>709</v>
+        <v>635</v>
       </c>
       <c r="C149" s="83" t="s">
         <v>425</v>
       </c>
       <c r="D149" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E149" s="84">
         <v>1</v>
@@ -13697,13 +13620,13 @@
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="82" t="s">
-        <v>710</v>
+        <v>636</v>
       </c>
       <c r="C150" s="83" t="s">
         <v>426</v>
       </c>
       <c r="D150" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E150" s="84">
         <v>1</v>
@@ -13713,31 +13636,31 @@
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="82" t="s">
-        <v>711</v>
+        <v>637</v>
       </c>
       <c r="C151" s="83" t="s">
         <v>427</v>
       </c>
       <c r="D151" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E151" s="84">
         <v>1</v>
       </c>
       <c r="F151" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G151" s="78"/>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="82" t="s">
-        <v>712</v>
+        <v>638</v>
       </c>
       <c r="C152" s="83" t="s">
         <v>428</v>
       </c>
       <c r="D152" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E152" s="84">
         <v>1</v>
@@ -13747,13 +13670,13 @@
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" s="82" t="s">
-        <v>713</v>
+        <v>639</v>
       </c>
       <c r="C153" s="83" t="s">
         <v>429</v>
       </c>
       <c r="D153" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E153" s="84">
         <v>1</v>
@@ -13763,13 +13686,13 @@
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="82" t="s">
-        <v>714</v>
+        <v>640</v>
       </c>
       <c r="C154" s="83" t="s">
         <v>430</v>
       </c>
       <c r="D154" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E154" s="84">
         <v>1</v>
@@ -13779,31 +13702,31 @@
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="82" t="s">
-        <v>716</v>
+        <v>642</v>
       </c>
       <c r="C155" s="83" t="s">
-        <v>717</v>
+        <v>643</v>
       </c>
       <c r="D155" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E155" s="84">
         <v>1</v>
       </c>
       <c r="F155" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G155" s="78"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="82" t="s">
-        <v>715</v>
+        <v>641</v>
       </c>
       <c r="C156" s="83" t="s">
         <v>431</v>
       </c>
       <c r="D156" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E156" s="84">
         <v>1</v>
@@ -13811,15 +13734,15 @@
       <c r="F156" s="83"/>
       <c r="G156" s="78"/>
     </row>
-    <row r="157" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="82" t="s">
-        <v>719</v>
+        <v>759</v>
       </c>
       <c r="C157" s="83" t="s">
         <v>432</v>
       </c>
       <c r="D157" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E157" s="84">
         <v>1</v>
@@ -13831,31 +13754,31 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="82" t="s">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="C158" s="83" t="s">
-        <v>718</v>
+        <v>644</v>
       </c>
       <c r="D158" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E158" s="84">
         <v>1</v>
       </c>
       <c r="F158" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G158" s="78"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="82" t="s">
-        <v>721</v>
+        <v>761</v>
       </c>
       <c r="C159" s="83" t="s">
         <v>433</v>
       </c>
       <c r="D159" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E159" s="84">
         <v>1</v>
@@ -13863,15 +13786,15 @@
       <c r="F159" s="83"/>
       <c r="G159" s="78"/>
     </row>
-    <row r="160" spans="2:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="82" t="s">
-        <v>723</v>
+        <v>762</v>
       </c>
       <c r="C160" s="83" t="s">
         <v>434</v>
       </c>
       <c r="D160" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E160" s="84">
         <v>1</v>
@@ -13883,13 +13806,13 @@
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="82" t="s">
-        <v>722</v>
+        <v>763</v>
       </c>
       <c r="C161" s="83" t="s">
         <v>435</v>
       </c>
       <c r="D161" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E161" s="84">
         <v>1</v>
@@ -13897,15 +13820,15 @@
       <c r="F161" s="83"/>
       <c r="G161" s="78"/>
     </row>
-    <row r="162" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162" s="82" t="s">
-        <v>726</v>
+        <v>764</v>
       </c>
       <c r="C162" s="83" t="s">
         <v>436</v>
       </c>
       <c r="D162" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E162" s="84">
         <v>1</v>
@@ -13917,13 +13840,13 @@
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="82" t="s">
-        <v>727</v>
+        <v>765</v>
       </c>
       <c r="C163" s="83" t="s">
-        <v>724</v>
+        <v>645</v>
       </c>
       <c r="D163" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E163" s="84">
         <v>1</v>
@@ -13933,13 +13856,13 @@
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="82" t="s">
-        <v>728</v>
+        <v>766</v>
       </c>
       <c r="C164" s="83" t="s">
-        <v>725</v>
+        <v>646</v>
       </c>
       <c r="D164" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E164" s="84">
         <v>1</v>
@@ -13947,15 +13870,15 @@
       <c r="F164" s="83"/>
       <c r="G164" s="78"/>
     </row>
-    <row r="165" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="82" t="s">
-        <v>729</v>
+        <v>813</v>
       </c>
       <c r="C165" s="83" t="s">
         <v>437</v>
       </c>
       <c r="D165" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E165" s="84">
         <v>1</v>
@@ -13967,13 +13890,13 @@
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="82" t="s">
-        <v>730</v>
+        <v>814</v>
       </c>
       <c r="C166" s="83" t="s">
         <v>438</v>
       </c>
       <c r="D166" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E166" s="84">
         <v>1</v>
@@ -13981,15 +13904,15 @@
       <c r="F166" s="83"/>
       <c r="G166" s="78"/>
     </row>
-    <row r="167" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="82" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="C167" s="83" t="s">
         <v>439</v>
       </c>
       <c r="D167" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E167" s="84">
         <v>1</v>
@@ -14001,31 +13924,31 @@
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="82" t="s">
-        <v>732</v>
+        <v>768</v>
       </c>
       <c r="C168" s="83" t="s">
         <v>440</v>
       </c>
       <c r="D168" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E168" s="84">
         <v>1</v>
       </c>
       <c r="F168" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G168" s="78"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="82" t="s">
-        <v>731</v>
+        <v>769</v>
       </c>
       <c r="C169" s="83" t="s">
         <v>441</v>
       </c>
       <c r="D169" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E169" s="84">
         <v>1</v>
@@ -14033,15 +13956,15 @@
       <c r="F169" s="83"/>
       <c r="G169" s="78"/>
     </row>
-    <row r="170" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="82" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
       <c r="C170" s="83" t="s">
         <v>442</v>
       </c>
       <c r="D170" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E170" s="84">
         <v>1</v>
@@ -14053,31 +13976,31 @@
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="82" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="C171" s="83" t="s">
-        <v>734</v>
+        <v>647</v>
       </c>
       <c r="D171" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E171" s="84">
         <v>1</v>
       </c>
       <c r="F171" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G171" s="78"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="82" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="C172" s="83" t="s">
         <v>443</v>
       </c>
       <c r="D172" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E172" s="84">
         <v>1</v>
@@ -14087,31 +14010,31 @@
     </row>
     <row r="173" spans="2:7" ht="27" x14ac:dyDescent="0.3">
       <c r="B173" s="82" t="s">
-        <v>738</v>
+        <v>773</v>
       </c>
       <c r="C173" s="83" t="s">
         <v>316</v>
       </c>
       <c r="D173" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E173" s="84">
         <v>1</v>
       </c>
       <c r="F173" s="83" t="s">
-        <v>739</v>
+        <v>648</v>
       </c>
       <c r="G173" s="78"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B174" s="82" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="C174" s="83" t="s">
         <v>317</v>
       </c>
       <c r="D174" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E174" s="84">
         <v>1</v>
@@ -14121,13 +14044,13 @@
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="82" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="C175" s="83" t="s">
         <v>444</v>
       </c>
       <c r="D175" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E175" s="84">
         <v>1</v>
@@ -14137,13 +14060,13 @@
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="82" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="C176" s="83" t="s">
         <v>445</v>
       </c>
       <c r="D176" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E176" s="84">
         <v>1</v>
@@ -14153,13 +14076,13 @@
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="82" t="s">
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="C177" s="83" t="s">
         <v>446</v>
       </c>
       <c r="D177" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E177" s="84">
         <v>1</v>
@@ -14169,13 +14092,13 @@
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="82" t="s">
-        <v>744</v>
+        <v>815</v>
       </c>
       <c r="C178" s="83" t="s">
         <v>538</v>
       </c>
       <c r="D178" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E178" s="84">
         <v>1</v>
@@ -14185,13 +14108,13 @@
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="82" t="s">
-        <v>745</v>
+        <v>778</v>
       </c>
       <c r="C179" s="83" t="s">
         <v>447</v>
       </c>
       <c r="D179" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E179" s="84">
         <v>1</v>
@@ -14201,31 +14124,31 @@
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="82" t="s">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="C180" s="83" t="s">
         <v>448</v>
       </c>
       <c r="D180" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E180" s="84">
         <v>1</v>
       </c>
       <c r="F180" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G180" s="78"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="82" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="C181" s="83" t="s">
         <v>449</v>
       </c>
       <c r="D181" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E181" s="84">
         <v>1</v>
@@ -14235,13 +14158,13 @@
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="82" t="s">
-        <v>748</v>
+        <v>649</v>
       </c>
       <c r="C182" s="83" t="s">
         <v>450</v>
       </c>
       <c r="D182" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E182" s="84">
         <v>1</v>
@@ -14251,31 +14174,31 @@
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="82" t="s">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="C183" s="83" t="s">
         <v>451</v>
       </c>
       <c r="D183" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E183" s="84">
         <v>1</v>
       </c>
       <c r="F183" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G183" s="78"/>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="82" t="s">
-        <v>750</v>
+        <v>651</v>
       </c>
       <c r="C184" s="83" t="s">
         <v>452</v>
       </c>
       <c r="D184" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E184" s="84">
         <v>1</v>
@@ -14285,49 +14208,49 @@
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="82" t="s">
-        <v>751</v>
+        <v>652</v>
       </c>
       <c r="C185" s="83" t="s">
         <v>453</v>
       </c>
       <c r="D185" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E185" s="84">
         <v>1</v>
       </c>
       <c r="F185" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G185" s="78"/>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="82" t="s">
-        <v>752</v>
+        <v>653</v>
       </c>
       <c r="C186" s="83" t="s">
         <v>454</v>
       </c>
       <c r="D186" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E186" s="84">
         <v>1</v>
       </c>
       <c r="F186" s="83" t="s">
-        <v>759</v>
+        <v>660</v>
       </c>
       <c r="G186" s="78"/>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="82" t="s">
-        <v>753</v>
+        <v>654</v>
       </c>
       <c r="C187" s="83" t="s">
         <v>455</v>
       </c>
       <c r="D187" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E187" s="84">
         <v>1</v>
@@ -14337,13 +14260,13 @@
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="82" t="s">
-        <v>754</v>
+        <v>655</v>
       </c>
       <c r="C188" s="83" t="s">
         <v>456</v>
       </c>
       <c r="D188" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E188" s="84">
         <v>1</v>
@@ -14355,13 +14278,13 @@
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="82" t="s">
-        <v>755</v>
+        <v>656</v>
       </c>
       <c r="C189" s="83" t="s">
         <v>457</v>
       </c>
       <c r="D189" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E189" s="84">
         <v>1</v>
@@ -14371,13 +14294,13 @@
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="82" t="s">
-        <v>756</v>
+        <v>657</v>
       </c>
       <c r="C190" s="83" t="s">
         <v>458</v>
       </c>
       <c r="D190" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E190" s="84">
         <v>1</v>
@@ -14387,13 +14310,13 @@
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="82" t="s">
-        <v>757</v>
+        <v>658</v>
       </c>
       <c r="C191" s="83" t="s">
         <v>459</v>
       </c>
       <c r="D191" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E191" s="84">
         <v>1</v>
@@ -14403,13 +14326,13 @@
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="82" t="s">
-        <v>758</v>
+        <v>659</v>
       </c>
       <c r="C192" s="83" t="s">
         <v>539</v>
       </c>
       <c r="D192" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E192" s="84">
         <v>1</v>
@@ -14417,15 +14340,15 @@
       <c r="F192" s="83"/>
       <c r="G192" s="78"/>
     </row>
-    <row r="193" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="82" t="s">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="C193" s="83" t="s">
         <v>460</v>
       </c>
       <c r="D193" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E193" s="84">
         <v>1</v>
@@ -14437,13 +14360,13 @@
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="82" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="C194" s="83" t="s">
         <v>461</v>
       </c>
       <c r="D194" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E194" s="84">
         <v>1</v>
@@ -14453,13 +14376,13 @@
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="82" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="C195" s="83" t="s">
         <v>462</v>
       </c>
       <c r="D195" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E195" s="84">
         <v>1</v>
@@ -14471,13 +14394,13 @@
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="82" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="C196" s="83" t="s">
         <v>463</v>
       </c>
       <c r="D196" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E196" s="84">
         <v>1</v>
@@ -14487,13 +14410,13 @@
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="82" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="C197" s="83" t="s">
         <v>464</v>
       </c>
       <c r="D197" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E197" s="84">
         <v>1</v>
@@ -14503,13 +14426,13 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="82" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="C198" s="83" t="s">
         <v>465</v>
       </c>
       <c r="D198" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E198" s="84">
         <v>1</v>
@@ -14519,13 +14442,13 @@
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="82" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="C199" s="83" t="s">
         <v>466</v>
       </c>
       <c r="D199" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E199" s="84">
         <v>1</v>
@@ -14535,13 +14458,13 @@
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B200" s="82" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="C200" s="83" t="s">
         <v>467</v>
       </c>
       <c r="D200" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E200" s="84">
         <v>1</v>
@@ -14551,13 +14474,13 @@
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B201" s="82" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="C201" s="83" t="s">
         <v>468</v>
       </c>
       <c r="D201" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E201" s="84">
         <v>1</v>
@@ -14569,31 +14492,31 @@
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B202" s="82" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="C202" s="83" t="s">
-        <v>771</v>
+        <v>661</v>
       </c>
       <c r="D202" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E202" s="84">
         <v>1</v>
       </c>
       <c r="F202" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G202" s="78"/>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B203" s="82" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="C203" s="83" t="s">
-        <v>774</v>
+        <v>663</v>
       </c>
       <c r="D203" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E203" s="84">
         <v>1</v>
@@ -14603,31 +14526,31 @@
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B204" s="82" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="C204" s="83" t="s">
-        <v>773</v>
+        <v>662</v>
       </c>
       <c r="D204" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E204" s="84">
         <v>1</v>
       </c>
       <c r="F204" s="83" t="s">
-        <v>775</v>
+        <v>664</v>
       </c>
       <c r="G204" s="78"/>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B205" s="82" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="C205" s="83" t="s">
         <v>469</v>
       </c>
       <c r="D205" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E205" s="84">
         <v>1</v>
@@ -14637,13 +14560,13 @@
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B206" s="82" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="C206" s="83" t="s">
-        <v>779</v>
+        <v>665</v>
       </c>
       <c r="D206" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E206" s="84">
         <v>1</v>
@@ -14653,49 +14576,49 @@
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B207" s="82" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="C207" s="83" t="s">
-        <v>780</v>
+        <v>666</v>
       </c>
       <c r="D207" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E207" s="84">
         <v>1</v>
       </c>
       <c r="F207" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G207" s="78"/>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B208" s="82" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="C208" s="83" t="s">
-        <v>782</v>
+        <v>667</v>
       </c>
       <c r="D208" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E208" s="84">
         <v>1</v>
       </c>
       <c r="F208" s="83" t="s">
-        <v>775</v>
+        <v>664</v>
       </c>
       <c r="G208" s="78"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209" s="82" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="C209" s="83" t="s">
         <v>470</v>
       </c>
       <c r="D209" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E209" s="84">
         <v>1</v>
@@ -14705,31 +14628,31 @@
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="82" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="C210" s="83" t="s">
-        <v>786</v>
+        <v>668</v>
       </c>
       <c r="D210" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E210" s="84">
         <v>1</v>
       </c>
       <c r="F210" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G210" s="78"/>
     </row>
-    <row r="211" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211" s="82" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="C211" s="83" t="s">
         <v>471</v>
       </c>
       <c r="D211" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E211" s="84">
         <v>1</v>
@@ -14737,33 +14660,33 @@
       <c r="F211" s="83"/>
       <c r="G211" s="78"/>
     </row>
-    <row r="212" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212" s="82" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="C212" s="83" t="s">
         <v>471</v>
       </c>
       <c r="D212" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E212" s="84">
         <v>1</v>
       </c>
       <c r="F212" s="83" t="s">
-        <v>775</v>
+        <v>664</v>
       </c>
       <c r="G212" s="78"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B213" s="82" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="C213" s="83" t="s">
         <v>472</v>
       </c>
       <c r="D213" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E213" s="84">
         <v>1</v>
@@ -14771,33 +14694,33 @@
       <c r="F213" s="83"/>
       <c r="G213" s="78"/>
     </row>
-    <row r="214" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B214" s="82" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="C214" s="83" t="s">
         <v>473</v>
       </c>
       <c r="D214" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E214" s="84">
         <v>1</v>
       </c>
       <c r="F214" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G214" s="78"/>
     </row>
-    <row r="215" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215" s="82" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="C215" s="83" t="s">
         <v>474</v>
       </c>
       <c r="D215" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E215" s="84">
         <v>1</v>
@@ -14805,33 +14728,33 @@
       <c r="F215" s="83"/>
       <c r="G215" s="78"/>
     </row>
-    <row r="216" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B216" s="82" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="C216" s="83" t="s">
         <v>474</v>
       </c>
       <c r="D216" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E216" s="84">
         <v>1</v>
       </c>
       <c r="F216" s="83" t="s">
-        <v>775</v>
+        <v>664</v>
       </c>
       <c r="G216" s="78"/>
     </row>
     <row r="217" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="82" t="s">
-        <v>792</v>
+        <v>669</v>
       </c>
       <c r="C217" s="83" t="s">
         <v>475</v>
       </c>
       <c r="D217" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E217" s="84">
         <v>1</v>
@@ -14843,13 +14766,13 @@
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218" s="82" t="s">
-        <v>793</v>
+        <v>670</v>
       </c>
       <c r="C218" s="83" t="s">
         <v>476</v>
       </c>
       <c r="D218" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E218" s="84">
         <v>1</v>
@@ -14859,13 +14782,13 @@
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219" s="82" t="s">
-        <v>796</v>
+        <v>673</v>
       </c>
       <c r="C219" s="83" t="s">
-        <v>794</v>
+        <v>671</v>
       </c>
       <c r="D219" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E219" s="84">
         <v>1</v>
@@ -14875,13 +14798,13 @@
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B220" s="82" t="s">
-        <v>797</v>
+        <v>674</v>
       </c>
       <c r="C220" s="83" t="s">
-        <v>795</v>
+        <v>672</v>
       </c>
       <c r="D220" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E220" s="84">
         <v>1</v>
@@ -14889,15 +14812,15 @@
       <c r="F220" s="83"/>
       <c r="G220" s="78"/>
     </row>
-    <row r="221" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B221" s="82" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C221" s="83" t="s">
         <v>477</v>
       </c>
       <c r="D221" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E221" s="84">
         <v>1</v>
@@ -14909,13 +14832,13 @@
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B222" s="82" t="s">
-        <v>798</v>
+        <v>675</v>
       </c>
       <c r="C222" s="83" t="s">
         <v>478</v>
       </c>
       <c r="D222" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E222" s="84">
         <v>1</v>
@@ -14923,15 +14846,15 @@
       <c r="F222" s="83"/>
       <c r="G222" s="78"/>
     </row>
-    <row r="223" spans="2:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B223" s="82" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C223" s="83" t="s">
         <v>479</v>
       </c>
       <c r="D223" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E223" s="84">
         <v>1</v>
@@ -14943,13 +14866,13 @@
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B224" s="82" t="s">
-        <v>801</v>
+        <v>676</v>
       </c>
       <c r="C224" s="83" t="s">
         <v>480</v>
       </c>
       <c r="D224" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E224" s="84">
         <v>1</v>
@@ -14959,13 +14882,13 @@
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B225" s="82" t="s">
-        <v>802</v>
+        <v>677</v>
       </c>
       <c r="C225" s="83" t="s">
         <v>481</v>
       </c>
       <c r="D225" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E225" s="84">
         <v>1</v>
@@ -14973,7 +14896,7 @@
       <c r="F225" s="83"/>
       <c r="G225" s="78"/>
     </row>
-    <row r="226" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B226" s="82" t="s">
         <v>807</v>
       </c>
@@ -14981,7 +14904,7 @@
         <v>482</v>
       </c>
       <c r="D226" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E226" s="84">
         <v>1</v>
@@ -14993,13 +14916,13 @@
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B227" s="82" t="s">
-        <v>803</v>
+        <v>678</v>
       </c>
       <c r="C227" s="83" t="s">
         <v>483</v>
       </c>
       <c r="D227" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E227" s="84">
         <v>1</v>
@@ -15009,13 +14932,13 @@
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B228" s="82" t="s">
-        <v>804</v>
+        <v>679</v>
       </c>
       <c r="C228" s="83" t="s">
         <v>484</v>
       </c>
       <c r="D228" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E228" s="84">
         <v>1</v>
@@ -15025,13 +14948,13 @@
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B229" s="82" t="s">
-        <v>805</v>
+        <v>680</v>
       </c>
       <c r="C229" s="83" t="s">
         <v>485</v>
       </c>
       <c r="D229" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E229" s="84">
         <v>1</v>
@@ -15041,13 +14964,13 @@
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B230" s="82" t="s">
-        <v>806</v>
+        <v>681</v>
       </c>
       <c r="C230" s="83" t="s">
         <v>486</v>
       </c>
       <c r="D230" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E230" s="84">
         <v>1</v>
@@ -15055,15 +14978,15 @@
       <c r="F230" s="83"/>
       <c r="G230" s="78"/>
     </row>
-    <row r="231" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B231" s="82" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C231" s="83" t="s">
         <v>487</v>
       </c>
       <c r="D231" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E231" s="84">
         <v>1</v>
@@ -15075,13 +14998,13 @@
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B232" s="82" t="s">
-        <v>808</v>
+        <v>682</v>
       </c>
       <c r="C232" s="83" t="s">
         <v>488</v>
       </c>
       <c r="D232" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E232" s="84">
         <v>1</v>
@@ -15091,13 +15014,13 @@
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B233" s="82" t="s">
-        <v>809</v>
+        <v>683</v>
       </c>
       <c r="C233" s="83" t="s">
         <v>489</v>
       </c>
       <c r="D233" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E233" s="84">
         <v>1</v>
@@ -15107,13 +15030,13 @@
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B234" s="82" t="s">
-        <v>811</v>
+        <v>684</v>
       </c>
       <c r="C234" s="83" t="s">
         <v>490</v>
       </c>
       <c r="D234" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E234" s="84">
         <v>1</v>
@@ -15125,13 +15048,13 @@
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B235" s="82" t="s">
-        <v>812</v>
+        <v>685</v>
       </c>
       <c r="C235" s="83" t="s">
         <v>491</v>
       </c>
       <c r="D235" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E235" s="84">
         <v>1</v>
@@ -15139,15 +15062,15 @@
       <c r="F235" s="83"/>
       <c r="G235" s="78"/>
     </row>
-    <row r="236" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B236" s="82" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C236" s="83" t="s">
         <v>492</v>
       </c>
       <c r="D236" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E236" s="84">
         <v>1</v>
@@ -15159,13 +15082,13 @@
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B237" s="82" t="s">
-        <v>813</v>
+        <v>686</v>
       </c>
       <c r="C237" s="83" t="s">
         <v>493</v>
       </c>
       <c r="D237" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E237" s="84">
         <v>1</v>
@@ -15173,15 +15096,15 @@
       <c r="F237" s="83"/>
       <c r="G237" s="78"/>
     </row>
-    <row r="238" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B238" s="82" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="C238" s="83" t="s">
         <v>496</v>
       </c>
       <c r="D238" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E238" s="84">
         <v>1</v>
@@ -15193,31 +15116,31 @@
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B239" s="82" t="s">
-        <v>815</v>
+        <v>687</v>
       </c>
       <c r="C239" s="83" t="s">
-        <v>817</v>
+        <v>689</v>
       </c>
       <c r="D239" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E239" s="84">
         <v>1</v>
       </c>
       <c r="F239" s="83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G239" s="78"/>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B240" s="82" t="s">
-        <v>816</v>
+        <v>688</v>
       </c>
       <c r="C240" s="83" t="s">
         <v>497</v>
       </c>
       <c r="D240" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E240" s="84">
         <v>1</v>
@@ -15225,15 +15148,15 @@
       <c r="F240" s="83"/>
       <c r="G240" s="78"/>
     </row>
-    <row r="241" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B241" s="82" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="C241" s="83" t="s">
         <v>498</v>
       </c>
       <c r="D241" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E241" s="84">
         <v>1</v>
@@ -15245,13 +15168,13 @@
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B242" s="82" t="s">
-        <v>819</v>
+        <v>690</v>
       </c>
       <c r="C242" s="83" t="s">
-        <v>821</v>
+        <v>692</v>
       </c>
       <c r="D242" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E242" s="84">
         <v>1</v>
@@ -15261,13 +15184,13 @@
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B243" s="82" t="s">
-        <v>820</v>
+        <v>691</v>
       </c>
       <c r="C243" s="83" t="s">
         <v>499</v>
       </c>
       <c r="D243" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E243" s="84">
         <v>1</v>
@@ -15275,15 +15198,15 @@
       <c r="F243" s="83"/>
       <c r="G243" s="78"/>
     </row>
-    <row r="244" spans="2:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B244" s="82" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="C244" s="83" t="s">
         <v>494</v>
       </c>
       <c r="D244" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E244" s="84">
         <v>1</v>
@@ -15295,13 +15218,13 @@
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B245" s="82" t="s">
-        <v>824</v>
+        <v>693</v>
       </c>
       <c r="C245" s="83" t="s">
         <v>495</v>
       </c>
       <c r="D245" s="83" t="s">
-        <v>318</v>
+        <v>713</v>
       </c>
       <c r="E245" s="84">
         <v>1</v>
@@ -15309,7 +15232,7 @@
       <c r="F245" s="83"/>
       <c r="G245" s="78"/>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" s="83" t="s">
         <v>531</v>
       </c>
@@ -15323,11 +15246,11 @@
         <v>1</v>
       </c>
       <c r="F246" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G246" s="78"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" s="83" t="s">
         <v>532</v>
       </c>
@@ -15341,11 +15264,11 @@
         <v>1</v>
       </c>
       <c r="F247" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G247" s="78"/>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" s="83" t="s">
         <v>533</v>
       </c>
@@ -15359,11 +15282,11 @@
         <v>1</v>
       </c>
       <c r="F248" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G248" s="78"/>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" s="83" t="s">
         <v>534</v>
       </c>
@@ -15377,11 +15300,11 @@
         <v>1</v>
       </c>
       <c r="F249" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G249" s="78"/>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" s="83" t="s">
         <v>535</v>
       </c>
@@ -15395,11 +15318,11 @@
         <v>1</v>
       </c>
       <c r="F250" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G250" s="78"/>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="83" t="s">
         <v>536</v>
       </c>
@@ -15413,11 +15336,11 @@
         <v>1</v>
       </c>
       <c r="F251" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G251" s="78"/>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="83" t="s">
         <v>537</v>
       </c>
@@ -15431,11 +15354,11 @@
         <v>1</v>
       </c>
       <c r="F252" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G252" s="78"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" s="83" t="s">
         <v>524</v>
       </c>
@@ -15449,11 +15372,11 @@
         <v>1</v>
       </c>
       <c r="F253" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G253" s="78"/>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="83" t="s">
         <v>525</v>
       </c>
@@ -15467,11 +15390,11 @@
         <v>2</v>
       </c>
       <c r="F254" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G254" s="78"/>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" s="83" t="s">
         <v>526</v>
       </c>
@@ -15485,11 +15408,11 @@
         <v>2</v>
       </c>
       <c r="F255" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G255" s="78"/>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" s="83" t="s">
         <v>527</v>
       </c>
@@ -15503,11 +15426,11 @@
         <v>2</v>
       </c>
       <c r="F256" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G256" s="78"/>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" s="83" t="s">
         <v>528</v>
       </c>
@@ -15521,11 +15444,11 @@
         <v>2</v>
       </c>
       <c r="F257" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G257" s="78"/>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" s="83" t="s">
         <v>529</v>
       </c>
@@ -15539,11 +15462,11 @@
         <v>2</v>
       </c>
       <c r="F258" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G258" s="78"/>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" s="83" t="s">
         <v>530</v>
       </c>
@@ -15557,11 +15480,18 @@
         <v>2</v>
       </c>
       <c r="F259" s="83" t="s">
-        <v>828</v>
+        <v>697</v>
       </c>
       <c r="G259" s="78"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:N259" xr:uid="{3E81CA2C-2102-45AC-92BA-FE564D531E29}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Get/Post"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Command/Command.xlsx
+++ b/Command/Command.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Project\Python\TestTool\Command\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE693A4-0709-433C-ADA9-4CA736E0DEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294F8A7B-2CB9-4CD0-85BF-21FDA1B00232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
+    <workbookView xWindow="33480" yWindow="2325" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Uncooled" sheetId="1" r:id="rId1"/>
     <sheet name="NYX Series" sheetId="5" r:id="rId2"/>
     <sheet name="DRS" sheetId="7" r:id="rId3"/>
-    <sheet name="Uncooled Data Sheet" sheetId="2" r:id="rId4"/>
-    <sheet name="Cooled Data Sheet" sheetId="6" r:id="rId5"/>
-    <sheet name="CMD RAW" sheetId="3" r:id="rId6"/>
+    <sheet name="FineTree" sheetId="8" r:id="rId4"/>
+    <sheet name="Uncooled Data Sheet" sheetId="2" r:id="rId5"/>
+    <sheet name="Cooled Data Sheet" sheetId="6" r:id="rId6"/>
+    <sheet name="CMD RAW" sheetId="3" r:id="rId7"/>
+    <sheet name="FineTreeRAW" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NYX Series'!$B$2:$N$259</definedName>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="1266">
   <si>
     <r>
       <rPr>
@@ -4389,6 +4391,528 @@
   </si>
   <si>
     <t>Gamma Filter 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev.2024.09.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pspd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan Spd 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan Spd 63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tspd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tilt Spd 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tilt Spd 63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zspd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max 63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoom Spd 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoom Spd 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoom Tele Step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoom Wide Step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>near</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>far</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus Near</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus Far</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus Far Step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus Near Step 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTZ Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre+71 Wiper Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre+77 Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre+76 Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre+87 Reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre+88 Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preset 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group,app,flip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic,set,enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic,set,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>af,set,auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>af,set,manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group,app,mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/ptz/control.php</t>
+  </si>
+  <si>
+    <t>/setup/video/image.php</t>
+  </si>
+  <si>
+    <t>NTSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,video_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,NTSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,PAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/setup/video/source.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,1920x1080_30fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,1920x1080_60fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source 1920x1080 30fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source 1920x1080 60fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,video_src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/setup/video/stream.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,H265MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.265 Main Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.264 Main Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,H264MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,video_enc#_codec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJPEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,MJPEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,video_enc#_fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focus PushAF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>af,set,pushaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group,app,focus_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group,app,focus_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>af,set,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>af,set,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus spd 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus spd 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group,app,dnn_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnn,set,auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/N Auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/N Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/N Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/N Ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnn,set,day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnn,set,night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnn,set,ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDR On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDR Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defog On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defog Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group,app,wdr_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdr,set,on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdr,set,off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group,app,defog_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blc,set,off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blc,set,on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group,app,blc_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLC On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLC Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLC On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLC Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group,app,hlc_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/setup/video/digital_zoom.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,dz_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-Zoom Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-Zoom On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set,800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,dz_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/setup/system/restart.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Except IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/setup/system/reset.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/setup/system/default.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,video_enc1_fps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,video_enc1_codec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/ptz/control.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app,default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5002,7 +5526,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5275,6 +5799,9 @@
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16637,7 +17164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E92AE5-296A-4A53-A69F-D6F31FDFEA61}">
   <dimension ref="B1:T156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -26581,6 +27108,1300 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94EB275-FA34-45A8-B46C-8DC3CCB3E735}">
+  <dimension ref="B1:H58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="80" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="H1" s="80" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" s="2" customFormat="1">
+      <c r="B2" s="86" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="88" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C3" s="88" t="str">
+        <f t="shared" ref="C3:C12" si="0">IF(G3="get", D3, D3&amp;"="&amp;E3)</f>
+        <v>app,video_mode=set,NTSC</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H3" s="88"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="88" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C4" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_mode=set,PAL</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H4" s="88"/>
+    </row>
+    <row r="5" spans="2:8" ht="27">
+      <c r="B5" s="88" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C5" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_src=set,1920x1080_30fps</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H5" s="88"/>
+    </row>
+    <row r="6" spans="2:8" ht="27">
+      <c r="B6" s="88" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C6" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_src=set,1920x1080_60fps</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H6" s="88"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="88" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C7" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_enc1_codec=set,H265MP</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="88" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C8" s="88" t="str">
+        <f t="shared" ref="C8:C9" si="1">IF(G8="get", D8, D8&amp;"="&amp;E8)</f>
+        <v>app,video_enc1_codec=set,H264MP</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="88" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C9" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>app,video_enc1_codec=set,MJPEG</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="88" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C10" s="88" t="str">
+        <f t="shared" ref="C10:C11" si="2">IF(G10="get", D10, D10&amp;"="&amp;E10)</f>
+        <v>app,video_enc1_fps=set,1</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H10" s="88"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="88" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C11" s="88" t="str">
+        <f t="shared" si="2"/>
+        <v>app,video_enc1_fps=set,30</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H11" s="88"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="88" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C12" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_enc1_fps=set,60</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H12" s="88"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="88" t="str">
+        <f>IF(G13="get", D13, D13&amp;"="&amp;E13)</f>
+        <v>group,app,flip=basic,set,enable</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H13" s="88"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="88" t="str">
+        <f t="shared" ref="C14:C16" si="3">IF(G14="get", D14, D14&amp;"="&amp;E14)</f>
+        <v>group,app,flip=basic,set,1</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H14" s="88"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>group,app,mirror=basic,set,enable</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G15" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H15" s="88"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>group,app,mirror=basic,set,1</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G16" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H16" s="88"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="88" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C17" s="88" t="str">
+        <f t="shared" ref="C17" si="4">IF(G17="get", D17, D17&amp;"="&amp;E17)</f>
+        <v>group,app,focus_mode=af,set,auto</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G17" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="88" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C18" s="88" t="str">
+        <f t="shared" ref="C18:C27" si="5">IF(G18="get", D18, D18&amp;"="&amp;E18)</f>
+        <v>group,app,focus_mode=af,set,manual</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="88" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C19" s="88" t="str">
+        <f t="shared" ref="C19:C23" si="6">IF(G19="get", D19, D19&amp;"="&amp;E19)</f>
+        <v>focus=pushaf</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H19" s="88"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="88" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C20" s="88" t="str">
+        <f t="shared" si="6"/>
+        <v>group,app,focus_speed=af,set,1</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="88" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C21" s="88" t="str">
+        <f t="shared" si="6"/>
+        <v>group,app,focus_speed=af,set,8</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H21" s="88"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="88" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C22" s="88" t="str">
+        <f t="shared" si="6"/>
+        <v>group,app,dnn_mode=dnn,set,auto</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="88" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C23" s="88" t="str">
+        <f t="shared" si="6"/>
+        <v>group,app,dnn_mode=dnn,set,day</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E23" s="88" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F23" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G23" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H23" s="88"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="88" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C24" s="88" t="str">
+        <f t="shared" si="5"/>
+        <v>group,app,dnn_mode=dnn,set,night</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G24" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H24" s="88"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="88" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C25" s="88" t="str">
+        <f t="shared" si="5"/>
+        <v>group,app,dnn_mode=dnn,set,ext</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E25" s="88" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G25" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H25" s="88"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="88" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C26" s="88" t="str">
+        <f t="shared" si="5"/>
+        <v>group,app,wdr_mode=wdr,set,on</v>
+      </c>
+      <c r="D26" s="88" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G26" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H26" s="88"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="88" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C27" s="88" t="str">
+        <f t="shared" si="5"/>
+        <v>group,app,wdr_mode=wdr,set,off</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E27" s="88" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G27" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H27" s="88"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="88" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C28" s="88" t="str">
+        <f t="shared" ref="C28:C37" si="7">IF(G28="get", D28, D28&amp;"="&amp;E28)</f>
+        <v>group,app,defog_mode=wdr,set,on</v>
+      </c>
+      <c r="D28" s="88" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F28" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G28" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H28" s="88"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="88" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C29" s="88" t="str">
+        <f t="shared" si="7"/>
+        <v>group,app,defog_mode=wdr,set,off</v>
+      </c>
+      <c r="D29" s="88" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F29" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G29" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H29" s="88"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="88" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C30" s="88" t="str">
+        <f t="shared" si="7"/>
+        <v>group,app,blc_mode=blc,set,on</v>
+      </c>
+      <c r="D30" s="88" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F30" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H30" s="88"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="88" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C31" s="88" t="str">
+        <f t="shared" si="7"/>
+        <v>group,app,blc_mode=blc,set,off</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F31" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G31" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="88" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C32" s="88" t="str">
+        <f t="shared" si="7"/>
+        <v>group,app,hlc_mode=blc,set,on</v>
+      </c>
+      <c r="D32" s="88" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G32" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H32" s="88"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="88" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C33" s="88" t="str">
+        <f t="shared" si="7"/>
+        <v>group,app,hlc_mode=blc,set,off</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G33" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H33" s="88"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="88" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C34" s="88" t="str">
+        <f t="shared" si="7"/>
+        <v>app,dz_enable=set,0</v>
+      </c>
+      <c r="D34" s="88" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H34" s="88"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="88" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C35" s="88" t="str">
+        <f t="shared" si="7"/>
+        <v>app,dz_enable=set,1</v>
+      </c>
+      <c r="D35" s="88" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F35" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G35" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H35" s="88"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="88" t="s">
+        <v>972</v>
+      </c>
+      <c r="C36" s="88" t="str">
+        <f t="shared" si="7"/>
+        <v>app,dz_level=set,100</v>
+      </c>
+      <c r="D36" s="88" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F36" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G36" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="88" t="s">
+        <v>974</v>
+      </c>
+      <c r="C37" s="88" t="str">
+        <f t="shared" si="7"/>
+        <v>app,dz_level=set,200</v>
+      </c>
+      <c r="D37" s="88" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G37" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H37" s="88"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="88" t="s">
+        <v>975</v>
+      </c>
+      <c r="C38" s="88" t="str">
+        <f t="shared" ref="C38:C41" si="8">IF(G38="get", D38, D38&amp;"="&amp;E38)</f>
+        <v>app,dz_level=set,400</v>
+      </c>
+      <c r="D38" s="88" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F38" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G38" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H38" s="88"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="88" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C39" s="88" t="str">
+        <f t="shared" si="8"/>
+        <v>app,dz_level=set,800</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G39" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H39" s="88"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="88" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C40" s="88" t="str">
+        <f t="shared" si="8"/>
+        <v>app,restart=set,1</v>
+      </c>
+      <c r="D40" s="88" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F40" s="88" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G40" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H40" s="88"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="88" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C41" s="88" t="str">
+        <f t="shared" si="8"/>
+        <v>app,reset=set,1</v>
+      </c>
+      <c r="D41" s="88" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G41" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H41" s="88" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="88" t="s">
+        <v>578</v>
+      </c>
+      <c r="C42" s="88" t="str">
+        <f t="shared" ref="C42:C58" si="9">IF(G42="get", D42, D42&amp;"="&amp;E42)</f>
+        <v>app,default=set,1</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F42" s="88" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G42" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H42" s="88" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="88" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C43" s="88" t="str">
+        <f t="shared" ref="C43:C51" si="10">IF(G43="get", D43, D43&amp;"="&amp;E43)</f>
+        <v>pspd=1</v>
+      </c>
+      <c r="D43" s="88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E43" s="88">
+        <v>1</v>
+      </c>
+      <c r="F43" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G43" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H43" s="88" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="88" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C44" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v>pspd=63</v>
+      </c>
+      <c r="D44" s="88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E44" s="88">
+        <v>63</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G44" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H44" s="88"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="88" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C45" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v>tspd=1</v>
+      </c>
+      <c r="D45" s="88" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E45" s="88">
+        <v>1</v>
+      </c>
+      <c r="F45" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G45" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H45" s="88" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="88" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C46" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v>tspd=63</v>
+      </c>
+      <c r="D46" s="88" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E46" s="88">
+        <v>63</v>
+      </c>
+      <c r="F46" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G46" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H46" s="88"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="88" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C47" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v>zspd=1</v>
+      </c>
+      <c r="D47" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E47" s="88">
+        <v>1</v>
+      </c>
+      <c r="F47" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G47" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H47" s="88" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="88" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C48" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v>zspd=8</v>
+      </c>
+      <c r="D48" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E48" s="88">
+        <v>8</v>
+      </c>
+      <c r="F48" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G48" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H48" s="88"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="88" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C49" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v>zoom=1</v>
+      </c>
+      <c r="D49" s="88" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E49" s="88">
+        <v>1</v>
+      </c>
+      <c r="F49" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G49" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H49" s="88"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="88" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C50" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v>zoom=1</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E50" s="88">
+        <v>1</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G50" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H50" s="88"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="88" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C51" s="88" t="str">
+        <f t="shared" si="10"/>
+        <v>zoom=stop</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F51" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G51" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H51" s="88"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="88" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C52" s="88" t="str">
+        <f t="shared" ref="C52:C57" si="11">IF(G52="get", D52, D52&amp;"="&amp;E52)</f>
+        <v>focus=near</v>
+      </c>
+      <c r="D52" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E52" s="88" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F52" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G52" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H52" s="88"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="88" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C53" s="88" t="str">
+        <f t="shared" si="11"/>
+        <v>focus=far</v>
+      </c>
+      <c r="D53" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F53" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G53" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H53" s="88"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="88" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C54" s="88" t="str">
+        <f t="shared" si="11"/>
+        <v>focus=1</v>
+      </c>
+      <c r="D54" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E54" s="88">
+        <v>1</v>
+      </c>
+      <c r="F54" s="88" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G54" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H54" s="88"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="88" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C55" s="88" t="str">
+        <f t="shared" si="11"/>
+        <v>focus=1</v>
+      </c>
+      <c r="D55" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E55" s="88">
+        <v>1</v>
+      </c>
+      <c r="F55" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G55" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H55" s="88"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="88" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C56" s="88" t="str">
+        <f t="shared" si="11"/>
+        <v>focus=stop</v>
+      </c>
+      <c r="D56" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E56" s="88" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F56" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G56" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H56" s="88"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="88" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C57" s="88" t="str">
+        <f t="shared" si="11"/>
+        <v>move=stop</v>
+      </c>
+      <c r="D57" s="88" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F57" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G57" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H57" s="88"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="88"/>
+      <c r="C58" s="88" t="str">
+        <f t="shared" si="9"/>
+        <v>=FALSE</v>
+      </c>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88" t="b">
+        <f t="shared" ref="E58" si="12">IF(G58="get", "")</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H58" s="88"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4216FE-61C8-B941-B13D-072D42E23E52}">
   <dimension ref="B1:H1"/>
   <sheetViews>
@@ -26608,7 +28429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FA9FE0-2B56-4EB8-B96C-F19E41E24CE4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26624,7 +28445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0BD130-7E94-4798-80EB-E2350D9BAC78}">
   <dimension ref="B1:X102"/>
   <sheetViews>
@@ -33538,4 +35359,1468 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E8CE7D-D20F-41DE-9075-E508ED12C670}">
+  <dimension ref="B1:H66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="80" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="H1" s="80" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" s="2" customFormat="1">
+      <c r="B2" s="86" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C3" s="88" t="str">
+        <f t="shared" ref="C3:C19" si="0">IF(G3="get", D3, D3&amp;"="&amp;E3)</f>
+        <v>preset=1</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E3" s="88">
+        <v>1</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H3" s="88"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="88" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C4" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>preset=8</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E4" s="88">
+        <v>8</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H4" s="88"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="88" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C5" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>preset=71</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E5" s="88">
+        <v>71</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H5" s="88"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="88" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C6" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>preset=76</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E6" s="88">
+        <v>76</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H6" s="88"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="88" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C7" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>preset=77</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E7" s="88">
+        <v>77</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="88" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C8" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>preset=87</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E8" s="88">
+        <v>87</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H8" s="88"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="88" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C9" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>preset=88</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E9" s="88">
+        <v>88</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="88" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C10" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_mode=set,NTSC</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H10" s="88"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="88" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C11" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_mode=set,PAL</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H11" s="88"/>
+    </row>
+    <row r="12" spans="2:8" ht="27">
+      <c r="B12" s="88" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C12" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_src=set,1920x1080_30fps</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H12" s="88"/>
+    </row>
+    <row r="13" spans="2:8" ht="27">
+      <c r="B13" s="88" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C13" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_src=set,1920x1080_60fps</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H13" s="88"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="88" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C14" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_enc#_codec=set,H265MP</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H14" s="88"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="88" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C15" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_enc#_codec=set,H264MP</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G15" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H15" s="88"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="88" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C16" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_enc#_codec=set,MJPEG</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G16" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H16" s="88"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="88" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C17" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_enc#_fps=set,1</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G17" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="88" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C18" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_enc#_fps=set,30</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="88" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C19" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>app,video_enc#_fps=set,60</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H19" s="88"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="88" t="str">
+        <f>IF(G20="get", D20, D20&amp;"="&amp;E20)</f>
+        <v>group,app,flip=basic,set,enable</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="88" t="str">
+        <f t="shared" ref="C21:C66" si="1">IF(G21="get", D21, D21&amp;"="&amp;E21)</f>
+        <v>group,app,flip=basic,set,1</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H21" s="88"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,mirror=basic,set,enable</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,mirror=basic,set,1</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E23" s="88" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F23" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G23" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H23" s="88"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="88" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C24" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,focus_mode=af,set,auto</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G24" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H24" s="88"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="88" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C25" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,focus_mode=af,set,manual</v>
+      </c>
+      <c r="D25" s="88" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E25" s="88" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G25" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H25" s="88"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="88" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C26" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,focus_mode=af,set,pushaf</v>
+      </c>
+      <c r="D26" s="88" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G26" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H26" s="88"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="88" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C27" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,focus_speed=af,set,1</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E27" s="88" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G27" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H27" s="88"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="88" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C28" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,focus_speed=af,set,8</v>
+      </c>
+      <c r="D28" s="88" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F28" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G28" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H28" s="88"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="88" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C29" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,dnn_mode=dnn,set,auto</v>
+      </c>
+      <c r="D29" s="88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F29" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G29" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H29" s="88"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="88" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C30" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,dnn_mode=dnn,set,day</v>
+      </c>
+      <c r="D30" s="88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F30" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H30" s="88"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="88" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C31" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,dnn_mode=dnn,set,night</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F31" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G31" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="88" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C32" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,dnn_mode=dnn,set,ext</v>
+      </c>
+      <c r="D32" s="88" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G32" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H32" s="88"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="88" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C33" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,wdr_mode=wdr,set,on</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G33" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H33" s="88"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="88" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C34" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,wdr_mode=wdr,set,off</v>
+      </c>
+      <c r="D34" s="88" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H34" s="88"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="88" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C35" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,defog_mode=wdr,set,on</v>
+      </c>
+      <c r="D35" s="88" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F35" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G35" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H35" s="88"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="88" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C36" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,defog_mode=wdr,set,off</v>
+      </c>
+      <c r="D36" s="88" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F36" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G36" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="88" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C37" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,blc_mode=blc,set,on</v>
+      </c>
+      <c r="D37" s="88" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G37" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H37" s="88"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="88" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C38" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,blc_mode=blc,set,off</v>
+      </c>
+      <c r="D38" s="88" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F38" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G38" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H38" s="88"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="88" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C39" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,hlc_mode=blc,set,on</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G39" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H39" s="88"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="88" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C40" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>group,app,hlc_mode=blc,set,off</v>
+      </c>
+      <c r="D40" s="88" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F40" s="88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G40" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H40" s="88"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="88" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C41" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>app,dz_enable=set,0</v>
+      </c>
+      <c r="D41" s="88" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G41" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H41" s="88"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="88" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C42" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>app,dz_enable=set,1</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F42" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G42" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H42" s="88"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="88" t="s">
+        <v>972</v>
+      </c>
+      <c r="C43" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>app,dz_level=set,100</v>
+      </c>
+      <c r="D43" s="88" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F43" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G43" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H43" s="88"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="88" t="s">
+        <v>974</v>
+      </c>
+      <c r="C44" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>app,dz_level=set,200</v>
+      </c>
+      <c r="D44" s="88" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G44" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H44" s="88"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="88" t="s">
+        <v>975</v>
+      </c>
+      <c r="C45" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>app,dz_level=set,400</v>
+      </c>
+      <c r="D45" s="88" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E45" s="88" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F45" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G45" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H45" s="88"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="88" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C46" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>app,dz_level=set,800</v>
+      </c>
+      <c r="D46" s="88" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E46" s="88" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F46" s="88" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G46" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H46" s="88"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="88" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C47" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>app=set</v>
+      </c>
+      <c r="D47" s="88" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E47" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F47" s="88" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G47" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H47" s="88"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="88" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C48" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>app=set</v>
+      </c>
+      <c r="D48" s="88" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E48" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F48" s="88" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G48" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H48" s="88" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="88" t="s">
+        <v>578</v>
+      </c>
+      <c r="C49" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>=FALSE</v>
+      </c>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88" t="b">
+        <f t="shared" ref="E49:E66" si="2">IF(G49="get", "")</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="88" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G49" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H49" s="88" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="88" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C50" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>pspd=1</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E50" s="88">
+        <v>1</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G50" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H50" s="88" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="88" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C51" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>pspd=63</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E51" s="88">
+        <v>63</v>
+      </c>
+      <c r="F51" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G51" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H51" s="88"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="88" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C52" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>tspd=1</v>
+      </c>
+      <c r="D52" s="88" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E52" s="88">
+        <v>1</v>
+      </c>
+      <c r="F52" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G52" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H52" s="88" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="88" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C53" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>tspd=63</v>
+      </c>
+      <c r="D53" s="88" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E53" s="88">
+        <v>63</v>
+      </c>
+      <c r="F53" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G53" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H53" s="88"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="88" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C54" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>zspd=1</v>
+      </c>
+      <c r="D54" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E54" s="88">
+        <v>1</v>
+      </c>
+      <c r="F54" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G54" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H54" s="88" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="88" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C55" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>zspd=8</v>
+      </c>
+      <c r="D55" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E55" s="88">
+        <v>8</v>
+      </c>
+      <c r="F55" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G55" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H55" s="88"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="88" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C56" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>zoom=1</v>
+      </c>
+      <c r="D56" s="88" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E56" s="88">
+        <v>1</v>
+      </c>
+      <c r="F56" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G56" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H56" s="88"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="88" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C57" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>zoom=1</v>
+      </c>
+      <c r="D57" s="88" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E57" s="88">
+        <v>1</v>
+      </c>
+      <c r="F57" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G57" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H57" s="88"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="88" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C58" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>zoom=stop</v>
+      </c>
+      <c r="D58" s="88" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E58" s="88" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F58" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G58" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H58" s="88"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="88" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C59" s="88" t="str">
+        <f t="shared" ref="C59:C64" si="3">IF(G59="get", D59, D59&amp;"="&amp;E59)</f>
+        <v>focus=near</v>
+      </c>
+      <c r="D59" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E59" s="88" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F59" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G59" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H59" s="88"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="88" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C60" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>focus=far</v>
+      </c>
+      <c r="D60" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E60" s="88" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G60" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H60" s="88"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="88" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C61" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>focus=1</v>
+      </c>
+      <c r="D61" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E61" s="88">
+        <v>1</v>
+      </c>
+      <c r="F61" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G61" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H61" s="88"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="88" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C62" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>focus=1</v>
+      </c>
+      <c r="D62" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E62" s="88">
+        <v>1</v>
+      </c>
+      <c r="F62" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G62" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H62" s="88"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="88" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C63" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>focus=stop</v>
+      </c>
+      <c r="D63" s="88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E63" s="88" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F63" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G63" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H63" s="88"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="88" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C64" s="88" t="str">
+        <f t="shared" si="3"/>
+        <v>move=stop</v>
+      </c>
+      <c r="D64" s="88" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E64" s="88" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F64" s="88" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G64" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H64" s="88"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="88"/>
+      <c r="C65" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>=FALSE</v>
+      </c>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H65" s="88"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="88"/>
+      <c r="C66" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>=FALSE</v>
+      </c>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H66" s="88"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Command/Command.xlsx
+++ b/Command/Command.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Project\Python\TestTool\Command\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83172DE-B78F-4123-A090-1917859F8AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6D2E51-E900-4A5D-ADB1-3A3B8E3207D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Uncooled" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4846" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4868" uniqueCount="1498">
   <si>
     <r>
       <rPr>
@@ -3971,10 +3971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Colorbar On</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3987,19 +3983,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Center Mark On</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Min/Max Off, Other On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4079,10 +4067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mask 0 Off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4103,14 +4087,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mask 3 Off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mask 3 On</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Area 0 Start X 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4327,10 +4303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5020,18 +4992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pan Tilt Init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zero Pos Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zero Pos Reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5739,6 +5699,74 @@
   </si>
   <si>
     <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover Origin On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover Origin Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiper 3회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/N Toggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAN to 0 Dig, TILT to 0 Dig MOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset Current PAN Position to 0 Dig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAN Position to 0 Dig to Factory Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cur Pan Pos to 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan Tilt Move to 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan Pos to 0 F/D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move HOME-Position - PAN/TILT Only(ZOOM Not Saved)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask 1 On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask 2 Off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7713,7 +7741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2191A3BB-5475-EC49-9D9F-17B4E3E33BE8}">
   <dimension ref="B1:S119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8665,7 +8693,7 @@
     </row>
     <row r="17" spans="2:19" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="B17" s="64" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8684,7 +8712,7 @@
         <v>79</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" ref="I17" si="24">Q17</f>
@@ -9471,7 +9499,7 @@
     </row>
     <row r="30" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B30" s="64" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="C30" s="12" t="str">
         <f t="shared" ref="C30" si="33">"FF01"&amp;E30&amp;""&amp;F30&amp;G30&amp;H30&amp;I30</f>
@@ -9657,7 +9685,7 @@
     </row>
     <row r="33" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B33" s="64" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="C33" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9676,7 +9704,7 @@
         <v>91</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" ref="I33:I37" si="45">Q33</f>
@@ -9719,7 +9747,7 @@
     </row>
     <row r="34" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B34" s="64" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="C34" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9732,7 +9760,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>16</v>
@@ -9781,7 +9809,7 @@
     </row>
     <row r="35" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B35" s="64" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="C35" s="12" t="str">
         <f t="shared" ref="C35" si="48">"FF01"&amp;E35&amp;""&amp;F35&amp;G35&amp;H35&amp;I35</f>
@@ -9794,7 +9822,7 @@
         <v>23</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>16</v>
@@ -9843,7 +9871,7 @@
     </row>
     <row r="36" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B36" s="64" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="C36" s="12" t="str">
         <f t="shared" ref="C36" si="55">"FF01"&amp;E36&amp;""&amp;F36&amp;G36&amp;H36&amp;I36</f>
@@ -9856,7 +9884,7 @@
         <v>23</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>16</v>
@@ -10214,7 +10242,7 @@
     </row>
     <row r="42" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B42" s="102" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="C42" s="113" t="str">
         <f t="shared" ref="C42:C78" si="66">"FF01"&amp;E42&amp;""&amp;F42&amp;G42&amp;H42&amp;I42</f>
@@ -10276,7 +10304,7 @@
     </row>
     <row r="43" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B43" s="102" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="C43" s="113" t="str">
         <f t="shared" ref="C43" si="74">"FF01"&amp;E43&amp;""&amp;F43&amp;G43&amp;H43&amp;I43</f>
@@ -10295,7 +10323,7 @@
         <v>16</v>
       </c>
       <c r="H43" s="67" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="I43" s="14" t="str">
         <f t="shared" ref="I43" si="75">Q43</f>
@@ -11144,7 +11172,7 @@
     </row>
     <row r="57" spans="2:19" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="B57" s="102" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="C57" s="113" t="str">
         <f t="shared" si="66"/>
@@ -11206,7 +11234,7 @@
     </row>
     <row r="58" spans="2:19" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="B58" s="102" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="C58" s="113" t="str">
         <f t="shared" ref="C58" si="87">"FF01"&amp;E58&amp;""&amp;F58&amp;G58&amp;H58&amp;I58</f>
@@ -11268,7 +11296,7 @@
     </row>
     <row r="59" spans="2:19" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="B59" s="103" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="C59" s="114" t="str">
         <f t="shared" si="66"/>
@@ -12632,7 +12660,7 @@
     </row>
     <row r="81" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B81" s="64" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="C81" s="12" t="str">
         <f t="shared" ref="C81" si="118">"FF01"&amp;E81&amp;""&amp;F81&amp;G81&amp;H81&amp;I81</f>
@@ -12818,7 +12846,7 @@
     </row>
     <row r="84" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B84" s="64" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="C84" s="12" t="str">
         <f t="shared" ref="C84" si="127">"FF01"&amp;E84&amp;""&amp;F84&amp;G84&amp;H84&amp;I84</f>
@@ -13872,7 +13900,7 @@
     </row>
     <row r="101" spans="2:19" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B101" s="66" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="C101" s="19" t="str">
         <f t="shared" ref="C101" si="146">"FF01"&amp;E101&amp;""&amp;F101&amp;G101&amp;H101&amp;I101</f>
@@ -15111,7 +15139,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>32</v>
@@ -15150,7 +15178,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>16</v>
@@ -15190,7 +15218,7 @@
         <v>07</v>
       </c>
       <c r="Q3" s="72" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="4" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15245,7 +15273,7 @@
         <v>0F</v>
       </c>
       <c r="Q4" s="72" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="5" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15300,7 +15328,7 @@
         <v>03</v>
       </c>
       <c r="Q5" s="72" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="6" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15355,12 +15383,12 @@
         <v>01</v>
       </c>
       <c r="Q6" s="72" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="7" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B7" s="14" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="C7" s="14" t="str">
         <f t="shared" si="4"/>
@@ -15410,7 +15438,7 @@
         <v>00</v>
       </c>
       <c r="Q7" s="72" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15422,7 +15450,7 @@
         <v>FF00BA000010CA</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="E8" s="67" t="s">
         <v>16</v>
@@ -15465,7 +15493,7 @@
         <v>CA</v>
       </c>
       <c r="Q8" s="72" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="9" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15477,7 +15505,7 @@
         <v>FF00BA000020DA</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="E9" s="67" t="s">
         <v>16</v>
@@ -15520,7 +15548,7 @@
         <v>DA</v>
       </c>
       <c r="Q9" s="72" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="10" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15532,7 +15560,7 @@
         <v>FF00BA000000BA</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>16</v>
@@ -15575,7 +15603,7 @@
         <v>BA</v>
       </c>
       <c r="Q10" s="72" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="11" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15587,7 +15615,7 @@
         <v>FF00BF000000BF</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="E11" s="67" t="s">
         <v>16</v>
@@ -15630,7 +15658,7 @@
         <v>BF</v>
       </c>
       <c r="Q11" s="72" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="12" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15642,7 +15670,7 @@
         <v>FF00BB000010CB</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="E12" s="67" t="s">
         <v>16</v>
@@ -15685,7 +15713,7 @@
         <v>CB</v>
       </c>
       <c r="Q12" s="72" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="13" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15697,7 +15725,7 @@
         <v>FF00BB000020DB</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>16</v>
@@ -15740,7 +15768,7 @@
         <v>DB</v>
       </c>
       <c r="Q13" s="72" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="14" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -15752,7 +15780,7 @@
         <v>FF00BB000000BB</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="E14" s="67" t="s">
         <v>16</v>
@@ -15795,19 +15823,19 @@
         <v>BB</v>
       </c>
       <c r="Q14" s="72" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="15" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B15" s="14" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="C15" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00B0000001B1</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="E15" s="67" t="s">
         <v>16</v>
@@ -15850,19 +15878,19 @@
         <v>B1</v>
       </c>
       <c r="Q15" s="72" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="16" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B16" s="14" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="C16" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00B0000000B0</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="E16" s="67" t="s">
         <v>16</v>
@@ -15905,19 +15933,19 @@
         <v>B0</v>
       </c>
       <c r="Q16" s="72" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="17" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B17" s="14" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="C17" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00C0000001C1</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E17" s="67" t="s">
         <v>16</v>
@@ -15960,19 +15988,19 @@
         <v>C1</v>
       </c>
       <c r="Q17" s="72" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="18" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B18" s="14" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="C18" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00C0000002C2</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E18" s="67" t="s">
         <v>16</v>
@@ -15981,7 +16009,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="0"/>
@@ -16015,19 +16043,19 @@
         <v>C2</v>
       </c>
       <c r="Q18" s="72" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="19" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B19" s="14" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="C19" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00C0000003C3</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E19" s="67" t="s">
         <v>16</v>
@@ -16036,7 +16064,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="67" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" si="0"/>
@@ -16070,19 +16098,19 @@
         <v>C3</v>
       </c>
       <c r="Q19" s="72" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="20" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B20" s="14" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="C20" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00C0000004C4</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E20" s="67" t="s">
         <v>16</v>
@@ -16091,7 +16119,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="H20" s="14" t="str">
         <f t="shared" si="0"/>
@@ -16125,19 +16153,19 @@
         <v>C4</v>
       </c>
       <c r="Q20" s="72" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="21" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B21" s="14" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="C21" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00C0000005C5</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E21" s="67" t="s">
         <v>16</v>
@@ -16146,7 +16174,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="67" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="H21" s="14" t="str">
         <f t="shared" si="0"/>
@@ -16180,19 +16208,19 @@
         <v>C5</v>
       </c>
       <c r="Q21" s="72" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B22" s="14" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="C22" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00C0000006C6</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E22" s="67" t="s">
         <v>16</v>
@@ -16201,7 +16229,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="67" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="H22" s="14" t="str">
         <f t="shared" si="0"/>
@@ -16235,19 +16263,19 @@
         <v>C6</v>
       </c>
       <c r="Q22" s="72" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="23" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B23" s="14" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="C23" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00C0000007C7</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E23" s="67" t="s">
         <v>16</v>
@@ -16256,7 +16284,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="H23" s="14" t="str">
         <f t="shared" si="0"/>
@@ -16290,19 +16318,19 @@
         <v>C7</v>
       </c>
       <c r="Q23" s="72" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="24" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B24" s="14" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="C24" s="14" t="str">
         <f t="shared" si="4"/>
         <v>FF00C0000008C8</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E24" s="67" t="s">
         <v>16</v>
@@ -16311,7 +16339,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="67" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="H24" s="14" t="str">
         <f t="shared" si="0"/>
@@ -16345,12 +16373,12 @@
         <v>C8</v>
       </c>
       <c r="Q24" s="72" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="25" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B25" s="14" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="C25" s="14" t="str">
         <f t="shared" ref="C25" si="5">"FF00"&amp;D25&amp;E25&amp;""&amp;F25&amp;G25&amp;H25</f>
@@ -16363,10 +16391,10 @@
         <v>111</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="H25" s="14" t="str">
         <f t="shared" ref="H25" si="6">O25</f>
@@ -16400,12 +16428,12 @@
         <v>25</v>
       </c>
       <c r="Q25" s="72" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="26" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B26" s="14" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="C26" s="14" t="str">
         <f t="shared" ref="C26" si="12">"FF00"&amp;D26&amp;E26&amp;""&amp;F26&amp;G26&amp;H26</f>
@@ -16418,10 +16446,10 @@
         <v>111</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="G26" s="67" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="H26" s="14" t="str">
         <f t="shared" ref="H26:H30" si="13">O26</f>
@@ -16455,12 +16483,12 @@
         <v>D0</v>
       </c>
       <c r="Q26" s="72" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="27" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B27" s="14" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="C27" s="14" t="str">
         <f>"FF00"&amp;D27&amp;E27&amp;""&amp;F27&amp;G27&amp;H27</f>
@@ -16470,13 +16498,13 @@
         <v>16</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="G27" s="67" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="H27" s="14" t="str">
         <f t="shared" si="13"/>
@@ -16510,12 +16538,12 @@
         <v>CA</v>
       </c>
       <c r="Q27" s="72" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="28" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B28" s="14" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="C28" s="14" t="str">
         <f t="shared" ref="C28:C30" si="19">"FF00"&amp;D28&amp;E28&amp;""&amp;F28&amp;G28&amp;H28</f>
@@ -16528,10 +16556,10 @@
         <v>61</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="G28" s="67" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="H28" s="14" t="str">
         <f t="shared" si="13"/>
@@ -16565,12 +16593,12 @@
         <v>C8</v>
       </c>
       <c r="Q28" s="72" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="29" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B29" s="14" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="C29" s="14" t="str">
         <f t="shared" si="19"/>
@@ -16583,10 +16611,10 @@
         <v>62</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="G29" s="67" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="H29" s="14" t="str">
         <f t="shared" si="13"/>
@@ -16620,12 +16648,12 @@
         <v>D2</v>
       </c>
       <c r="Q29" s="72" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="30" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B30" s="14" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="C30" s="14" t="str">
         <f t="shared" si="19"/>
@@ -16638,10 +16666,10 @@
         <v>111</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="H30" s="14" t="str">
         <f t="shared" si="13"/>
@@ -16675,7 +16703,7 @@
         <v>D0</v>
       </c>
       <c r="Q30" s="72" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
     </row>
   </sheetData>
@@ -16689,8 +16717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E92AE5-296A-4A53-A69F-D6F31FDFEA61}">
   <dimension ref="B1:T157"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -18264,7 +18292,7 @@
     </row>
     <row r="26" spans="2:20" s="2" customFormat="1">
       <c r="B26" s="88" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="C26" s="88" t="str">
         <f t="shared" ref="C26" si="9">T26</f>
@@ -18719,7 +18747,7 @@
     </row>
     <row r="33" spans="2:20" s="2" customFormat="1">
       <c r="B33" s="88" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="C33" s="88" t="str">
         <f t="shared" ref="C33" si="18">T33</f>
@@ -18849,14 +18877,14 @@
     </row>
     <row r="35" spans="2:20" s="2" customFormat="1">
       <c r="B35" s="88" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="C35" s="88" t="str">
         <f t="shared" ref="C35:C37" si="27">T35</f>
         <v>FF002105FFCEF3</v>
       </c>
       <c r="D35" s="88" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="E35" s="88" t="s">
         <v>897</v>
@@ -18914,14 +18942,14 @@
     </row>
     <row r="36" spans="2:20" s="2" customFormat="1">
       <c r="B36" s="88" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="C36" s="88" t="str">
         <f t="shared" ref="C36" si="36">T36</f>
         <v>FF002105000026</v>
       </c>
       <c r="D36" s="88" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="E36" s="88" t="s">
         <v>897</v>
@@ -18979,14 +19007,14 @@
     </row>
     <row r="37" spans="2:20" s="2" customFormat="1">
       <c r="B37" s="88" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="C37" s="88" t="str">
         <f t="shared" si="27"/>
         <v>FF002105003258</v>
       </c>
       <c r="D37" s="88" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="E37" s="88" t="s">
         <v>897</v>
@@ -19109,7 +19137,7 @@
     </row>
     <row r="39" spans="2:20" s="2" customFormat="1">
       <c r="B39" s="88" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="C39" s="88" t="str">
         <f t="shared" ref="C39" si="45">T39</f>
@@ -19303,7 +19331,7 @@
     </row>
     <row r="42" spans="2:20" s="2" customFormat="1">
       <c r="B42" s="88" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="C42" s="88" t="str">
         <f t="shared" ref="C42" si="54">T42</f>
@@ -19743,7 +19771,7 @@
     </row>
     <row r="49" spans="2:20" s="2" customFormat="1">
       <c r="B49" s="88" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C49" s="88" t="str">
         <f t="shared" si="5"/>
@@ -20090,7 +20118,7 @@
       </c>
       <c r="N54" s="88"/>
       <c r="O54" s="90" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="P54" s="88" t="str">
         <f>LEFT(O54, 2)</f>
@@ -20673,7 +20701,7 @@
     </row>
     <row r="64" spans="2:20" s="2" customFormat="1">
       <c r="B64" s="88" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="C64" s="88" t="str">
         <f t="shared" si="5"/>
@@ -21705,7 +21733,7 @@
     </row>
     <row r="80" spans="2:20" s="2" customFormat="1">
       <c r="B80" s="88" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="C80" s="88" t="str">
         <f t="shared" si="72"/>
@@ -21769,7 +21797,7 @@
     </row>
     <row r="81" spans="2:20" s="2" customFormat="1">
       <c r="B81" s="88" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="C81" s="88" t="str">
         <f t="shared" si="72"/>
@@ -21843,7 +21871,7 @@
         <v>FF002204000026</v>
       </c>
       <c r="D82" s="88" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="E82" s="88" t="s">
         <v>897</v>
@@ -21900,7 +21928,7 @@
     </row>
     <row r="83" spans="2:20" s="2" customFormat="1">
       <c r="B83" s="88" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="C83" s="88" t="str">
         <f t="shared" si="72"/>
@@ -21964,7 +21992,7 @@
     </row>
     <row r="84" spans="2:20" s="2" customFormat="1">
       <c r="B84" s="88" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="C84" s="88" t="str">
         <f t="shared" si="72"/>
@@ -22220,7 +22248,7 @@
     </row>
     <row r="88" spans="2:20" s="2" customFormat="1">
       <c r="B88" s="88" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="C88" s="88" t="str">
         <f t="shared" si="72"/>
@@ -22284,7 +22312,7 @@
     </row>
     <row r="89" spans="2:20" s="2" customFormat="1">
       <c r="B89" s="88" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="C89" s="88" t="str">
         <f t="shared" si="72"/>
@@ -22743,7 +22771,7 @@
       </c>
       <c r="C96" s="88" t="str">
         <f t="shared" si="72"/>
-        <v>FF002300111145</v>
+        <v>FF002300000F32</v>
       </c>
       <c r="D96" s="88" t="s">
         <v>1015</v>
@@ -22776,27 +22804,27 @@
       </c>
       <c r="N96" s="88"/>
       <c r="O96" s="90" t="s">
-        <v>1113</v>
+        <v>1492</v>
       </c>
       <c r="P96" s="88" t="str">
         <f t="shared" si="67"/>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="Q96" s="88" t="str">
         <f t="shared" si="68"/>
-        <v>11</v>
+        <v>0F</v>
       </c>
       <c r="R96" s="88" t="str">
         <f t="shared" si="69"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="S96" s="88" t="str">
         <f t="shared" si="70"/>
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="T96" s="88" t="str">
         <f t="shared" si="71"/>
-        <v>FF002300111145</v>
+        <v>FF002300000F32</v>
       </c>
     </row>
     <row r="97" spans="2:20" s="2" customFormat="1">
@@ -22805,7 +22833,7 @@
       </c>
       <c r="C97" s="88" t="str">
         <f t="shared" si="72"/>
-        <v>FF002300110135</v>
+        <v>FF002300000D30</v>
       </c>
       <c r="D97" s="88" t="s">
         <v>1015</v>
@@ -22838,32 +22866,32 @@
       </c>
       <c r="N97" s="88"/>
       <c r="O97" s="90" t="s">
-        <v>1018</v>
+        <v>1493</v>
       </c>
       <c r="P97" s="88" t="str">
         <f t="shared" si="67"/>
-        <v>11</v>
+        <v>00</v>
       </c>
       <c r="Q97" s="88" t="str">
         <f t="shared" si="68"/>
-        <v>01</v>
+        <v>0D</v>
       </c>
       <c r="R97" s="88" t="str">
         <f t="shared" si="69"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S97" s="88" t="str">
         <f t="shared" si="70"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="T97" s="88" t="str">
         <f t="shared" si="71"/>
-        <v>FF002300110135</v>
+        <v>FF002300000D30</v>
       </c>
     </row>
     <row r="98" spans="2:20" s="2" customFormat="1">
       <c r="B98" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C98" s="88" t="str">
         <f t="shared" si="72"/>
@@ -22925,11 +22953,11 @@
     </row>
     <row r="99" spans="2:20" s="2" customFormat="1">
       <c r="B99" s="88" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C99" s="88" t="str">
         <f t="shared" si="72"/>
-        <v>FF002300101144</v>
+        <v>FF002300000B2E</v>
       </c>
       <c r="D99" s="88" t="s">
         <v>1015</v>
@@ -22962,32 +22990,32 @@
       </c>
       <c r="N99" s="88"/>
       <c r="O99" s="90" t="s">
-        <v>1022</v>
+        <v>1494</v>
       </c>
       <c r="P99" s="88" t="str">
         <f t="shared" si="67"/>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="Q99" s="88" t="str">
         <f t="shared" si="68"/>
-        <v>11</v>
+        <v>0B</v>
       </c>
       <c r="R99" s="88" t="str">
         <f t="shared" si="69"/>
-        <v>44</v>
+        <v>2E</v>
       </c>
       <c r="S99" s="88" t="str">
         <f t="shared" si="70"/>
-        <v>44</v>
+        <v>2E</v>
       </c>
       <c r="T99" s="88" t="str">
         <f t="shared" si="71"/>
-        <v>FF002300101144</v>
+        <v>FF002300000B2E</v>
       </c>
     </row>
     <row r="100" spans="2:20" s="2" customFormat="1">
       <c r="B100" s="88" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C100" s="88" t="str">
         <f t="shared" si="72"/>
@@ -23049,11 +23077,11 @@
     </row>
     <row r="101" spans="2:20" s="2" customFormat="1">
       <c r="B101" s="88" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C101" s="88" t="str">
         <f t="shared" si="72"/>
-        <v>FF002300011135</v>
+        <v>FF00230000072A</v>
       </c>
       <c r="D101" s="88" t="s">
         <v>1015</v>
@@ -23086,32 +23114,32 @@
       </c>
       <c r="N101" s="88"/>
       <c r="O101" s="90" t="s">
-        <v>1025</v>
+        <v>938</v>
       </c>
       <c r="P101" s="88" t="str">
         <f t="shared" si="67"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="Q101" s="88" t="str">
         <f t="shared" si="68"/>
-        <v>11</v>
+        <v>07</v>
       </c>
       <c r="R101" s="88" t="str">
         <f t="shared" si="69"/>
-        <v>35</v>
+        <v>2A</v>
       </c>
       <c r="S101" s="88" t="str">
         <f t="shared" si="70"/>
-        <v>35</v>
+        <v>2A</v>
       </c>
       <c r="T101" s="88" t="str">
         <f t="shared" si="71"/>
-        <v>FF002300011135</v>
+        <v>FF00230000072A</v>
       </c>
     </row>
     <row r="102" spans="2:20" s="2" customFormat="1">
       <c r="B102" s="88" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C102" s="88" t="str">
         <f t="shared" si="72"/>
@@ -23148,7 +23176,7 @@
       </c>
       <c r="N102" s="88"/>
       <c r="O102" s="90" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="P102" s="88" t="str">
         <f t="shared" si="67"/>
@@ -23173,14 +23201,14 @@
     </row>
     <row r="103" spans="2:20" s="2" customFormat="1">
       <c r="B103" s="88" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C103" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023018000A4</v>
       </c>
       <c r="D103" s="88" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E103" s="88" t="s">
         <v>897</v>
@@ -23238,14 +23266,14 @@
     </row>
     <row r="104" spans="2:20" s="2" customFormat="1">
       <c r="B104" s="88" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="C104" s="88" t="str">
         <f t="shared" ref="C104" si="73">T104</f>
         <v>FF002301000024</v>
       </c>
       <c r="D104" s="88" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E104" s="88" t="s">
         <v>897</v>
@@ -23303,14 +23331,14 @@
     </row>
     <row r="105" spans="2:20" s="2" customFormat="1">
       <c r="B105" s="88" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C105" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023018000A4</v>
       </c>
       <c r="D105" s="88" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E105" s="88" t="s">
         <v>897</v>
@@ -23368,14 +23396,14 @@
     </row>
     <row r="106" spans="2:20" s="2" customFormat="1">
       <c r="B106" s="88" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C106" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002302000A2F</v>
       </c>
       <c r="D106" s="88" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E106" s="88" t="s">
         <v>897</v>
@@ -23433,14 +23461,14 @@
     </row>
     <row r="107" spans="2:20" s="2" customFormat="1">
       <c r="B107" s="88" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="C107" s="88" t="str">
         <f t="shared" ref="C107" si="82">T107</f>
         <v>FF002302006287</v>
       </c>
       <c r="D107" s="88" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E107" s="88" t="s">
         <v>897</v>
@@ -23498,14 +23526,14 @@
     </row>
     <row r="108" spans="2:20" s="2" customFormat="1">
       <c r="B108" s="88" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C108" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002302006489</v>
       </c>
       <c r="D108" s="88" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E108" s="88" t="s">
         <v>897</v>
@@ -23563,14 +23591,14 @@
     </row>
     <row r="109" spans="2:20" s="2" customFormat="1" ht="94.5">
       <c r="B109" s="88" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C109" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002304000027</v>
       </c>
       <c r="D109" s="88" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E109" s="88" t="s">
         <v>897</v>
@@ -23579,7 +23607,7 @@
         <v>870</v>
       </c>
       <c r="G109" s="88" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="H109" s="89">
         <v>1</v>
@@ -23627,14 +23655,14 @@
     </row>
     <row r="110" spans="2:20" s="2" customFormat="1">
       <c r="B110" s="88" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C110" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002304000128</v>
       </c>
       <c r="D110" s="88" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E110" s="88" t="s">
         <v>897</v>
@@ -23691,14 +23719,14 @@
     </row>
     <row r="111" spans="2:20" s="2" customFormat="1">
       <c r="B111" s="88" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C111" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002310000033</v>
       </c>
       <c r="D111" s="88" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E111" s="88" t="s">
         <v>897</v>
@@ -23753,14 +23781,14 @@
     </row>
     <row r="112" spans="2:20" s="2" customFormat="1">
       <c r="B112" s="88" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C112" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002310000134</v>
       </c>
       <c r="D112" s="88" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E112" s="88" t="s">
         <v>897</v>
@@ -23815,14 +23843,14 @@
     </row>
     <row r="113" spans="2:20" s="2" customFormat="1">
       <c r="B113" s="88" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C113" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002310000033</v>
       </c>
       <c r="D113" s="88" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E113" s="88" t="s">
         <v>897</v>
@@ -23877,14 +23905,14 @@
     </row>
     <row r="114" spans="2:20" s="2" customFormat="1">
       <c r="B114" s="88" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C114" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002310001043</v>
       </c>
       <c r="D114" s="88" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E114" s="88" t="s">
         <v>897</v>
@@ -23914,7 +23942,7 @@
       </c>
       <c r="N114" s="88"/>
       <c r="O114" s="90" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="P114" s="88" t="str">
         <f t="shared" si="67"/>
@@ -23939,14 +23967,14 @@
     </row>
     <row r="115" spans="2:20" s="2" customFormat="1">
       <c r="B115" s="88" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C115" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002310000033</v>
       </c>
       <c r="D115" s="88" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E115" s="88" t="s">
         <v>897</v>
@@ -24001,14 +24029,14 @@
     </row>
     <row r="116" spans="2:20" s="2" customFormat="1">
       <c r="B116" s="88" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C116" s="88" t="str">
         <f t="shared" si="72"/>
-        <v>FF002310002053</v>
+        <v>FF002310020035</v>
       </c>
       <c r="D116" s="88" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E116" s="88" t="s">
         <v>897</v>
@@ -24038,39 +24066,39 @@
       </c>
       <c r="N116" s="88"/>
       <c r="O116" s="90" t="s">
-        <v>1044</v>
+        <v>1495</v>
       </c>
       <c r="P116" s="88" t="str">
         <f t="shared" si="67"/>
-        <v>00</v>
+        <v>02</v>
       </c>
       <c r="Q116" s="88" t="str">
         <f t="shared" si="68"/>
-        <v>20</v>
+        <v>00</v>
       </c>
       <c r="R116" s="88" t="str">
         <f t="shared" si="69"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="S116" s="88" t="str">
         <f t="shared" si="70"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="T116" s="88" t="str">
         <f t="shared" si="71"/>
-        <v>FF002310002053</v>
+        <v>FF002310020035</v>
       </c>
     </row>
     <row r="117" spans="2:20" s="2" customFormat="1">
       <c r="B117" s="88" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C117" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002311000034</v>
       </c>
       <c r="D117" s="88" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E117" s="88" t="s">
         <v>897</v>
@@ -24125,14 +24153,14 @@
     </row>
     <row r="118" spans="2:20" s="2" customFormat="1">
       <c r="B118" s="88" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C118" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002311000135</v>
       </c>
       <c r="D118" s="88" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E118" s="88" t="s">
         <v>897</v>
@@ -24187,14 +24215,14 @@
     </row>
     <row r="119" spans="2:20" s="2" customFormat="1">
       <c r="B119" s="88" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C119" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002311000034</v>
       </c>
       <c r="D119" s="88" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E119" s="88" t="s">
         <v>897</v>
@@ -24249,14 +24277,14 @@
     </row>
     <row r="120" spans="2:20" s="2" customFormat="1">
       <c r="B120" s="88" t="s">
-        <v>1049</v>
+        <v>1496</v>
       </c>
       <c r="C120" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002311000236</v>
       </c>
       <c r="D120" s="88" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E120" s="88" t="s">
         <v>897</v>
@@ -24311,14 +24339,14 @@
     </row>
     <row r="121" spans="2:20" s="2" customFormat="1">
       <c r="B121" s="88" t="s">
-        <v>1050</v>
+        <v>1497</v>
       </c>
       <c r="C121" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002311000034</v>
       </c>
       <c r="D121" s="88" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E121" s="88" t="s">
         <v>897</v>
@@ -24373,14 +24401,14 @@
     </row>
     <row r="122" spans="2:20" s="2" customFormat="1">
       <c r="B122" s="88" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C122" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002311000438</v>
       </c>
       <c r="D122" s="88" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E122" s="88" t="s">
         <v>897</v>
@@ -24435,14 +24463,14 @@
     </row>
     <row r="123" spans="2:20" s="2" customFormat="1">
       <c r="B123" s="88" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C123" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002320000A4D</v>
       </c>
       <c r="D123" s="88" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E123" s="88" t="s">
         <v>897</v>
@@ -24500,14 +24528,14 @@
     </row>
     <row r="124" spans="2:20" s="2" customFormat="1">
       <c r="B124" s="88" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C124" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002321000A4E</v>
       </c>
       <c r="D124" s="88" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E124" s="88" t="s">
         <v>897</v>
@@ -24565,14 +24593,14 @@
     </row>
     <row r="125" spans="2:20" s="2" customFormat="1">
       <c r="B125" s="88" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C125" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023220275BC</v>
       </c>
       <c r="D125" s="88" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="E125" s="88" t="s">
         <v>897</v>
@@ -24630,14 +24658,14 @@
     </row>
     <row r="126" spans="2:20" s="2" customFormat="1">
       <c r="B126" s="88" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C126" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF00232301D51C</v>
       </c>
       <c r="D126" s="88" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="E126" s="88" t="s">
         <v>897</v>
@@ -24695,14 +24723,14 @@
     </row>
     <row r="127" spans="2:20" s="2" customFormat="1" ht="27">
       <c r="B127" s="88" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="C127" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023248001C8</v>
       </c>
       <c r="D127" s="88" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="E127" s="88" t="s">
         <v>897</v>
@@ -24760,14 +24788,14 @@
     </row>
     <row r="128" spans="2:20" s="2" customFormat="1" ht="27">
       <c r="B128" s="88" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C128" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023247FFFC5</v>
       </c>
       <c r="D128" s="88" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="E128" s="88" t="s">
         <v>897</v>
@@ -24825,14 +24853,14 @@
     </row>
     <row r="129" spans="2:20" s="2" customFormat="1">
       <c r="B129" s="88" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C129" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002325000048</v>
       </c>
       <c r="D129" s="88" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E129" s="88" t="s">
         <v>897</v>
@@ -24887,14 +24915,14 @@
     </row>
     <row r="130" spans="2:20" s="2" customFormat="1">
       <c r="B130" s="88" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C130" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002325000149</v>
       </c>
       <c r="D130" s="88" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E130" s="88" t="s">
         <v>897</v>
@@ -24949,14 +24977,14 @@
     </row>
     <row r="131" spans="2:20" s="2" customFormat="1">
       <c r="B131" s="88" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C131" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF00232500024A</v>
       </c>
       <c r="D131" s="88" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E131" s="88" t="s">
         <v>897</v>
@@ -25011,14 +25039,14 @@
     </row>
     <row r="132" spans="2:20" s="2" customFormat="1">
       <c r="B132" s="88" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C132" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002326000049</v>
       </c>
       <c r="D132" s="88" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E132" s="88" t="s">
         <v>897</v>
@@ -25073,14 +25101,14 @@
     </row>
     <row r="133" spans="2:20" s="2" customFormat="1">
       <c r="B133" s="88" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C133" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF002326000A53</v>
       </c>
       <c r="D133" s="88" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E133" s="88" t="s">
         <v>897</v>
@@ -25138,14 +25166,14 @@
     </row>
     <row r="134" spans="2:20" s="2" customFormat="1">
       <c r="B134" s="88" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C134" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023B0000ADD</v>
       </c>
       <c r="D134" s="88" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E134" s="88" t="s">
         <v>897</v>
@@ -25203,14 +25231,14 @@
     </row>
     <row r="135" spans="2:20" s="2" customFormat="1">
       <c r="B135" s="88" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C135" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023B1000ADE</v>
       </c>
       <c r="D135" s="88" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E135" s="88" t="s">
         <v>897</v>
@@ -25268,14 +25296,14 @@
     </row>
     <row r="136" spans="2:20" s="2" customFormat="1">
       <c r="B136" s="88" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C136" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023B202754C</v>
       </c>
       <c r="D136" s="88" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E136" s="88" t="s">
         <v>897</v>
@@ -25333,14 +25361,14 @@
     </row>
     <row r="137" spans="2:20" s="2" customFormat="1">
       <c r="B137" s="88" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C137" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023B301D5AC</v>
       </c>
       <c r="D137" s="88" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E137" s="88" t="s">
         <v>897</v>
@@ -25398,14 +25426,14 @@
     </row>
     <row r="138" spans="2:20" s="2" customFormat="1" ht="27">
       <c r="B138" s="88" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C138" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023B4800158</v>
       </c>
       <c r="D138" s="88" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E138" s="88" t="s">
         <v>897</v>
@@ -25463,14 +25491,14 @@
     </row>
     <row r="139" spans="2:20" s="2" customFormat="1" ht="27">
       <c r="B139" s="88" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C139" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023B47FFF55</v>
       </c>
       <c r="D139" s="88" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E139" s="88" t="s">
         <v>897</v>
@@ -25528,14 +25556,14 @@
     </row>
     <row r="140" spans="2:20" s="2" customFormat="1">
       <c r="B140" s="88" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C140" s="88" t="str">
         <f t="shared" si="72"/>
         <v>FF0023B50000D8</v>
       </c>
       <c r="D140" s="88" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E140" s="88" t="s">
         <v>897</v>
@@ -25590,14 +25618,14 @@
     </row>
     <row r="141" spans="2:20" s="2" customFormat="1">
       <c r="B141" s="88" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C141" s="88" t="str">
         <f t="shared" ref="C141:C156" si="101">T141</f>
         <v>FF0023B50001D9</v>
       </c>
       <c r="D141" s="88" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E141" s="88" t="s">
         <v>897</v>
@@ -25652,14 +25680,14 @@
     </row>
     <row r="142" spans="2:20" s="2" customFormat="1">
       <c r="B142" s="88" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C142" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023B50002DA</v>
       </c>
       <c r="D142" s="88" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E142" s="88" t="s">
         <v>897</v>
@@ -25714,14 +25742,14 @@
     </row>
     <row r="143" spans="2:20" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B143" s="88" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C143" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023B60000D9</v>
       </c>
       <c r="D143" s="88" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E143" s="88" t="s">
         <v>897</v>
@@ -25776,14 +25804,14 @@
     </row>
     <row r="144" spans="2:20" s="2" customFormat="1">
       <c r="B144" s="88" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C144" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023B6000AE3</v>
       </c>
       <c r="D144" s="88" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E144" s="88" t="s">
         <v>897</v>
@@ -25827,7 +25855,7 @@
         <v>0A</v>
       </c>
       <c r="R144" s="88" t="str">
-        <f t="shared" si="97"/>
+        <f>DEC2HEX(SUM(HEX2DEC(L144), HEX2DEC(M144), HEX2DEC(P144), HEX2DEC(Q144)))</f>
         <v>E3</v>
       </c>
       <c r="S144" s="88" t="str">
@@ -25841,14 +25869,14 @@
     </row>
     <row r="145" spans="2:20" s="2" customFormat="1">
       <c r="B145" s="88" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="C145" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023C0000AED</v>
       </c>
       <c r="D145" s="88" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E145" s="88" t="s">
         <v>897</v>
@@ -25906,14 +25934,14 @@
     </row>
     <row r="146" spans="2:20" s="2" customFormat="1">
       <c r="B146" s="88" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C146" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023C1000AEE</v>
       </c>
       <c r="D146" s="88" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="E146" s="88" t="s">
         <v>897</v>
@@ -25971,14 +25999,14 @@
     </row>
     <row r="147" spans="2:20" s="2" customFormat="1">
       <c r="B147" s="88" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C147" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023C202755C</v>
       </c>
       <c r="D147" s="88" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E147" s="88" t="s">
         <v>897</v>
@@ -26036,14 +26064,14 @@
     </row>
     <row r="148" spans="2:20" s="2" customFormat="1">
       <c r="B148" s="88" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="C148" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023C301D5BC</v>
       </c>
       <c r="D148" s="88" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E148" s="88" t="s">
         <v>897</v>
@@ -26101,14 +26129,14 @@
     </row>
     <row r="149" spans="2:20" s="2" customFormat="1">
       <c r="B149" s="88" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C149" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023D0000AFD</v>
       </c>
       <c r="D149" s="88" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E149" s="88" t="s">
         <v>897</v>
@@ -26166,14 +26194,14 @@
     </row>
     <row r="150" spans="2:20" s="2" customFormat="1">
       <c r="B150" s="88" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C150" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023D1000AFE</v>
       </c>
       <c r="D150" s="88" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E150" s="88" t="s">
         <v>897</v>
@@ -26231,14 +26259,14 @@
     </row>
     <row r="151" spans="2:20" s="2" customFormat="1">
       <c r="B151" s="88" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="C151" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023D202756C</v>
       </c>
       <c r="D151" s="88" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="E151" s="88" t="s">
         <v>897</v>
@@ -26296,14 +26324,14 @@
     </row>
     <row r="152" spans="2:20" s="2" customFormat="1">
       <c r="B152" s="88" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="C152" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023D301D5CC</v>
       </c>
       <c r="D152" s="88" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E152" s="88" t="s">
         <v>897</v>
@@ -26361,14 +26389,14 @@
     </row>
     <row r="153" spans="2:20" s="2" customFormat="1">
       <c r="B153" s="88" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C153" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023E0000A0D</v>
       </c>
       <c r="D153" s="88" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="E153" s="88" t="s">
         <v>897</v>
@@ -26426,14 +26454,14 @@
     </row>
     <row r="154" spans="2:20" s="2" customFormat="1">
       <c r="B154" s="88" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="C154" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023E1000A0E</v>
       </c>
       <c r="D154" s="88" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="E154" s="88" t="s">
         <v>897</v>
@@ -26491,14 +26519,14 @@
     </row>
     <row r="155" spans="2:20" s="2" customFormat="1">
       <c r="B155" s="88" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C155" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023E202757C</v>
       </c>
       <c r="D155" s="88" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E155" s="88" t="s">
         <v>897</v>
@@ -26556,14 +26584,14 @@
     </row>
     <row r="156" spans="2:20" s="2" customFormat="1">
       <c r="B156" s="88" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="C156" s="88" t="str">
         <f t="shared" si="101"/>
         <v>FF0023E301D5DC</v>
       </c>
       <c r="D156" s="105" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="E156" s="105" t="s">
         <v>897</v>
@@ -26621,7 +26649,7 @@
     </row>
     <row r="157" spans="2:20">
       <c r="B157" s="88" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="C157" s="104" t="s">
         <v>183</v>
@@ -26705,7 +26733,7 @@
         <v>36</v>
       </c>
       <c r="H2" s="120" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="I2" s="120" t="s">
         <v>32</v>
@@ -26734,14 +26762,14 @@
     </row>
     <row r="3" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B3" s="101" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="C3" s="112" t="str">
         <f t="shared" ref="C3:C17" si="0">"FF00"&amp;D3&amp;E3&amp;""&amp;F3&amp;G3&amp;H3</f>
         <v>FF00F1000001F2</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="E3" s="68" t="s">
         <v>16</v>
@@ -26784,19 +26812,19 @@
         <v>F2</v>
       </c>
       <c r="P3" s="72" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="4" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B4" s="102" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="C4" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00F1000000F1</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="E4" s="67" t="s">
         <v>16</v>
@@ -26839,19 +26867,19 @@
         <v>F1</v>
       </c>
       <c r="P4" s="72" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="5" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B5" s="102" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="C5" s="113" t="str">
         <f t="shared" ref="C5" si="8">"FF00"&amp;D5&amp;E5&amp;""&amp;F5&amp;G5&amp;H5</f>
         <v>FF00FA000000FA</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="E5" s="67" t="s">
         <v>16</v>
@@ -26894,19 +26922,19 @@
         <v>FA</v>
       </c>
       <c r="P5" s="72" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="6" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B6" s="102" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="C6" s="113" t="str">
         <f t="shared" ref="C6" si="16">"FF00"&amp;D6&amp;E6&amp;""&amp;F6&amp;G6&amp;H6</f>
         <v>FF00FA000001FB</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="E6" s="67" t="s">
         <v>16</v>
@@ -26949,19 +26977,19 @@
         <v>FB</v>
       </c>
       <c r="P6" s="72" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="7" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B7" s="102" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="C7" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FB000000FB</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="E7" s="67" t="s">
         <v>16</v>
@@ -27004,19 +27032,19 @@
         <v>FB</v>
       </c>
       <c r="P7" s="72" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="8" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="102" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="C8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FB0000504B</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="E8" s="67" t="s">
         <v>16</v>
@@ -27059,19 +27087,19 @@
         <v>4B</v>
       </c>
       <c r="P8" s="72" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="9" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B9" s="102" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="C9" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FB0000FFFA</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="E9" s="67" t="s">
         <v>16</v>
@@ -27114,19 +27142,19 @@
         <v>FA</v>
       </c>
       <c r="P9" s="72" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="10" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B10" s="102" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="C10" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FC000001FD</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="E10" s="67" t="s">
         <v>16</v>
@@ -27135,7 +27163,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="H10" s="14" t="str">
         <f t="shared" si="1"/>
@@ -27169,19 +27197,19 @@
         <v>FD</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B11" s="102" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="C11" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FC00001410</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="E11" s="67" t="s">
         <v>16</v>
@@ -27224,19 +27252,19 @@
         <v>10</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="12" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B12" s="102" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="C12" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FC00003C38</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="E12" s="67" t="s">
         <v>16</v>
@@ -27245,7 +27273,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="1"/>
@@ -27279,19 +27307,19 @@
         <v>38</v>
       </c>
       <c r="P12" s="72" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="13" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B13" s="102" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="C13" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FD000000FD</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>16</v>
@@ -27334,19 +27362,19 @@
         <v>FD</v>
       </c>
       <c r="P13" s="72" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B14" s="102" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="C14" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FD0000322F</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="E14" s="67" t="s">
         <v>16</v>
@@ -27355,7 +27383,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="67" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="1"/>
@@ -27389,19 +27417,19 @@
         <v>2F</v>
       </c>
       <c r="P14" s="72" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="15" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B15" s="102" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="C15" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FD00006461</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="E15" s="67" t="s">
         <v>16</v>
@@ -27444,19 +27472,19 @@
         <v>61</v>
       </c>
       <c r="P15" s="72" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="16" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B16" s="102" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="C16" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FE000000FE</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="E16" s="67" t="s">
         <v>16</v>
@@ -27499,19 +27527,19 @@
         <v>FE</v>
       </c>
       <c r="P16" s="72" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="17" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B17" s="102" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="C17" s="113" t="str">
         <f t="shared" si="0"/>
         <v>FF00FE00003C3A</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="E17" s="67" t="s">
         <v>16</v>
@@ -27520,7 +27548,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="1"/>
@@ -27554,19 +27582,19 @@
         <v>3A</v>
       </c>
       <c r="P17" s="72" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="18" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B18" s="102" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="C18" s="113" t="str">
         <f t="shared" ref="C18:C30" si="24">"FF00"&amp;D18&amp;E18&amp;""&amp;F18&amp;G18&amp;H18</f>
         <v>FF00FE00009694</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="E18" s="67" t="s">
         <v>16</v>
@@ -27575,7 +27603,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" ref="H18:H30" si="25">O18</f>
@@ -27609,19 +27637,19 @@
         <v>94</v>
       </c>
       <c r="P18" s="72" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="19" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B19" s="102" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="C19" s="113" t="str">
         <f t="shared" si="24"/>
         <v>FF00F6000001F7</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="E19" s="67" t="s">
         <v>16</v>
@@ -27664,20 +27692,20 @@
         <v>F7</v>
       </c>
       <c r="P19" s="72" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="Q19" s="110"/>
     </row>
     <row r="20" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B20" s="102" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="C20" s="113" t="str">
         <f t="shared" si="24"/>
         <v>FF00F6000002F8</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="E20" s="67" t="s">
         <v>16</v>
@@ -27720,19 +27748,19 @@
         <v>F8</v>
       </c>
       <c r="P20" s="72" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="21" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B21" s="102" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="C21" s="113" t="str">
         <f t="shared" si="24"/>
         <v>FF00F5000000F5</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="E21" s="67" t="s">
         <v>16</v>
@@ -27775,19 +27803,19 @@
         <v>F5</v>
       </c>
       <c r="P21" s="72" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B22" s="102" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="C22" s="113" t="str">
         <f t="shared" si="24"/>
         <v>FF00F50000968B</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="E22" s="67" t="s">
         <v>16</v>
@@ -27796,7 +27824,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="67" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="H22" s="14" t="str">
         <f t="shared" si="25"/>
@@ -27830,19 +27858,19 @@
         <v>8B</v>
       </c>
       <c r="P22" s="72" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="23" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B23" s="102" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="C23" s="113" t="str">
         <f t="shared" ref="C23:C25" si="32">"FF00"&amp;D23&amp;E23&amp;""&amp;F23&amp;G23&amp;H23</f>
         <v>FF00F500012C22</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="E23" s="67" t="s">
         <v>16</v>
@@ -27851,7 +27879,7 @@
         <v>24</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="H23" s="14" t="str">
         <f t="shared" ref="H23:H25" si="33">O23</f>
@@ -27885,12 +27913,12 @@
         <v>22</v>
       </c>
       <c r="P23" s="72" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="24" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B24" s="102" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="C24" s="113" t="str">
         <f t="shared" ref="C24" si="40">"FF00"&amp;D24&amp;E24&amp;""&amp;F24&amp;G24&amp;H24</f>
@@ -27906,7 +27934,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="67" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="H24" s="14" t="str">
         <f t="shared" ref="H24" si="41">O24</f>
@@ -27940,12 +27968,12 @@
         <v>E3</v>
       </c>
       <c r="P24" s="72" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="25" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B25" s="102" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="C25" s="113" t="str">
         <f t="shared" si="32"/>
@@ -27995,12 +28023,12 @@
         <v>45</v>
       </c>
       <c r="P25" s="72" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="26" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="B26" s="103" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="C26" s="114" t="str">
         <f t="shared" si="24"/>
@@ -28016,7 +28044,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="H26" s="36" t="str">
         <f t="shared" si="25"/>
@@ -28050,19 +28078,19 @@
         <v>A9</v>
       </c>
       <c r="P26" s="72" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="27" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B27" s="116" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="C27" s="115" t="str">
         <f t="shared" ref="C27:C28" si="48">"FF00"&amp;D27&amp;E27&amp;""&amp;F27&amp;G27&amp;H27</f>
         <v>FF00B0000001B1</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="E27" s="111" t="s">
         <v>16</v>
@@ -28105,19 +28133,19 @@
         <v>B1</v>
       </c>
       <c r="P27" s="72" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="28" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B28" s="102" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="C28" s="113" t="str">
         <f t="shared" si="48"/>
         <v>FF00B0000000B0</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="E28" s="67" t="s">
         <v>16</v>
@@ -28160,12 +28188,12 @@
         <v>B0</v>
       </c>
       <c r="P28" s="72" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B29" s="116" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="C29" s="115" t="str">
         <f t="shared" si="24"/>
@@ -28215,12 +28243,12 @@
         <v>B2</v>
       </c>
       <c r="P29" s="72" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="30" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B30" s="102" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="C30" s="113" t="str">
         <f t="shared" si="24"/>
@@ -28270,12 +28298,12 @@
         <v>B1</v>
       </c>
       <c r="P30" s="72" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="31" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B31" s="102" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="C31" s="113" t="str">
         <f t="shared" ref="C31:C34" si="55">"FF00"&amp;D31&amp;E31&amp;""&amp;F31&amp;G31&amp;H31</f>
@@ -28325,12 +28353,12 @@
         <v>B3</v>
       </c>
       <c r="P31" s="72" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="32" spans="2:17" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B32" s="102" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="C32" s="113" t="str">
         <f t="shared" si="55"/>
@@ -28380,19 +28408,19 @@
         <v>B2</v>
       </c>
       <c r="P32" s="72" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="33" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B33" s="102" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="C33" s="113" t="str">
         <f t="shared" si="55"/>
         <v>FF00B3000001B4</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="E33" s="67" t="s">
         <v>16</v>
@@ -28435,19 +28463,19 @@
         <v>B4</v>
       </c>
       <c r="P33" s="72" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="34" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B34" s="102" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="C34" s="113" t="str">
         <f t="shared" si="55"/>
         <v>FF00B3000000B3</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="E34" s="67" t="s">
         <v>16</v>
@@ -28490,12 +28518,12 @@
         <v>B3</v>
       </c>
       <c r="P34" s="72" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="35" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B35" s="102" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="C35" s="113" t="str">
         <f t="shared" ref="C35:C36" si="63">"FF00"&amp;D35&amp;E35&amp;""&amp;F35&amp;G35&amp;H35</f>
@@ -28545,12 +28573,12 @@
         <v>B4</v>
       </c>
       <c r="P35" s="72" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="36" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B36" s="102" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="C36" s="113" t="str">
         <f t="shared" si="63"/>
@@ -28600,12 +28628,12 @@
         <v>B5</v>
       </c>
       <c r="P36" s="72" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="37" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B37" s="102" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="C37" s="113" t="str">
         <f t="shared" ref="C37" si="71">"FF00"&amp;D37&amp;E37&amp;""&amp;F37&amp;G37&amp;H37</f>
@@ -28655,19 +28683,19 @@
         <v>B6</v>
       </c>
       <c r="P37" s="72" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="38" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B38" s="102" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="C38" s="113" t="str">
         <f t="shared" ref="C38" si="78">"FF00"&amp;D38&amp;E38&amp;""&amp;F38&amp;G38&amp;H38</f>
         <v>FF00B5000000B5</v>
       </c>
       <c r="D38" s="67" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="E38" s="67" t="s">
         <v>16</v>
@@ -28710,19 +28738,19 @@
         <v>B5</v>
       </c>
       <c r="P38" s="72" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="39" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B39" s="102" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="C39" s="113" t="str">
         <f t="shared" ref="C39:C64" si="85">"FF00"&amp;D39&amp;E39&amp;""&amp;F39&amp;G39&amp;H39</f>
         <v>FF00B5000005BA</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="E39" s="67" t="s">
         <v>16</v>
@@ -28765,19 +28793,19 @@
         <v>BA</v>
       </c>
       <c r="P39" s="72" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="40" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B40" s="102" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="C40" s="113" t="str">
         <f t="shared" si="85"/>
         <v>FF00B500000ABF</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="E40" s="67" t="s">
         <v>16</v>
@@ -28820,19 +28848,19 @@
         <v>BF</v>
       </c>
       <c r="P40" s="72" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="41" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B41" s="102" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="C41" s="113" t="str">
         <f t="shared" ref="C41:C56" si="92">"FF00"&amp;D41&amp;E41&amp;""&amp;F41&amp;G41&amp;H41</f>
         <v>FF00B7000000B7</v>
       </c>
       <c r="D41" s="67" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="E41" s="67" t="s">
         <v>16</v>
@@ -28875,19 +28903,19 @@
         <v>B7</v>
       </c>
       <c r="P41" s="72" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="42" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B42" s="102" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="C42" s="113" t="str">
         <f t="shared" si="92"/>
         <v>FF00B7000005BC</v>
       </c>
       <c r="D42" s="67" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="E42" s="67" t="s">
         <v>16</v>
@@ -28930,19 +28958,19 @@
         <v>BC</v>
       </c>
       <c r="P42" s="72" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="43" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B43" s="102" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="C43" s="113" t="str">
         <f t="shared" si="92"/>
         <v>FF00B700000AC1</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="E43" s="67" t="s">
         <v>16</v>
@@ -28985,19 +29013,19 @@
         <v>C1</v>
       </c>
       <c r="P43" s="72" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="44" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B44" s="102" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="C44" s="113" t="str">
         <f t="shared" si="92"/>
         <v>FF00B8000001B9</v>
       </c>
       <c r="D44" s="67" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="E44" s="67" t="s">
         <v>16</v>
@@ -29040,19 +29068,19 @@
         <v>B9</v>
       </c>
       <c r="P44" s="72" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="45" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="B45" s="103" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="C45" s="114" t="str">
         <f t="shared" si="92"/>
         <v>FF00B8000000B8</v>
       </c>
       <c r="D45" s="69" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="E45" s="69" t="s">
         <v>16</v>
@@ -29095,19 +29123,19 @@
         <v>B8</v>
       </c>
       <c r="P45" s="72" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="46" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B46" s="101" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="C46" s="112" t="str">
         <f t="shared" ref="C46:C53" si="99">"FF00"&amp;D46&amp;E46&amp;""&amp;F46&amp;G46&amp;H46</f>
         <v>FF00C0000001C1</v>
       </c>
       <c r="D46" s="68" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E46" s="68" t="s">
         <v>16</v>
@@ -29150,19 +29178,19 @@
         <v>C1</v>
       </c>
       <c r="P46" s="72" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="47" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B47" s="102" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="C47" s="113" t="str">
         <f t="shared" si="99"/>
         <v>FF00C0000002C2</v>
       </c>
       <c r="D47" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E47" s="67" t="s">
         <v>16</v>
@@ -29171,7 +29199,7 @@
         <v>16</v>
       </c>
       <c r="G47" s="67" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="H47" s="14" t="str">
         <f t="shared" si="100"/>
@@ -29205,19 +29233,19 @@
         <v>C2</v>
       </c>
       <c r="P47" s="72" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="48" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B48" s="102" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="C48" s="113" t="str">
         <f t="shared" si="99"/>
         <v>FF00C0000003C3</v>
       </c>
       <c r="D48" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E48" s="67" t="s">
         <v>16</v>
@@ -29226,7 +29254,7 @@
         <v>16</v>
       </c>
       <c r="G48" s="67" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="H48" s="14" t="str">
         <f t="shared" si="100"/>
@@ -29260,19 +29288,19 @@
         <v>C3</v>
       </c>
       <c r="P48" s="72" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="49" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B49" s="102" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="C49" s="113" t="str">
         <f t="shared" si="99"/>
         <v>FF00C0000004C4</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E49" s="67" t="s">
         <v>16</v>
@@ -29281,7 +29309,7 @@
         <v>16</v>
       </c>
       <c r="G49" s="67" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="H49" s="14" t="str">
         <f t="shared" si="100"/>
@@ -29315,19 +29343,19 @@
         <v>C4</v>
       </c>
       <c r="P49" s="72" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="50" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B50" s="102" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="C50" s="113" t="str">
         <f t="shared" si="99"/>
         <v>FF00C0000005C5</v>
       </c>
       <c r="D50" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E50" s="67" t="s">
         <v>16</v>
@@ -29336,7 +29364,7 @@
         <v>16</v>
       </c>
       <c r="G50" s="67" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="H50" s="14" t="str">
         <f t="shared" si="100"/>
@@ -29370,19 +29398,19 @@
         <v>C5</v>
       </c>
       <c r="P50" s="72" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="51" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B51" s="102" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="C51" s="113" t="str">
         <f t="shared" si="99"/>
         <v>FF00C0000006C6</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E51" s="67" t="s">
         <v>16</v>
@@ -29391,7 +29419,7 @@
         <v>16</v>
       </c>
       <c r="G51" s="67" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="H51" s="14" t="str">
         <f t="shared" si="100"/>
@@ -29425,19 +29453,19 @@
         <v>C6</v>
       </c>
       <c r="P51" s="72" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="52" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B52" s="102" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="C52" s="113" t="str">
         <f t="shared" si="99"/>
         <v>FF00C0000007C7</v>
       </c>
       <c r="D52" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E52" s="67" t="s">
         <v>16</v>
@@ -29446,7 +29474,7 @@
         <v>16</v>
       </c>
       <c r="G52" s="67" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="H52" s="14" t="str">
         <f t="shared" si="100"/>
@@ -29480,19 +29508,19 @@
         <v>C7</v>
       </c>
       <c r="P52" s="72" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="53" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B53" s="102" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="C53" s="113" t="str">
         <f t="shared" si="99"/>
         <v>FF00C0000008C8</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="E53" s="67" t="s">
         <v>16</v>
@@ -29501,7 +29529,7 @@
         <v>16</v>
       </c>
       <c r="G53" s="67" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="H53" s="14" t="str">
         <f t="shared" si="100"/>
@@ -29535,19 +29563,19 @@
         <v>C8</v>
       </c>
       <c r="P53" s="72" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="54" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B54" s="116" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="C54" s="115" t="str">
         <f t="shared" si="92"/>
         <v>FF00C1000000C1</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E54" s="111" t="s">
         <v>16</v>
@@ -29590,19 +29618,19 @@
         <v>C1</v>
       </c>
       <c r="P54" s="72" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="55" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B55" s="102" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="C55" s="113" t="str">
         <f t="shared" si="92"/>
         <v>FF00C1000001C2</v>
       </c>
       <c r="D55" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E55" s="67" t="s">
         <v>16</v>
@@ -29645,19 +29673,19 @@
         <v>C2</v>
       </c>
       <c r="P55" s="72" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="56" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B56" s="102" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="C56" s="113" t="str">
         <f t="shared" si="92"/>
         <v>FF00C1000002C3</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E56" s="67" t="s">
         <v>16</v>
@@ -29666,7 +29694,7 @@
         <v>16</v>
       </c>
       <c r="G56" s="111" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="H56" s="14" t="str">
         <f t="shared" si="93"/>
@@ -29700,19 +29728,19 @@
         <v>C3</v>
       </c>
       <c r="P56" s="72" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="57" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B57" s="102" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="C57" s="113" t="str">
         <f t="shared" si="85"/>
         <v>FF00C1000003C4</v>
       </c>
       <c r="D57" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E57" s="67" t="s">
         <v>16</v>
@@ -29721,7 +29749,7 @@
         <v>16</v>
       </c>
       <c r="G57" s="67" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="H57" s="14" t="str">
         <f t="shared" si="86"/>
@@ -29755,19 +29783,19 @@
         <v>C4</v>
       </c>
       <c r="P57" s="72" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="58" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B58" s="102" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="C58" s="113" t="str">
         <f t="shared" si="85"/>
         <v>FF00C1000004C5</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E58" s="67" t="s">
         <v>16</v>
@@ -29776,7 +29804,7 @@
         <v>16</v>
       </c>
       <c r="G58" s="111" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="H58" s="14" t="str">
         <f t="shared" si="86"/>
@@ -29810,19 +29838,19 @@
         <v>C5</v>
       </c>
       <c r="P58" s="72" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="59" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B59" s="102" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="C59" s="113" t="str">
         <f t="shared" ref="C59:C60" si="104">"FF00"&amp;D59&amp;E59&amp;""&amp;F59&amp;G59&amp;H59</f>
         <v>FF00C1000005C6</v>
       </c>
       <c r="D59" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E59" s="67" t="s">
         <v>16</v>
@@ -29831,7 +29859,7 @@
         <v>16</v>
       </c>
       <c r="G59" s="67" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="H59" s="14" t="str">
         <f t="shared" ref="H59:H60" si="105">O59</f>
@@ -29865,19 +29893,19 @@
         <v>C6</v>
       </c>
       <c r="P59" s="72" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="60" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B60" s="102" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="C60" s="113" t="str">
         <f t="shared" si="104"/>
         <v>FF00C1000006C7</v>
       </c>
       <c r="D60" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E60" s="67" t="s">
         <v>16</v>
@@ -29886,7 +29914,7 @@
         <v>16</v>
       </c>
       <c r="G60" s="111" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="H60" s="14" t="str">
         <f t="shared" si="105"/>
@@ -29920,19 +29948,19 @@
         <v>C7</v>
       </c>
       <c r="P60" s="72" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="61" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B61" s="102" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="C61" s="113" t="str">
         <f t="shared" ref="C61:C62" si="111">"FF00"&amp;D61&amp;E61&amp;""&amp;F61&amp;G61&amp;H61</f>
         <v>FF00C1000007C8</v>
       </c>
       <c r="D61" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E61" s="67" t="s">
         <v>16</v>
@@ -29941,7 +29969,7 @@
         <v>16</v>
       </c>
       <c r="G61" s="67" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="H61" s="14" t="str">
         <f t="shared" ref="H61:H62" si="112">O61</f>
@@ -29975,19 +30003,19 @@
         <v>C8</v>
       </c>
       <c r="P61" s="72" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="62" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B62" s="102" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="C62" s="113" t="str">
         <f t="shared" si="111"/>
         <v>FF00C1000008C9</v>
       </c>
       <c r="D62" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E62" s="67" t="s">
         <v>16</v>
@@ -29996,7 +30024,7 @@
         <v>16</v>
       </c>
       <c r="G62" s="111" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="H62" s="14" t="str">
         <f t="shared" si="112"/>
@@ -30030,19 +30058,19 @@
         <v>C9</v>
       </c>
       <c r="P62" s="72" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="63" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B63" s="102" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="C63" s="113" t="str">
         <f t="shared" si="85"/>
         <v>FF00C1000009CA</v>
       </c>
       <c r="D63" s="117" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="E63" s="67" t="s">
         <v>16</v>
@@ -30051,7 +30079,7 @@
         <v>16</v>
       </c>
       <c r="G63" s="67" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="H63" s="14" t="str">
         <f t="shared" si="86"/>
@@ -30085,19 +30113,19 @@
         <v>CA</v>
       </c>
       <c r="P63" s="72" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="64" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B64" s="102" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="C64" s="113" t="str">
         <f t="shared" si="85"/>
         <v>FF00C2000000C2</v>
       </c>
       <c r="D64" s="67" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="E64" s="67" t="s">
         <v>16</v>
@@ -30140,19 +30168,19 @@
         <v>C2</v>
       </c>
       <c r="P64" s="72" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="65" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B65" s="102" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="C65" s="113" t="str">
         <f t="shared" ref="C65:C68" si="118">"FF00"&amp;D65&amp;E65&amp;""&amp;F65&amp;G65&amp;H65</f>
         <v>FF00C2000001C3</v>
       </c>
       <c r="D65" s="67" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="E65" s="67" t="s">
         <v>16</v>
@@ -30195,19 +30223,19 @@
         <v>C3</v>
       </c>
       <c r="P65" s="72" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="66" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B66" s="102" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="C66" s="113" t="str">
         <f t="shared" si="118"/>
         <v>FF00C3000001C4</v>
       </c>
       <c r="D66" s="67" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="E66" s="67" t="s">
         <v>16</v>
@@ -30250,19 +30278,19 @@
         <v>C4</v>
       </c>
       <c r="P66" s="72" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="67" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="B67" s="102" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="C67" s="113" t="str">
         <f t="shared" si="118"/>
         <v>FF00C3000000C3</v>
       </c>
       <c r="D67" s="67" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="E67" s="67" t="s">
         <v>16</v>
@@ -30305,19 +30333,19 @@
         <v>C3</v>
       </c>
       <c r="P67" s="72" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="68" spans="2:16" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="B68" s="103" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="C68" s="114" t="str">
         <f t="shared" si="118"/>
         <v>FF00C4000000C4</v>
       </c>
       <c r="D68" s="69" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="E68" s="69" t="s">
         <v>16</v>
@@ -30360,7 +30388,7 @@
         <v>C4</v>
       </c>
       <c r="P68" s="72" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
     </row>
   </sheetData>
@@ -34740,10 +34768,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94EB275-FA34-45A8-B46C-8DC3CCB3E735}">
-  <dimension ref="B1:H65"/>
+  <dimension ref="B1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -34755,6 +34783,7 @@
     <col min="5" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="27.109375" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -34762,7 +34791,7 @@
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
       <c r="H1" s="80" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="2:8" s="2" customFormat="1">
@@ -34773,13 +34802,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="F2" s="86" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="G2" s="86" t="s">
         <v>311</v>
@@ -34790,221 +34819,221 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="88" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="C3" s="88" t="str">
         <f t="shared" ref="C3:C12" si="0">IF(G3="get", D3, D3&amp;"="&amp;E3)</f>
         <v>app,video_mode=set,NTSC</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H3" s="88"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="88" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="C4" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_mode=set,PAL</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="F4" s="88" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H4" s="88"/>
     </row>
     <row r="5" spans="2:8" ht="27">
       <c r="B5" s="88" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="C5" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_src=set,1920x1080_30fps</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="E5" s="88" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:8" ht="27">
       <c r="B6" s="88" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="C6" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_src=set,1920x1080_60fps</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H6" s="88"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="88" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="C7" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_enc1_codec=set,H265MP</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F7" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G7" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H7" s="88"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="88" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="C8" s="88" t="str">
         <f t="shared" ref="C8:C9" si="1">IF(G8="get", D8, D8&amp;"="&amp;E8)</f>
         <v>app,video_enc1_codec=set,H264MP</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H8" s="88"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="88" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="C9" s="88" t="str">
         <f t="shared" si="1"/>
         <v>app,video_enc1_codec=set,MJPEG</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H9" s="88"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="88" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="C10" s="88" t="str">
         <f t="shared" ref="C10:C11" si="2">IF(G10="get", D10, D10&amp;"="&amp;E10)</f>
         <v>app,video_enc1_fps=set,1</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G10" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H10" s="88"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="88" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="C11" s="88" t="str">
         <f t="shared" si="2"/>
         <v>app,video_enc1_fps=set,30</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="F11" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G11" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H11" s="88"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="88" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="C12" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_enc1_fps=set,60</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G12" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H12" s="88"/>
     </row>
@@ -35017,16 +35046,16 @@
         <v>group,app,flip=basic,set,enable</v>
       </c>
       <c r="D13" s="88" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F13" s="88" t="s">
         <v>1166</v>
       </c>
-      <c r="E13" s="88" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F13" s="88" t="s">
-        <v>1173</v>
-      </c>
       <c r="G13" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H13" s="88"/>
     </row>
@@ -35039,16 +35068,16 @@
         <v>group,app,flip=basic,set,1</v>
       </c>
       <c r="D14" s="88" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F14" s="88" t="s">
         <v>1166</v>
       </c>
-      <c r="E14" s="88" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>1173</v>
-      </c>
       <c r="G14" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H14" s="88"/>
     </row>
@@ -35061,16 +35090,16 @@
         <v>group,app,mirror=basic,set,enable</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="E15" s="88" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G15" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H15" s="88"/>
     </row>
@@ -35083,1101 +35112,1199 @@
         <v>group,app,mirror=basic,set,1</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H16" s="88"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="88" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C17" s="88" t="str">
         <f t="shared" ref="C17" si="4">IF(G17="get", D17, D17&amp;"="&amp;E17)</f>
         <v>group,app,focus_mode=af,set,auto</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="E17" s="88" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G17" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H17" s="88"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="88" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="C18" s="88" t="str">
-        <f t="shared" ref="C18:C34" si="5">IF(G18="get", D18, D18&amp;"="&amp;E18)</f>
+        <f t="shared" ref="C18:C38" si="5">IF(G18="get", D18, D18&amp;"="&amp;E18)</f>
         <v>group,app,focus_mode=af,set,manual</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="E18" s="88" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="F18" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G18" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H18" s="88"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="88" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="C19" s="88" t="str">
-        <f t="shared" ref="C19:C30" si="6">IF(G19="get", D19, D19&amp;"="&amp;E19)</f>
+        <f t="shared" ref="C19:C34" si="6">IF(G19="get", D19, D19&amp;"="&amp;E19)</f>
         <v>focus=pushaf</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="F19" s="93" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="G19" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H19" s="88"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="88" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="C20" s="88" t="str">
         <f t="shared" si="6"/>
         <v>group,app,focus_speed=af,set,1</v>
       </c>
       <c r="D20" s="88" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="E20" s="88" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="F20" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G20" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H20" s="88"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="88" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="C21" s="88" t="str">
         <f t="shared" si="6"/>
         <v>group,app,focus_speed=af,set,8</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="E21" s="88" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F21" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G21" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H21" s="88"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="88" t="s">
-        <v>1282</v>
+        <v>1466</v>
       </c>
       <c r="C22" s="88" t="str">
+        <f t="shared" ref="C22" si="7">IF(G22="get", D22, D22&amp;"="&amp;E22)</f>
+        <v>preset=00</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E22" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H22" s="88" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="88" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C23" s="88" t="str">
         <f t="shared" si="6"/>
         <v>preset=71</v>
       </c>
-      <c r="D22" s="88" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E22" s="88">
+      <c r="D23" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E23" s="88">
         <v>71</v>
       </c>
-      <c r="F22" s="88" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G22" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H22" s="88"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="88" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C23" s="88" t="str">
-        <f t="shared" ref="C23:C24" si="7">IF(G23="get", D23, D23&amp;"="&amp;E23)</f>
-        <v>preset=76</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E23" s="88">
-        <v>76</v>
-      </c>
       <c r="F23" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G23" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H23" s="88"/>
+        <v>1126</v>
+      </c>
+      <c r="H23" s="88" t="s">
+        <v>1483</v>
+      </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="88" t="s">
-        <v>1284</v>
+        <v>1484</v>
       </c>
       <c r="C24" s="88" t="str">
-        <f t="shared" si="7"/>
-        <v>preset=77</v>
+        <f t="shared" si="6"/>
+        <v>preset=75</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E24" s="88">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G24" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H24" s="88"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="88" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="C25" s="88" t="str">
-        <f t="shared" si="6"/>
-        <v>preset=87</v>
+        <f t="shared" ref="C25:C26" si="8">IF(G25="get", D25, D25&amp;"="&amp;E25)</f>
+        <v>preset=76</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E25" s="88">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F25" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G25" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H25" s="88"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="88" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="C26" s="88" t="str">
-        <f t="shared" ref="C26" si="8">IF(G26="get", D26, D26&amp;"="&amp;E26)</f>
-        <v>preset=88</v>
+        <f t="shared" si="8"/>
+        <v>preset=77</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E26" s="88">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F26" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G26" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H26" s="88"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="88" t="s">
-        <v>1287</v>
+        <v>1489</v>
       </c>
       <c r="C27" s="88" t="str">
         <f t="shared" ref="C27" si="9">IF(G27="get", D27, D27&amp;"="&amp;E27)</f>
         <v>preset=81</v>
       </c>
       <c r="D27" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E27" s="88">
         <v>81</v>
       </c>
       <c r="F27" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G27" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H27" s="88"/>
+        <v>1126</v>
+      </c>
+      <c r="H27" s="88" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="88" t="s">
-        <v>1288</v>
+        <v>1488</v>
       </c>
       <c r="C28" s="88" t="str">
         <f t="shared" ref="C28" si="10">IF(G28="get", D28, D28&amp;"="&amp;E28)</f>
         <v>preset=83</v>
       </c>
       <c r="D28" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E28" s="88">
         <v>83</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G28" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H28" s="88"/>
+        <v>1126</v>
+      </c>
+      <c r="H28" s="88" t="s">
+        <v>1486</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="88" t="s">
-        <v>1289</v>
+        <v>1490</v>
       </c>
       <c r="C29" s="88" t="str">
-        <f t="shared" ref="C29" si="11">IF(G29="get", D29, D29&amp;"="&amp;E29)</f>
+        <f t="shared" ref="C29:C32" si="11">IF(G29="get", D29, D29&amp;"="&amp;E29)</f>
         <v>preset=84</v>
       </c>
       <c r="D29" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E29" s="88">
         <v>84</v>
       </c>
       <c r="F29" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G29" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H29" s="88"/>
+        <v>1126</v>
+      </c>
+      <c r="H29" s="88" t="s">
+        <v>1487</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="88" t="s">
-        <v>1211</v>
+        <v>1278</v>
       </c>
       <c r="C30" s="88" t="str">
+        <f>IF(G30="get", D30, D30&amp;"="&amp;E30)</f>
+        <v>preset=87</v>
+      </c>
+      <c r="D30" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E30" s="88">
+        <v>87</v>
+      </c>
+      <c r="F30" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H30" s="88"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="88" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C31" s="88" t="str">
+        <f t="shared" ref="C31" si="12">IF(G31="get", D31, D31&amp;"="&amp;E31)</f>
+        <v>preset=88</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E31" s="88">
+        <v>88</v>
+      </c>
+      <c r="F31" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G31" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H31" s="88"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="88" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C32" s="88" t="str">
+        <f t="shared" si="11"/>
+        <v>preset=91</v>
+      </c>
+      <c r="D32" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E32" s="88">
+        <v>91</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G32" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H32" s="88"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="88" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C33" s="88" t="str">
+        <f t="shared" ref="C33" si="13">IF(G33="get", D33, D33&amp;"="&amp;E33)</f>
+        <v>preset=90</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E33" s="88">
+        <v>90</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G33" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H33" s="88"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="88" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C34" s="88" t="str">
         <f t="shared" si="6"/>
         <v>group,app,dnn_mode=dnn,set,day</v>
       </c>
-      <c r="D30" s="88" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F30" s="88" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G30" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H30" s="88"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="88" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C31" s="88" t="str">
+      <c r="D34" s="88" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H34" s="88"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="88" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C35" s="88" t="str">
         <f t="shared" si="5"/>
         <v>group,app,dnn_mode=dnn,set,night</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D35" s="88" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E35" s="88" t="s">
         <v>1208</v>
       </c>
-      <c r="E31" s="88" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F31" s="88" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G31" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H31" s="88"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="88" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C32" s="88" t="str">
+      <c r="F35" s="88" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G35" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H35" s="88"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="88" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C36" s="88" t="str">
         <f t="shared" si="5"/>
         <v>group,app,dnn_mode=dnn,set,ext</v>
       </c>
-      <c r="D32" s="88" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F32" s="88" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G32" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H32" s="88"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="88" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C33" s="88" t="str">
+      <c r="D36" s="88" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F36" s="88" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G36" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H36" s="88"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="88" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C37" s="88" t="str">
         <f t="shared" si="5"/>
         <v>group,app,wdr_mode=wdr,set,on</v>
       </c>
-      <c r="D33" s="88" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E33" s="88" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F33" s="88" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G33" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H33" s="88"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="88" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C34" s="88" t="str">
+      <c r="D37" s="88" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G37" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H37" s="88"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="88" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C38" s="88" t="str">
         <f t="shared" si="5"/>
         <v>group,app,wdr_mode=wdr,set,off</v>
       </c>
-      <c r="D34" s="88" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E34" s="88" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F34" s="88" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G34" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H34" s="88"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="88" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C35" s="88" t="str">
-        <f t="shared" ref="C35:C44" si="12">IF(G35="get", D35, D35&amp;"="&amp;E35)</f>
-        <v>group,app,defog_mode=wdr,set,on</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E35" s="88" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F35" s="88" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G35" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H35" s="88"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="88" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C36" s="88" t="str">
-        <f t="shared" si="12"/>
-        <v>group,app,defog_mode=wdr,set,off</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E36" s="88" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F36" s="88" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G36" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H36" s="88"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="88" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C37" s="88" t="str">
-        <f t="shared" si="12"/>
-        <v>group,app,blc_mode=blc,set,on</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E37" s="88" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F37" s="88" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G37" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H37" s="88"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="88" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C38" s="88" t="str">
-        <f t="shared" si="12"/>
-        <v>group,app,blc_mode=blc,set,off</v>
-      </c>
       <c r="D38" s="88" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="E38" s="88" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="F38" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G38" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H38" s="88"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="88" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
       <c r="C39" s="88" t="str">
-        <f t="shared" si="12"/>
-        <v>group,app,hlc_mode=blc,set,on</v>
+        <f t="shared" ref="C39:C48" si="14">IF(G39="get", D39, D39&amp;"="&amp;E39)</f>
+        <v>group,app,defog_mode=wdr,set,on</v>
       </c>
       <c r="D39" s="88" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
       <c r="E39" s="88" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="F39" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G39" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H39" s="88"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="88" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
       <c r="C40" s="88" t="str">
-        <f t="shared" si="12"/>
-        <v>group,app,hlc_mode=blc,set,off</v>
+        <f t="shared" si="14"/>
+        <v>group,app,defog_mode=wdr,set,off</v>
       </c>
       <c r="D40" s="88" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
       <c r="E40" s="88" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="F40" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G40" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H40" s="88"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="88" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="C41" s="88" t="str">
-        <f t="shared" si="12"/>
-        <v>app,dz_enable=set,0</v>
+        <f t="shared" si="14"/>
+        <v>group,app,blc_mode=blc,set,on</v>
       </c>
       <c r="D41" s="88" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="E41" s="88" t="s">
-        <v>1234</v>
+        <v>1219</v>
       </c>
       <c r="F41" s="88" t="s">
-        <v>1233</v>
+        <v>1166</v>
       </c>
       <c r="G41" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H41" s="88"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="88" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
       <c r="C42" s="88" t="str">
-        <f t="shared" si="12"/>
-        <v>app,dz_enable=set,1</v>
+        <f t="shared" si="14"/>
+        <v>group,app,blc_mode=blc,set,off</v>
       </c>
       <c r="D42" s="88" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="E42" s="88" t="s">
-        <v>1194</v>
+        <v>1218</v>
       </c>
       <c r="F42" s="88" t="s">
-        <v>1233</v>
+        <v>1166</v>
       </c>
       <c r="G42" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H42" s="88"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="88" t="s">
-        <v>971</v>
+        <v>1223</v>
       </c>
       <c r="C43" s="88" t="str">
-        <f t="shared" si="12"/>
-        <v>app,dz_level=set,100</v>
+        <f t="shared" si="14"/>
+        <v>group,app,hlc_mode=blc,set,on</v>
       </c>
       <c r="D43" s="88" t="s">
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="E43" s="88" t="s">
-        <v>1238</v>
+        <v>1219</v>
       </c>
       <c r="F43" s="88" t="s">
-        <v>1233</v>
+        <v>1166</v>
       </c>
       <c r="G43" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H43" s="88"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="88" t="s">
-        <v>973</v>
+        <v>1224</v>
       </c>
       <c r="C44" s="88" t="str">
-        <f t="shared" si="12"/>
-        <v>app,dz_level=set,200</v>
+        <f t="shared" si="14"/>
+        <v>group,app,hlc_mode=blc,set,off</v>
       </c>
       <c r="D44" s="88" t="s">
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="E44" s="88" t="s">
-        <v>1239</v>
+        <v>1218</v>
       </c>
       <c r="F44" s="88" t="s">
-        <v>1233</v>
+        <v>1166</v>
       </c>
       <c r="G44" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H44" s="88"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="88" t="s">
-        <v>974</v>
+        <v>1229</v>
       </c>
       <c r="C45" s="88" t="str">
-        <f t="shared" ref="C45:C48" si="13">IF(G45="get", D45, D45&amp;"="&amp;E45)</f>
-        <v>app,dz_level=set,400</v>
+        <f t="shared" si="14"/>
+        <v>app,dz_enable=set,0</v>
       </c>
       <c r="D45" s="88" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="E45" s="88" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="F45" s="88" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G45" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H45" s="88"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="88" t="s">
-        <v>1115</v>
+        <v>1230</v>
       </c>
       <c r="C46" s="88" t="str">
-        <f t="shared" si="13"/>
-        <v>app,dz_level=set,800</v>
+        <f t="shared" si="14"/>
+        <v>app,dz_enable=set,1</v>
       </c>
       <c r="D46" s="88" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="E46" s="88" t="s">
-        <v>1241</v>
+        <v>1187</v>
       </c>
       <c r="F46" s="88" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G46" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H46" s="88"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="88" t="s">
-        <v>1243</v>
+        <v>971</v>
       </c>
       <c r="C47" s="88" t="str">
-        <f t="shared" si="13"/>
-        <v>app,restart=set,1</v>
+        <f t="shared" si="14"/>
+        <v>app,dz_level=set,100</v>
       </c>
       <c r="D47" s="88" t="s">
-        <v>1255</v>
+        <v>1235</v>
       </c>
       <c r="E47" s="88" t="s">
-        <v>1194</v>
+        <v>1231</v>
       </c>
       <c r="F47" s="88" t="s">
-        <v>1244</v>
+        <v>1226</v>
       </c>
       <c r="G47" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H47" s="88"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="88" t="s">
-        <v>1246</v>
+        <v>973</v>
       </c>
       <c r="C48" s="88" t="str">
-        <f t="shared" si="13"/>
-        <v>app,reset=set,1</v>
+        <f t="shared" si="14"/>
+        <v>app,dz_level=set,200</v>
       </c>
       <c r="D48" s="88" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="E48" s="88" t="s">
-        <v>1194</v>
+        <v>1232</v>
       </c>
       <c r="F48" s="88" t="s">
-        <v>1249</v>
+        <v>1226</v>
       </c>
       <c r="G48" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H48" s="88" t="s">
-        <v>1247</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="H48" s="88"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="88" t="s">
-        <v>577</v>
+        <v>974</v>
       </c>
       <c r="C49" s="88" t="str">
-        <f t="shared" ref="C49:C65" si="14">IF(G49="get", D49, D49&amp;"="&amp;E49)</f>
-        <v>app,default=set,1</v>
+        <f t="shared" ref="C49:C52" si="15">IF(G49="get", D49, D49&amp;"="&amp;E49)</f>
+        <v>app,dz_level=set,400</v>
       </c>
       <c r="D49" s="88" t="s">
-        <v>1257</v>
+        <v>1235</v>
       </c>
       <c r="E49" s="88" t="s">
-        <v>1194</v>
+        <v>1233</v>
       </c>
       <c r="F49" s="88" t="s">
-        <v>1250</v>
+        <v>1226</v>
       </c>
       <c r="G49" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H49" s="88" t="s">
-        <v>1248</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="H49" s="88"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="88" t="s">
-        <v>1136</v>
+        <v>1108</v>
       </c>
       <c r="C50" s="88" t="str">
-        <f t="shared" ref="C50:C58" si="15">IF(G50="get", D50, D50&amp;"="&amp;E50)</f>
-        <v>pspd=1</v>
+        <f t="shared" si="15"/>
+        <v>app,dz_level=set,800</v>
       </c>
       <c r="D50" s="88" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E50" s="88">
-        <v>1</v>
+        <v>1235</v>
+      </c>
+      <c r="E50" s="88" t="s">
+        <v>1234</v>
       </c>
       <c r="F50" s="88" t="s">
-        <v>1172</v>
+        <v>1226</v>
       </c>
       <c r="G50" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H50" s="88" t="s">
-        <v>1142</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="H50" s="88"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="88" t="s">
-        <v>1137</v>
+        <v>1236</v>
       </c>
       <c r="C51" s="88" t="str">
         <f t="shared" si="15"/>
-        <v>pspd=63</v>
+        <v>app,restart=set,1</v>
       </c>
       <c r="D51" s="88" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E51" s="88">
-        <v>63</v>
+        <v>1248</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>1187</v>
       </c>
       <c r="F51" s="88" t="s">
-        <v>1172</v>
+        <v>1237</v>
       </c>
       <c r="G51" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H51" s="88"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="88" t="s">
-        <v>1139</v>
+        <v>1239</v>
       </c>
       <c r="C52" s="88" t="str">
         <f t="shared" si="15"/>
-        <v>tspd=1</v>
+        <v>app,reset=set,1</v>
       </c>
       <c r="D52" s="88" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E52" s="88">
-        <v>1</v>
+        <v>1249</v>
+      </c>
+      <c r="E52" s="88" t="s">
+        <v>1187</v>
       </c>
       <c r="F52" s="88" t="s">
-        <v>1172</v>
+        <v>1242</v>
       </c>
       <c r="G52" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>1142</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="88" t="s">
-        <v>1140</v>
+        <v>577</v>
       </c>
       <c r="C53" s="88" t="str">
-        <f t="shared" si="15"/>
-        <v>tspd=63</v>
+        <f t="shared" ref="C53:C69" si="16">IF(G53="get", D53, D53&amp;"="&amp;E53)</f>
+        <v>app,default=set,1</v>
       </c>
       <c r="D53" s="88" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E53" s="88">
-        <v>63</v>
+        <v>1250</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>1187</v>
       </c>
       <c r="F53" s="88" t="s">
-        <v>1172</v>
+        <v>1243</v>
       </c>
       <c r="G53" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H53" s="88"/>
+        <v>1126</v>
+      </c>
+      <c r="H53" s="88" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="88" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="C54" s="88" t="str">
-        <f t="shared" si="15"/>
-        <v>zspd=1</v>
+        <f t="shared" ref="C54:C62" si="17">IF(G54="get", D54, D54&amp;"="&amp;E54)</f>
+        <v>pspd=1</v>
       </c>
       <c r="D54" s="88" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="E54" s="88">
         <v>1</v>
       </c>
       <c r="F54" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G54" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="88" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="C55" s="88" t="str">
-        <f t="shared" si="15"/>
-        <v>zspd=8</v>
+        <f t="shared" si="17"/>
+        <v>pspd=63</v>
       </c>
       <c r="D55" s="88" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="E55" s="88">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F55" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G55" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H55" s="88"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="88" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="C56" s="88" t="str">
-        <f t="shared" si="15"/>
-        <v>zoom=1</v>
+        <f t="shared" si="17"/>
+        <v>tspd=1</v>
       </c>
       <c r="D56" s="88" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="E56" s="88">
         <v>1</v>
       </c>
       <c r="F56" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G56" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H56" s="88"/>
+        <v>1126</v>
+      </c>
+      <c r="H56" s="88" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="88" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="C57" s="88" t="str">
-        <f t="shared" si="15"/>
-        <v>zoom=1</v>
+        <f t="shared" si="17"/>
+        <v>tspd=63</v>
       </c>
       <c r="D57" s="88" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="E57" s="88">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="F57" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G57" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H57" s="88"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="88" t="s">
-        <v>1001</v>
+        <v>1137</v>
       </c>
       <c r="C58" s="88" t="str">
-        <f t="shared" si="15"/>
-        <v>zoom=stop</v>
+        <f t="shared" si="17"/>
+        <v>zspd=1</v>
       </c>
       <c r="D58" s="88" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E58" s="88" t="s">
         <v>1134</v>
       </c>
+      <c r="E58" s="88">
+        <v>1</v>
+      </c>
       <c r="F58" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G58" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H58" s="88"/>
+        <v>1126</v>
+      </c>
+      <c r="H58" s="88" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="88" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="C59" s="88" t="str">
-        <f t="shared" ref="C59:C64" si="16">IF(G59="get", D59, D59&amp;"="&amp;E59)</f>
-        <v>focus=near</v>
+        <f t="shared" si="17"/>
+        <v>zspd=8</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E59" s="88" t="s">
-        <v>1149</v>
+        <v>1134</v>
+      </c>
+      <c r="E59" s="88">
+        <v>8</v>
       </c>
       <c r="F59" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G59" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H59" s="88"/>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="88" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="C60" s="88" t="str">
-        <f t="shared" si="16"/>
-        <v>focus=far</v>
+        <f t="shared" si="17"/>
+        <v>zoom=1</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E60" s="88" t="s">
-        <v>1150</v>
+        <v>1139</v>
+      </c>
+      <c r="E60" s="88">
+        <v>1</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G60" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H60" s="88"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="88" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="C61" s="88" t="str">
-        <f t="shared" si="16"/>
-        <v>focus=1</v>
+        <f t="shared" si="17"/>
+        <v>zoom=1</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="E61" s="88">
         <v>1</v>
       </c>
       <c r="F61" s="88" t="s">
-        <v>1253</v>
+        <v>1165</v>
       </c>
       <c r="G61" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H61" s="88"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="88" t="s">
-        <v>1154</v>
+        <v>1001</v>
       </c>
       <c r="C62" s="88" t="str">
-        <f t="shared" si="16"/>
-        <v>focus=1</v>
+        <f t="shared" si="17"/>
+        <v>zoom=stop</v>
       </c>
       <c r="D62" s="88" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E62" s="88">
-        <v>1</v>
+        <v>1139</v>
+      </c>
+      <c r="E62" s="88" t="s">
+        <v>1127</v>
       </c>
       <c r="F62" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G62" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H62" s="88"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="88" t="s">
-        <v>1006</v>
+        <v>1144</v>
       </c>
       <c r="C63" s="88" t="str">
-        <f t="shared" si="16"/>
-        <v>focus=stop</v>
+        <f t="shared" ref="C63:C68" si="18">IF(G63="get", D63, D63&amp;"="&amp;E63)</f>
+        <v>focus=near</v>
       </c>
       <c r="D63" s="88" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E63" s="88" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="F63" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G63" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H63" s="88"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="88" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="C64" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>focus=far</v>
+      </c>
+      <c r="D64" s="88" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E64" s="88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F64" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G64" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H64" s="88"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="88" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C65" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>focus=1</v>
+      </c>
+      <c r="D65" s="88" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E65" s="88">
+        <v>1</v>
+      </c>
+      <c r="F65" s="88" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G65" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H65" s="88"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="88" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C66" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>focus=1</v>
+      </c>
+      <c r="D66" s="88" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E66" s="88">
+        <v>1</v>
+      </c>
+      <c r="F66" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G66" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H66" s="88"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="88" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C67" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>focus=stop</v>
+      </c>
+      <c r="D67" s="88" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E67" s="88" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F67" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G67" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H67" s="88"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="88" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C68" s="88" t="str">
+        <f t="shared" si="18"/>
+        <v>move=stop</v>
+      </c>
+      <c r="D68" s="88" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E68" s="88" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F68" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G68" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H68" s="88"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="88"/>
+      <c r="C69" s="88" t="str">
         <f t="shared" si="16"/>
-        <v>move=stop</v>
-      </c>
-      <c r="D64" s="88" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E64" s="88" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F64" s="88" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G64" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H64" s="88"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="88"/>
-      <c r="C65" s="88" t="str">
-        <f t="shared" si="14"/>
         <v>=FALSE</v>
       </c>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88" t="b">
-        <f t="shared" ref="E65" si="17">IF(G65="get", "")</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H65" s="88"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88" t="b">
+        <f t="shared" ref="E69" si="19">IF(G69="get", "")</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H69" s="88"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -43170,7 +43297,7 @@
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
       <c r="H1" s="80" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="2:8" s="2" customFormat="1">
@@ -43181,13 +43308,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="F2" s="86" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="G2" s="86" t="s">
         <v>311</v>
@@ -43198,375 +43325,375 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="88" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="88" t="str">
         <f t="shared" ref="C3:C19" si="0">IF(G3="get", D3, D3&amp;"="&amp;E3)</f>
         <v>preset=1</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E3" s="88">
         <v>1</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H3" s="88"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="88" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="C4" s="88" t="str">
         <f t="shared" si="0"/>
         <v>preset=8</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E4" s="88">
         <v>8</v>
       </c>
       <c r="F4" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H4" s="88"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="88" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="C5" s="88" t="str">
         <f t="shared" si="0"/>
         <v>preset=71</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E5" s="88">
         <v>71</v>
       </c>
       <c r="F5" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H5" s="88"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="88" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="C6" s="88" t="str">
         <f t="shared" si="0"/>
         <v>preset=76</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E6" s="88">
         <v>76</v>
       </c>
       <c r="F6" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H6" s="88"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="88" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="C7" s="88" t="str">
         <f t="shared" si="0"/>
         <v>preset=77</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E7" s="88">
         <v>77</v>
       </c>
       <c r="F7" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G7" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H7" s="88"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="88" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="C8" s="88" t="str">
         <f t="shared" si="0"/>
         <v>preset=87</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E8" s="88">
         <v>87</v>
       </c>
       <c r="F8" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H8" s="88"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="88" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="C9" s="88" t="str">
         <f t="shared" si="0"/>
         <v>preset=88</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E9" s="88">
         <v>88</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H9" s="88"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="88" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="C10" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_mode=set,NTSC</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="F10" s="88" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G10" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H10" s="88"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="88" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="C11" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_mode=set,PAL</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="F11" s="88" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G11" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H11" s="88"/>
     </row>
     <row r="12" spans="2:8" ht="27">
       <c r="B12" s="88" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="C12" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_src=set,1920x1080_30fps</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F12" s="88" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G12" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H12" s="88"/>
     </row>
     <row r="13" spans="2:8" ht="27">
       <c r="B13" s="88" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="C13" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_src=set,1920x1080_60fps</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F13" s="88" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="G13" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="88" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="C14" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_enc#_codec=set,H265MP</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="E14" s="88" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G14" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H14" s="88"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="88" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="C15" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_enc#_codec=set,H264MP</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="E15" s="88" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="F15" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G15" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H15" s="88"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="88" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="C16" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_enc#_codec=set,MJPEG</v>
       </c>
       <c r="D16" s="88" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G16" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H16" s="88"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="88" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="C17" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_enc#_fps=set,1</v>
       </c>
       <c r="D17" s="88" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="E17" s="88" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G17" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H17" s="88"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="88" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="C18" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_enc#_fps=set,30</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="E18" s="88" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="F18" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G18" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H18" s="88"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="88" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="C19" s="88" t="str">
         <f t="shared" si="0"/>
         <v>app,video_enc#_fps=set,60</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="E19" s="88" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="F19" s="88" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="G19" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H19" s="88"/>
     </row>
@@ -43579,16 +43706,16 @@
         <v>group,app,flip=basic,set,enable</v>
       </c>
       <c r="D20" s="88" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F20" s="88" t="s">
         <v>1166</v>
       </c>
-      <c r="E20" s="88" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F20" s="88" t="s">
-        <v>1173</v>
-      </c>
       <c r="G20" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H20" s="88"/>
     </row>
@@ -43601,16 +43728,16 @@
         <v>group,app,flip=basic,set,1</v>
       </c>
       <c r="D21" s="88" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F21" s="88" t="s">
         <v>1166</v>
       </c>
-      <c r="E21" s="88" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F21" s="88" t="s">
-        <v>1173</v>
-      </c>
       <c r="G21" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H21" s="88"/>
     </row>
@@ -43623,16 +43750,16 @@
         <v>group,app,mirror=basic,set,enable</v>
       </c>
       <c r="D22" s="88" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="E22" s="88" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="F22" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G22" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H22" s="88"/>
     </row>
@@ -43645,434 +43772,434 @@
         <v>group,app,mirror=basic,set,1</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="E23" s="88" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="F23" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G23" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H23" s="88"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="88" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="C24" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,focus_mode=af,set,auto</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="E24" s="88" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G24" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H24" s="88"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="88" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="C25" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,focus_mode=af,set,manual</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="E25" s="88" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="F25" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G25" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H25" s="88"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="88" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="C26" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,focus_mode=af,set,pushaf</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="E26" s="88" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="F26" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G26" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H26" s="88"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="88" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="C27" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,focus_speed=af,set,1</v>
       </c>
       <c r="D27" s="88" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="E27" s="88" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="F27" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G27" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H27" s="88"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="88" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="C28" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,focus_speed=af,set,8</v>
       </c>
       <c r="D28" s="88" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="E28" s="88" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F28" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G28" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H28" s="88"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="88" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="C29" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,dnn_mode=dnn,set,auto</v>
       </c>
       <c r="D29" s="88" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="E29" s="88" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F29" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G29" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H29" s="88"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="88" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="C30" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,dnn_mode=dnn,set,day</v>
       </c>
       <c r="D30" s="88" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="E30" s="88" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="F30" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G30" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H30" s="88"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="88" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="C31" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,dnn_mode=dnn,set,night</v>
       </c>
       <c r="D31" s="88" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E31" s="88" t="s">
         <v>1208</v>
       </c>
-      <c r="E31" s="88" t="s">
-        <v>1215</v>
-      </c>
       <c r="F31" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G31" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H31" s="88"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="88" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="C32" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,dnn_mode=dnn,set,ext</v>
       </c>
       <c r="D32" s="88" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="E32" s="88" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="F32" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G32" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H32" s="88"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="88" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="C33" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,wdr_mode=wdr,set,on</v>
       </c>
       <c r="D33" s="88" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="E33" s="88" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="F33" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G33" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H33" s="88"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="88" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="C34" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,wdr_mode=wdr,set,off</v>
       </c>
       <c r="D34" s="88" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="E34" s="88" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="F34" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G34" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H34" s="88"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="88" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="C35" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,defog_mode=wdr,set,on</v>
       </c>
       <c r="D35" s="88" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="E35" s="88" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="F35" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G35" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H35" s="88"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="88" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="C36" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,defog_mode=wdr,set,off</v>
       </c>
       <c r="D36" s="88" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="E36" s="88" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G36" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H36" s="88"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="88" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="C37" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,blc_mode=blc,set,on</v>
       </c>
       <c r="D37" s="88" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="E37" s="88" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="F37" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G37" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H37" s="88"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="88" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="C38" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,blc_mode=blc,set,off</v>
       </c>
       <c r="D38" s="88" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="E38" s="88" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="F38" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G38" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H38" s="88"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="88" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="C39" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,hlc_mode=blc,set,on</v>
       </c>
       <c r="D39" s="88" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="E39" s="88" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="F39" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G39" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H39" s="88"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="88" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="C40" s="88" t="str">
         <f t="shared" si="1"/>
         <v>group,app,hlc_mode=blc,set,off</v>
       </c>
       <c r="D40" s="88" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="E40" s="88" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="F40" s="88" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="G40" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H40" s="88"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="88" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="C41" s="88" t="str">
         <f t="shared" si="1"/>
         <v>app,dz_enable=set,0</v>
       </c>
       <c r="D41" s="88" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="E41" s="88" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="F41" s="88" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G41" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H41" s="88"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="88" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="C42" s="88" t="str">
         <f t="shared" si="1"/>
         <v>app,dz_enable=set,1</v>
       </c>
       <c r="D42" s="88" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="E42" s="88" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="F42" s="88" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G42" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H42" s="88"/>
     </row>
@@ -44085,16 +44212,16 @@
         <v>app,dz_level=set,100</v>
       </c>
       <c r="D43" s="88" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="E43" s="88" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="F43" s="88" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G43" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H43" s="88"/>
     </row>
@@ -44107,16 +44234,16 @@
         <v>app,dz_level=set,200</v>
       </c>
       <c r="D44" s="88" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="E44" s="88" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="F44" s="88" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G44" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H44" s="88"/>
     </row>
@@ -44129,85 +44256,85 @@
         <v>app,dz_level=set,400</v>
       </c>
       <c r="D45" s="88" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="E45" s="88" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="F45" s="88" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G45" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H45" s="88"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="88" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="C46" s="88" t="str">
         <f t="shared" si="1"/>
         <v>app,dz_level=set,800</v>
       </c>
       <c r="D46" s="88" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="E46" s="88" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="F46" s="88" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="G46" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H46" s="88"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="88" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="C47" s="88" t="str">
         <f t="shared" si="1"/>
         <v>app=set</v>
       </c>
       <c r="D47" s="88" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="E47" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="F47" s="88" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="G47" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H47" s="88"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="88" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="C48" s="88" t="str">
         <f t="shared" si="1"/>
         <v>app=set</v>
       </c>
       <c r="D48" s="88" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="E48" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="F48" s="88" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="G48" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H48" s="88" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -44224,194 +44351,194 @@
         <v>0</v>
       </c>
       <c r="F49" s="88" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="G49" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H49" s="88" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="88" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="C50" s="88" t="str">
         <f t="shared" si="1"/>
         <v>pspd=1</v>
       </c>
       <c r="D50" s="88" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E50" s="88">
+        <v>1</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G50" s="88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H50" s="88" t="s">
         <v>1135</v>
-      </c>
-      <c r="E50" s="88">
-        <v>1</v>
-      </c>
-      <c r="F50" s="88" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G50" s="88" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H50" s="88" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="88" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="C51" s="88" t="str">
         <f t="shared" si="1"/>
         <v>pspd=63</v>
       </c>
       <c r="D51" s="88" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="E51" s="88">
         <v>63</v>
       </c>
       <c r="F51" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G51" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H51" s="88"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="88" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="C52" s="88" t="str">
         <f t="shared" si="1"/>
         <v>tspd=1</v>
       </c>
       <c r="D52" s="88" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="E52" s="88">
         <v>1</v>
       </c>
       <c r="F52" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G52" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="88" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="C53" s="88" t="str">
         <f t="shared" si="1"/>
         <v>tspd=63</v>
       </c>
       <c r="D53" s="88" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="E53" s="88">
         <v>63</v>
       </c>
       <c r="F53" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G53" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H53" s="88"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="88" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="C54" s="88" t="str">
         <f t="shared" si="1"/>
         <v>zspd=1</v>
       </c>
       <c r="D54" s="88" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="E54" s="88">
         <v>1</v>
       </c>
       <c r="F54" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G54" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="88" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="C55" s="88" t="str">
         <f t="shared" si="1"/>
         <v>zspd=8</v>
       </c>
       <c r="D55" s="88" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="E55" s="88">
         <v>8</v>
       </c>
       <c r="F55" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G55" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H55" s="88"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="88" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="C56" s="88" t="str">
         <f t="shared" si="1"/>
         <v>zoom=1</v>
       </c>
       <c r="D56" s="88" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="E56" s="88">
         <v>1</v>
       </c>
       <c r="F56" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G56" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H56" s="88"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="88" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="C57" s="88" t="str">
         <f t="shared" si="1"/>
         <v>zoom=1</v>
       </c>
       <c r="D57" s="88" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="E57" s="88">
         <v>1</v>
       </c>
       <c r="F57" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G57" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H57" s="88"/>
     </row>
@@ -44424,104 +44551,104 @@
         <v>zoom=stop</v>
       </c>
       <c r="D58" s="88" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="E58" s="88" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="F58" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G58" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H58" s="88"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="88" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="C59" s="88" t="str">
         <f t="shared" ref="C59:C64" si="3">IF(G59="get", D59, D59&amp;"="&amp;E59)</f>
         <v>focus=near</v>
       </c>
       <c r="D59" s="88" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E59" s="88" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="F59" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G59" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H59" s="88"/>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="88" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="C60" s="88" t="str">
         <f t="shared" si="3"/>
         <v>focus=far</v>
       </c>
       <c r="D60" s="88" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E60" s="88" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G60" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H60" s="88"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="88" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C61" s="88" t="str">
         <f t="shared" si="3"/>
         <v>focus=1</v>
       </c>
       <c r="D61" s="88" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E61" s="88">
         <v>1</v>
       </c>
       <c r="F61" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G61" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H61" s="88"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="88" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C62" s="88" t="str">
         <f t="shared" si="3"/>
         <v>focus=1</v>
       </c>
       <c r="D62" s="88" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E62" s="88">
         <v>1</v>
       </c>
       <c r="F62" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G62" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H62" s="88"/>
     </row>
@@ -44534,38 +44661,38 @@
         <v>focus=stop</v>
       </c>
       <c r="D63" s="88" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="E63" s="88" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="F63" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G63" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H63" s="88"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="88" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C64" s="88" t="str">
         <f t="shared" si="3"/>
         <v>move=stop</v>
       </c>
       <c r="D64" s="88" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="E64" s="88" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="F64" s="88" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="G64" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H64" s="88"/>
     </row>
@@ -44582,7 +44709,7 @@
       </c>
       <c r="F65" s="88"/>
       <c r="G65" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H65" s="88"/>
     </row>
@@ -44599,7 +44726,7 @@
       </c>
       <c r="F66" s="88"/>
       <c r="G66" s="88" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="H66" s="88"/>
     </row>

--- a/Command/Command.xlsx
+++ b/Command/Command.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Project\Python\TestTool\Command\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6D2E51-E900-4A5D-ADB1-3A3B8E3207D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ACD261-CBF3-48D4-B92C-BB907CC55E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{79FED000-970D-0E48-B65E-FB5160DD82FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Uncooled" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4868" uniqueCount="1498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="1500">
   <si>
     <r>
       <rPr>
@@ -5767,6 +5767,14 @@
   </si>
   <si>
     <t>Mask 2 Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capture NYX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16717,7 +16725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E92AE5-296A-4A53-A69F-D6F31FDFEA61}">
   <dimension ref="B1:T157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
@@ -30402,13 +30410,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E81CA2C-2102-45AC-92BA-FE564D531E29}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:N259"/>
+  <dimension ref="B1:N260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomRight" activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -34752,6 +34760,22 @@
         <v>696</v>
       </c>
       <c r="G259" s="78"/>
+    </row>
+    <row r="260" spans="2:7">
+      <c r="B260" s="82" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C260" s="83" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D260" s="83" t="s">
+        <v>712</v>
+      </c>
+      <c r="E260" s="84">
+        <v>1</v>
+      </c>
+      <c r="F260" s="83"/>
+      <c r="G260" s="78"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:N259" xr:uid="{3E81CA2C-2102-45AC-92BA-FE564D531E29}">
